--- a/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
+++ b/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367CE5C-5050-418D-8D9C-2E875335E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE8E20-0A52-4201-A51B-25944CE163F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1118">
   <si>
     <t>Id_industria</t>
   </si>
@@ -3030,15 +3030,6 @@
     <t>270105003aborto_sin_consentimiento</t>
   </si>
   <si>
-    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004</t>
-  </si>
-  <si>
-    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
-    <t>270105004trafico_de_organos_incluyendo_los_provenientes_de_aborto</t>
-  </si>
-  <si>
     <t>Infracciones A La Ley De Identidad De Género-270106001</t>
   </si>
   <si>
@@ -3364,6 +3355,69 @@
   </si>
   <si>
     <t>100107015otros</t>
+  </si>
+  <si>
+    <t>Violencia Económica</t>
+  </si>
+  <si>
+    <t>Violencia Económica-270103007</t>
+  </si>
+  <si>
+    <t>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270103007violencia_economica</t>
+  </si>
+  <si>
+    <t>Violencia Psicológica</t>
+  </si>
+  <si>
+    <t>Violencia Psicológica-270103008</t>
+  </si>
+  <si>
+    <t>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270103008violencia_psicologica</t>
+  </si>
+  <si>
+    <t>Aborto</t>
+  </si>
+  <si>
+    <t>Aborto-270105004</t>
+  </si>
+  <si>
+    <t>Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270105004aborto</t>
+  </si>
+  <si>
+    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005</t>
+  </si>
+  <si>
+    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270105005trafico_de_organos_incluyendo_los_provenientes_de_aborto</t>
+  </si>
+  <si>
+    <t>Centros de la Mujer-270108010</t>
+  </si>
+  <si>
+    <t>Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270108010centros_de_la_mujer</t>
+  </si>
+  <si>
+    <t>Casas de Acogida-270109010</t>
+  </si>
+  <si>
+    <t>Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270109010casas_de_acogida</t>
   </si>
 </sst>
 </file>
@@ -3371,7 +3425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -3542,7 +3596,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4594,7 +4648,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>353695</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>77341</xdr:rowOff>
     </xdr:to>
@@ -4666,13 +4720,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>391795</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:colOff>1345565</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -4744,15 +4798,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:colOff>1246505</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
+      <xdr:rowOff>141604</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4833,7 +4887,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>143510</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>7440</xdr:rowOff>
     </xdr:to>
@@ -4905,13 +4959,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>181610</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>161290</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
@@ -4991,7 +5045,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1173480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>161110</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5061,15 +5115,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:colOff>1210310</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>753110</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>161110</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5275,8 +5329,8 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Industria" xr10:uid="{B77F4C3B-1E6F-44BC-8D8D-E6B3EA184597}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FF7AA0F4-9660-460D-B2AE-353118A2D7F9}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
-  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="8" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
-  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" startItem="3" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
+  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="2" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -5325,7 +5379,18 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J37" totalsRowShown="0">
-  <autoFilter ref="A10:J37" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}"/>
+  <autoFilter ref="A10:J37" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Mujeres"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Violencia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{17BBD643-0CB5-4375-BF45-BC9750D7B143}" name="Id_industria" dataDxfId="23">
       <calculatedColumnFormula>+A10</calculatedColumnFormula>
@@ -5357,10 +5422,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M266" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M266" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:M266">
-    <sortCondition ref="G10:G266"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M271" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A9:M271" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Mujeres"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Violencia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:M265">
+    <sortCondition ref="G10:G265"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="12"/>
@@ -5682,21 +5758,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B4F77-22B7-4C2A-8BD3-673667633AEC}">
   <dimension ref="A4:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -5713,7 +5789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="41">
         <v>10</v>
       </c>
@@ -5731,7 +5807,7 @@
         <v>INSERT INTO industria VALUES (10,'Agricultura y Ganadería','AGR - 10','Industria: AGR - 10');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="41">
         <v>27</v>
       </c>
@@ -5770,26 +5846,26 @@
       <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="59.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="39">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -5842,7 +5918,7 @@
         <v>INSERT INTO sector VALUES (1001,'Agricultura','Agr-1001','Sector: Agr-1001 | Industria: AGR - 10',10);</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>27</v>
       </c>
@@ -5894,31 +5970,31 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="39">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -5950,7 +6026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5987,7 +6063,7 @@
         <v>100101 Producto|| Berries</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -6024,7 +6100,7 @@
         <v>100102 Producto|| Cítricos</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6061,7 +6137,7 @@
         <v>100103 Producto|| Frutos de hueso (carozo)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>10</v>
       </c>
@@ -6098,7 +6174,7 @@
         <v>100104 Producto|| Frutos de pepita</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -6135,7 +6211,7 @@
         <v>100105 Producto|| Frutos secos</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>10</v>
       </c>
@@ -6172,7 +6248,7 @@
         <v>100106 Producto|| Frutos oleaginosos</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>10</v>
       </c>
@@ -6209,7 +6285,7 @@
         <v>100107 Producto|| Otros</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -6246,7 +6322,7 @@
         <v>100108 Producto|| Tropicales y subtropicales</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -6283,7 +6359,7 @@
         <v>100109 Producto|| Uva</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -6320,7 +6396,7 @@
         <v>100110 Producto|| Legumbres</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>10</v>
       </c>
@@ -6357,7 +6433,7 @@
         <v>100111 Producto|| Cereales</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>10</v>
       </c>
@@ -6394,7 +6470,7 @@
         <v>100112 Producto|| Hortalizas</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>10</v>
       </c>
@@ -6431,7 +6507,7 @@
         <v>100113 Producto|| Industriales</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>10</v>
       </c>
@@ -6468,7 +6544,7 @@
         <v>100114 Producto|| Tubérculos</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>10</v>
       </c>
@@ -6501,7 +6577,7 @@
         <v>INSERT INTO producto VALUES (100115,'Semillas','Semillas','Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>10</v>
       </c>
@@ -6534,7 +6610,7 @@
         <v>INSERT INTO producto VALUES (100116,'Especias','Especias','Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>10</v>
       </c>
@@ -6567,7 +6643,7 @@
         <v>INSERT INTO producto VALUES (100117,'Plantas y forraje','Forraje','Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>10</v>
       </c>
@@ -6600,7 +6676,7 @@
         <v>INSERT INTO producto VALUES (100118,'Mano de Obra Frutícola','Mano Obra','Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -6633,7 +6709,7 @@
         <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>27</v>
       </c>
@@ -6666,7 +6742,7 @@
         <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>27</v>
       </c>
@@ -6699,7 +6775,7 @@
         <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>27</v>
       </c>
@@ -6732,7 +6808,7 @@
         <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>27</v>
       </c>
@@ -6765,7 +6841,7 @@
         <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>27</v>
       </c>
@@ -6798,7 +6874,7 @@
         <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>27</v>
       </c>
@@ -6831,7 +6907,7 @@
         <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>27</v>
       </c>
@@ -6864,7 +6940,7 @@
         <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Salud','Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -6918,38 +6994,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
-  <dimension ref="A8:M266"/>
+  <dimension ref="A8:M271"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="49.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" s="14"/>
       <c r="G8" s="14">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +7066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -7028,11 +7104,11 @@
         <v>289</v>
       </c>
       <c r="M10" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
+        <f t="shared" ref="M10:M73" si="0">+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
         <v>INSERT INTO categoria VALUES (100101001,'Arándano','Arándano-100101001','Arándano-100101001 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -7070,11 +7146,11 @@
         <v>292</v>
       </c>
       <c r="M11" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G11&amp;",'"&amp;I11&amp;"','"&amp;J11&amp;"','"&amp;K11&amp;"',"&amp;E11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101002,'Calafate','Calafate-100101002','Calafate-100101002 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -7112,11 +7188,11 @@
         <v>295</v>
       </c>
       <c r="M12" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G12&amp;",'"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"',"&amp;E12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101003,'Cranberry','Cranberry-100101003','Cranberry-100101003 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -7154,11 +7230,11 @@
         <v>298</v>
       </c>
       <c r="M13" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G13&amp;",'"&amp;I13&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"',"&amp;E13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101004,'Frambuesa','Frambuesa-100101004','Frambuesa-100101004 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -7196,11 +7272,11 @@
         <v>301</v>
       </c>
       <c r="M14" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G14&amp;",'"&amp;I14&amp;"','"&amp;J14&amp;"','"&amp;K14&amp;"',"&amp;E14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101005,'Haskap','Haskap-100101005','Haskap-100101005 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -7238,11 +7314,11 @@
         <v>304</v>
       </c>
       <c r="M15" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G15&amp;",'"&amp;I15&amp;"','"&amp;J15&amp;"','"&amp;K15&amp;"',"&amp;E15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101006,'Higo','Higo-100101006','Higo-100101006 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>10</v>
       </c>
@@ -7280,11 +7356,11 @@
         <v>307</v>
       </c>
       <c r="M16" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G16&amp;",'"&amp;I16&amp;"','"&amp;J16&amp;"','"&amp;K16&amp;"',"&amp;E16&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101007,'Kiwi','Kiwi-100101007','Kiwi-100101007 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -7322,11 +7398,11 @@
         <v>310</v>
       </c>
       <c r="M17" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G17&amp;",'"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"',"&amp;E17&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101008,'Mora','Mora-100101008','Mora-100101008 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>10</v>
       </c>
@@ -7364,11 +7440,11 @@
         <v>313</v>
       </c>
       <c r="M18" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G18&amp;",'"&amp;I18&amp;"','"&amp;J18&amp;"','"&amp;K18&amp;"',"&amp;E18&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101009,'Murtilla','Murtilla-100101009','Murtilla-100101009 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>10</v>
       </c>
@@ -7406,11 +7482,11 @@
         <v>316</v>
       </c>
       <c r="M19" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G19&amp;",'"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"',"&amp;E19&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101010,'Zarzaparrilla','Zarzaparrilla-100101010','Zarzaparrilla-100101010 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>10</v>
       </c>
@@ -7448,11 +7524,11 @@
         <v>319</v>
       </c>
       <c r="M20" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G20&amp;",'"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"',"&amp;E20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101011,'Otros berries','Otros berries-100101011','Otros berries-100101011 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -7490,11 +7566,11 @@
         <v>322</v>
       </c>
       <c r="M21" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G21&amp;",'"&amp;I21&amp;"','"&amp;J21&amp;"','"&amp;K21&amp;"',"&amp;E21&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101012,'Elderberry','Elderberry-100101012','Elderberry-100101012 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>10</v>
       </c>
@@ -7532,11 +7608,11 @@
         <v>325</v>
       </c>
       <c r="M22" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G22&amp;",'"&amp;I22&amp;"','"&amp;J22&amp;"','"&amp;K22&amp;"',"&amp;E22&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101013,'Sanddorn','Sanddorn-100101013','Sanddorn-100101013 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>10</v>
       </c>
@@ -7574,11 +7650,11 @@
         <v>328</v>
       </c>
       <c r="M23" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G23&amp;",'"&amp;I23&amp;"','"&amp;J23&amp;"','"&amp;K23&amp;"',"&amp;E23&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101014,'Acai berry','Acai berry-100101014','Acai berry-100101014 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -7616,11 +7692,11 @@
         <v>331</v>
       </c>
       <c r="M24" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G24&amp;",'"&amp;I24&amp;"','"&amp;J24&amp;"','"&amp;K24&amp;"',"&amp;E24&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101015,'Mora Silvestre','Mora Silvestre-100101015','Mora Silvestre-100101015 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>10</v>
       </c>
@@ -7658,11 +7734,11 @@
         <v>334</v>
       </c>
       <c r="M25" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G25&amp;",'"&amp;I25&amp;"','"&amp;J25&amp;"','"&amp;K25&amp;"',"&amp;E25&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100101016,'Mora Cultivada','Mora Cultivada-100101016','Mora Cultivada-100101016 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>10</v>
       </c>
@@ -7700,11 +7776,11 @@
         <v>337</v>
       </c>
       <c r="M26" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G26&amp;",'"&amp;I26&amp;"','"&amp;J26&amp;"','"&amp;K26&amp;"',"&amp;E26&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102001,'Kumquat','Kumquat-100102001','Kumquat-100102001 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>10</v>
       </c>
@@ -7742,11 +7818,11 @@
         <v>340</v>
       </c>
       <c r="M27" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G27&amp;",'"&amp;I27&amp;"','"&amp;J27&amp;"','"&amp;K27&amp;"',"&amp;E27&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102002,'Lima','Lima-100102002','Lima-100102002 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>10</v>
       </c>
@@ -7784,11 +7860,11 @@
         <v>343</v>
       </c>
       <c r="M28" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G28&amp;",'"&amp;I28&amp;"','"&amp;J28&amp;"','"&amp;K28&amp;"',"&amp;E28&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102003,'Limón','Limón-100102003','Limón-100102003 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>10</v>
       </c>
@@ -7826,11 +7902,11 @@
         <v>346</v>
       </c>
       <c r="M29" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G29&amp;",'"&amp;I29&amp;"','"&amp;J29&amp;"','"&amp;K29&amp;"',"&amp;E29&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102004,'Mandarina','Mandarina-100102004','Mandarina-100102004 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>10</v>
       </c>
@@ -7868,11 +7944,11 @@
         <v>349</v>
       </c>
       <c r="M30" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G30&amp;",'"&amp;I30&amp;"','"&amp;J30&amp;"','"&amp;K30&amp;"',"&amp;E30&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102005,'Naranja','Naranja-100102005','Naranja-100102005 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>10</v>
       </c>
@@ -7910,11 +7986,11 @@
         <v>352</v>
       </c>
       <c r="M31" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G31&amp;",'"&amp;I31&amp;"','"&amp;J31&amp;"','"&amp;K31&amp;"',"&amp;E31&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102006,'Pomelo','Pomelo-100102006','Pomelo-100102006 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -7952,11 +8028,11 @@
         <v>355</v>
       </c>
       <c r="M32" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G32&amp;",'"&amp;I32&amp;"','"&amp;J32&amp;"','"&amp;K32&amp;"',"&amp;E32&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102007,'Tangelo','Tangelo-100102007','Tangelo-100102007 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -7994,11 +8070,11 @@
         <v>358</v>
       </c>
       <c r="M33" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G33&amp;",'"&amp;I33&amp;"','"&amp;J33&amp;"','"&amp;K33&amp;"',"&amp;E33&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102008,'Otros cítricos','Otros cítricos-100102008','Otros cítricos-100102008 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -8036,11 +8112,11 @@
         <v>361</v>
       </c>
       <c r="M34" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G34&amp;",'"&amp;I34&amp;"','"&amp;J34&amp;"','"&amp;K34&amp;"',"&amp;E34&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102009,'Frutos Cítricos','Frutos Cítricos-100102009','Frutos Cítricos-100102009 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -8078,11 +8154,11 @@
         <v>364</v>
       </c>
       <c r="M35" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G35&amp;",'"&amp;I35&amp;"','"&amp;J35&amp;"','"&amp;K35&amp;"',"&amp;E35&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100102010,'Clementina','Clementina-100102010','Clementina-100102010 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>10</v>
       </c>
@@ -8120,11 +8196,11 @@
         <v>367</v>
       </c>
       <c r="M36" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G36&amp;",'"&amp;I36&amp;"','"&amp;J36&amp;"','"&amp;K36&amp;"',"&amp;E36&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103001,'Cereza','Cereza-100103001','Cereza-100103001 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>10</v>
       </c>
@@ -8162,11 +8238,11 @@
         <v>370</v>
       </c>
       <c r="M37" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G37&amp;",'"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"',"&amp;E37&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103002,'Ciruela','Ciruela-100103002','Ciruela-100103002 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>10</v>
       </c>
@@ -8204,11 +8280,11 @@
         <v>373</v>
       </c>
       <c r="M38" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G38&amp;",'"&amp;I38&amp;"','"&amp;J38&amp;"','"&amp;K38&amp;"',"&amp;E38&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103003,'Damasco','Damasco-100103003','Damasco-100103003 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>10</v>
       </c>
@@ -8246,11 +8322,11 @@
         <v>376</v>
       </c>
       <c r="M39" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G39&amp;",'"&amp;I39&amp;"','"&amp;J39&amp;"','"&amp;K39&amp;"',"&amp;E39&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103004,'Durazno','Durazno-100103004','Durazno-100103004 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>10</v>
       </c>
@@ -8288,11 +8364,11 @@
         <v>379</v>
       </c>
       <c r="M40" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G40&amp;",'"&amp;I40&amp;"','"&amp;J40&amp;"','"&amp;K40&amp;"',"&amp;E40&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103005,'Guinda','Guinda-100103005','Guinda-100103005 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>10</v>
       </c>
@@ -8330,11 +8406,11 @@
         <v>382</v>
       </c>
       <c r="M41" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G41&amp;",'"&amp;I41&amp;"','"&amp;J41&amp;"','"&amp;K41&amp;"',"&amp;E41&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103006,'Nectarín','Nectarín-100103006','Nectarín-100103006 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>10</v>
       </c>
@@ -8372,11 +8448,11 @@
         <v>385</v>
       </c>
       <c r="M42" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G42&amp;",'"&amp;I42&amp;"','"&amp;J42&amp;"','"&amp;K42&amp;"',"&amp;E42&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103007,'Pluots','Pluots-100103007','Pluots-100103007 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>10</v>
       </c>
@@ -8414,11 +8490,11 @@
         <v>388</v>
       </c>
       <c r="M43" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G43&amp;",'"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"',"&amp;E43&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103008,'Frutos de hueso (carozo)','Frutos de hueso (carozo)-100103008','Frutos de hueso (carozo)-100103008 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>10</v>
       </c>
@@ -8456,11 +8532,11 @@
         <v>391</v>
       </c>
       <c r="M44" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G44&amp;",'"&amp;I44&amp;"','"&amp;J44&amp;"','"&amp;K44&amp;"',"&amp;E44&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103009,'Acerola','Acerola-100103009','Acerola-100103009 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>10</v>
       </c>
@@ -8498,11 +8574,11 @@
         <v>394</v>
       </c>
       <c r="M45" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G45&amp;",'"&amp;I45&amp;"','"&amp;J45&amp;"','"&amp;K45&amp;"',"&amp;E45&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103010,'Ciruela Japonesa','Ciruela Japonesa-100103010','Ciruela Japonesa-100103010 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>10</v>
       </c>
@@ -8540,11 +8616,11 @@
         <v>397</v>
       </c>
       <c r="M46" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G46&amp;",'"&amp;I46&amp;"','"&amp;J46&amp;"','"&amp;K46&amp;"',"&amp;E46&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103011,'Durazno Fresco','Durazno Fresco-100103011','Durazno Fresco-100103011 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>10</v>
       </c>
@@ -8582,11 +8658,11 @@
         <v>400</v>
       </c>
       <c r="M47" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G47&amp;",'"&amp;I47&amp;"','"&amp;J47&amp;"','"&amp;K47&amp;"',"&amp;E47&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103012,'Durazno Conservero','Durazno Conservero-100103012','Durazno Conservero-100103012 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>10</v>
       </c>
@@ -8624,11 +8700,11 @@
         <v>403</v>
       </c>
       <c r="M48" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G48&amp;",'"&amp;I48&amp;"','"&amp;J48&amp;"','"&amp;K48&amp;"',"&amp;E48&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103013,'Ciruela Europea','Ciruela Europea-100103013','Ciruela Europea-100103013 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>10</v>
       </c>
@@ -8666,11 +8742,11 @@
         <v>406</v>
       </c>
       <c r="M49" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G49&amp;",'"&amp;I49&amp;"','"&amp;J49&amp;"','"&amp;K49&amp;"',"&amp;E49&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100103014,'Guinda Ácida','Guinda Ácida-100103014','Guinda Ácida-100103014 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>10</v>
       </c>
@@ -8708,11 +8784,11 @@
         <v>409</v>
       </c>
       <c r="M50" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G50&amp;",'"&amp;I50&amp;"','"&amp;J50&amp;"','"&amp;K50&amp;"',"&amp;E50&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104001,'Granada','Granada-100104001','Granada-100104001 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>10</v>
       </c>
@@ -8750,11 +8826,11 @@
         <v>412</v>
       </c>
       <c r="M51" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G51&amp;",'"&amp;I51&amp;"','"&amp;J51&amp;"','"&amp;K51&amp;"',"&amp;E51&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104002,'Manzana','Manzana-100104002','Manzana-100104002 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>10</v>
       </c>
@@ -8792,11 +8868,11 @@
         <v>415</v>
       </c>
       <c r="M52" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G52&amp;",'"&amp;I52&amp;"','"&amp;J52&amp;"','"&amp;K52&amp;"',"&amp;E52&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104003,'Membrillo','Membrillo-100104003','Membrillo-100104003 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>10</v>
       </c>
@@ -8834,11 +8910,11 @@
         <v>418</v>
       </c>
       <c r="M53" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G53&amp;",'"&amp;I53&amp;"','"&amp;J53&amp;"','"&amp;K53&amp;"',"&amp;E53&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104004,'Níspero','Níspero-100104004','Níspero-100104004 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>10</v>
       </c>
@@ -8876,11 +8952,11 @@
         <v>421</v>
       </c>
       <c r="M54" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G54&amp;",'"&amp;I54&amp;"','"&amp;J54&amp;"','"&amp;K54&amp;"',"&amp;E54&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104005,'Pera','Pera-100104005','Pera-100104005 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>10</v>
       </c>
@@ -8918,11 +8994,11 @@
         <v>424</v>
       </c>
       <c r="M55" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G55&amp;",'"&amp;I55&amp;"','"&amp;J55&amp;"','"&amp;K55&amp;"',"&amp;E55&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104006,'Rosa Mosqueta','Rosa Mosqueta-100104006','Rosa Mosqueta-100104006 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>10</v>
       </c>
@@ -8960,11 +9036,11 @@
         <v>427</v>
       </c>
       <c r="M56" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G56&amp;",'"&amp;I56&amp;"','"&amp;J56&amp;"','"&amp;K56&amp;"',"&amp;E56&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100104007,'Frutos de pepita','Frutos de pepita-100104007','Frutos de pepita-100104007 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>10</v>
       </c>
@@ -9002,11 +9078,11 @@
         <v>430</v>
       </c>
       <c r="M57" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G57&amp;",'"&amp;I57&amp;"','"&amp;J57&amp;"','"&amp;K57&amp;"',"&amp;E57&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105001,'Almendra','Almendra-100105001','Almendra-100105001 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>10</v>
       </c>
@@ -9044,11 +9120,11 @@
         <v>433</v>
       </c>
       <c r="M58" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G58&amp;",'"&amp;I58&amp;"','"&amp;J58&amp;"','"&amp;K58&amp;"',"&amp;E58&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105002,'Avellana','Avellana-100105002','Avellana-100105002 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>10</v>
       </c>
@@ -9086,11 +9162,11 @@
         <v>436</v>
       </c>
       <c r="M59" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G59&amp;",'"&amp;I59&amp;"','"&amp;J59&amp;"','"&amp;K59&amp;"',"&amp;E59&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105003,'Castaña','Castaña-100105003','Castaña-100105003 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>10</v>
       </c>
@@ -9128,11 +9204,11 @@
         <v>439</v>
       </c>
       <c r="M60" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G60&amp;",'"&amp;I60&amp;"','"&amp;J60&amp;"','"&amp;K60&amp;"',"&amp;E60&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105004,'Nuez','Nuez-100105004','Nuez-100105004 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>10</v>
       </c>
@@ -9170,11 +9246,11 @@
         <v>442</v>
       </c>
       <c r="M61" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G61&amp;",'"&amp;I61&amp;"','"&amp;J61&amp;"','"&amp;K61&amp;"',"&amp;E61&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105005,'Pistacho','Pistacho-100105005','Pistacho-100105005 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>10</v>
       </c>
@@ -9212,11 +9288,11 @@
         <v>445</v>
       </c>
       <c r="M62" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G62&amp;",'"&amp;I62&amp;"','"&amp;J62&amp;"','"&amp;K62&amp;"',"&amp;E62&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105006,'Otros frutos secos','Otros frutos secos-100105006','Otros frutos secos-100105006 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>10</v>
       </c>
@@ -9254,11 +9330,11 @@
         <v>448</v>
       </c>
       <c r="M63" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G63&amp;",'"&amp;I63&amp;"','"&amp;J63&amp;"','"&amp;K63&amp;"',"&amp;E63&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100105007,'Nuez de Macadamia','Nuez de Macadamia-100105007','Nuez de Macadamia-100105007 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>10</v>
       </c>
@@ -9296,11 +9372,11 @@
         <v>451</v>
       </c>
       <c r="M64" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G64&amp;",'"&amp;I64&amp;"','"&amp;J64&amp;"','"&amp;K64&amp;"',"&amp;E64&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100106001,'Olivo','Olivo-100106001','Olivo-100106001 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>10</v>
       </c>
@@ -9338,11 +9414,11 @@
         <v>454</v>
       </c>
       <c r="M65" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G65&amp;",'"&amp;I65&amp;"','"&amp;J65&amp;"','"&amp;K65&amp;"',"&amp;E65&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100106002,'Palta','Palta-100106002','Palta-100106002 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>10</v>
       </c>
@@ -9380,11 +9456,11 @@
         <v>457</v>
       </c>
       <c r="M66" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G66&amp;",'"&amp;I66&amp;"','"&amp;J66&amp;"','"&amp;K66&amp;"',"&amp;E66&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100106003,'Frutos oleaginosos','Frutos oleaginosos-100106003','Frutos oleaginosos-100106003 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>10</v>
       </c>
@@ -9422,11 +9498,11 @@
         <v>460</v>
       </c>
       <c r="M67" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G67&amp;",'"&amp;I67&amp;"','"&amp;J67&amp;"','"&amp;K67&amp;"',"&amp;E67&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107001,'Caqui','Caqui-100107001','Caqui-100107001 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>10</v>
       </c>
@@ -9464,11 +9540,11 @@
         <v>463</v>
       </c>
       <c r="M68" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G68&amp;",'"&amp;I68&amp;"','"&amp;J68&amp;"','"&amp;K68&amp;"',"&amp;E68&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107002,'Chirimoya','Chirimoya-100107002','Chirimoya-100107002 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>10</v>
       </c>
@@ -9506,11 +9582,11 @@
         <v>466</v>
       </c>
       <c r="M69" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G69&amp;",'"&amp;I69&amp;"','"&amp;J69&amp;"','"&amp;K69&amp;"',"&amp;E69&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107003,'Dátil','Dátil-100107003','Dátil-100107003 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>10</v>
       </c>
@@ -9548,11 +9624,11 @@
         <v>469</v>
       </c>
       <c r="M70" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G70&amp;",'"&amp;I70&amp;"','"&amp;J70&amp;"','"&amp;K70&amp;"',"&amp;E70&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107004,'Feijoa','Feijoa-100107004','Feijoa-100107004 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>10</v>
       </c>
@@ -9590,11 +9666,11 @@
         <v>472</v>
       </c>
       <c r="M71" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G71&amp;",'"&amp;I71&amp;"','"&amp;J71&amp;"','"&amp;K71&amp;"',"&amp;E71&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107005,'Grosella','Grosella-100107005','Grosella-100107005 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>10</v>
       </c>
@@ -9632,11 +9708,11 @@
         <v>475</v>
       </c>
       <c r="M72" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G72&amp;",'"&amp;I72&amp;"','"&amp;J72&amp;"','"&amp;K72&amp;"',"&amp;E72&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107006,'Jojoba','Jojoba-100107006','Jojoba-100107006 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>10</v>
       </c>
@@ -9674,11 +9750,11 @@
         <v>478</v>
       </c>
       <c r="M73" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G73&amp;",'"&amp;I73&amp;"','"&amp;J73&amp;"','"&amp;K73&amp;"',"&amp;E73&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO categoria VALUES (100107007,'Lúcuma','Lúcuma-100107007','Lúcuma-100107007 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>10</v>
       </c>
@@ -9716,11 +9792,11 @@
         <v>481</v>
       </c>
       <c r="M74" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G74&amp;",'"&amp;I74&amp;"','"&amp;J74&amp;"','"&amp;K74&amp;"',"&amp;E74&amp;");"</f>
+        <f t="shared" ref="M74:M137" si="1">+"INSERT INTO categoria VALUES ("&amp;G74&amp;",'"&amp;I74&amp;"','"&amp;J74&amp;"','"&amp;K74&amp;"',"&amp;E74&amp;");"</f>
         <v>INSERT INTO categoria VALUES (100107008,'Maqui','Maqui-100107008','Maqui-100107008 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>10</v>
       </c>
@@ -9758,11 +9834,11 @@
         <v>484</v>
       </c>
       <c r="M75" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G75&amp;",'"&amp;I75&amp;"','"&amp;J75&amp;"','"&amp;K75&amp;"',"&amp;E75&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107009,'Michay','Michay-100107009','Michay-100107009 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>10</v>
       </c>
@@ -9800,11 +9876,11 @@
         <v>487</v>
       </c>
       <c r="M76" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G76&amp;",'"&amp;I76&amp;"','"&amp;J76&amp;"','"&amp;K76&amp;"',"&amp;E76&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107010,'Sauco','Sauco-100107010','Sauco-100107010 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>10</v>
       </c>
@@ -9842,11 +9918,11 @@
         <v>490</v>
       </c>
       <c r="M77" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G77&amp;",'"&amp;I77&amp;"','"&amp;J77&amp;"','"&amp;K77&amp;"',"&amp;E77&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107011,'Tuna','Tuna-100107011','Tuna-100107011 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>10</v>
       </c>
@@ -9884,11 +9960,11 @@
         <v>493</v>
       </c>
       <c r="M78" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G78&amp;",'"&amp;I78&amp;"','"&amp;J78&amp;"','"&amp;K78&amp;"',"&amp;E78&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107012,'Otros frutos','Otros frutos-100107012','Otros frutos-100107012 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>10</v>
       </c>
@@ -9926,11 +10002,11 @@
         <v>496</v>
       </c>
       <c r="M79" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G79&amp;",'"&amp;I79&amp;"','"&amp;J79&amp;"','"&amp;K79&amp;"',"&amp;E79&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107013,'Plumcots','Plumcots-100107013','Plumcots-100107013 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>10</v>
       </c>
@@ -9968,11 +10044,11 @@
         <v>499</v>
       </c>
       <c r="M80" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G80&amp;",'"&amp;I80&amp;"','"&amp;J80&amp;"','"&amp;K80&amp;"',"&amp;E80&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107014,'Ruibarbo','Ruibarbo-100107014','Ruibarbo-100107014 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>10</v>
       </c>
@@ -10001,20 +10077,20 @@
         <v>22</v>
       </c>
       <c r="J81" s="34" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="K81" s="35" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="M81" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G81&amp;",'"&amp;I81&amp;"','"&amp;J81&amp;"','"&amp;K81&amp;"',"&amp;E81&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107015,'Otros','Otros-100107015','Otros-100107015 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>10</v>
       </c>
@@ -10052,11 +10128,11 @@
         <v>502</v>
       </c>
       <c r="M82" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G82&amp;",'"&amp;I82&amp;"','"&amp;J82&amp;"','"&amp;K82&amp;"',"&amp;E82&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108001,'Guayaba','Guayaba-100108001','Guayaba-100108001 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>10</v>
       </c>
@@ -10094,11 +10170,11 @@
         <v>505</v>
       </c>
       <c r="M83" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G83&amp;",'"&amp;I83&amp;"','"&amp;J83&amp;"','"&amp;K83&amp;"',"&amp;E83&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108002,'Mango','Mango-100108002','Mango-100108002 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>10</v>
       </c>
@@ -10136,11 +10212,11 @@
         <v>508</v>
       </c>
       <c r="M84" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G84&amp;",'"&amp;I84&amp;"','"&amp;J84&amp;"','"&amp;K84&amp;"',"&amp;E84&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108003,'Maracuyá','Maracuyá-100108003','Maracuyá-100108003 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>10</v>
       </c>
@@ -10178,11 +10254,11 @@
         <v>511</v>
       </c>
       <c r="M85" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G85&amp;",'"&amp;I85&amp;"','"&amp;J85&amp;"','"&amp;K85&amp;"',"&amp;E85&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108004,'Papaya','Papaya-100108004','Papaya-100108004 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>10</v>
       </c>
@@ -10220,11 +10296,11 @@
         <v>514</v>
       </c>
       <c r="M86" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G86&amp;",'"&amp;I86&amp;"','"&amp;J86&amp;"','"&amp;K86&amp;"',"&amp;E86&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108005,'Piña','Piña-100108005','Piña-100108005 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>10</v>
       </c>
@@ -10262,11 +10338,11 @@
         <v>517</v>
       </c>
       <c r="M87" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G87&amp;",'"&amp;I87&amp;"','"&amp;J87&amp;"','"&amp;K87&amp;"',"&amp;E87&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108006,'Plátano','Plátano-100108006','Plátano-100108006 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>10</v>
       </c>
@@ -10304,11 +10380,11 @@
         <v>520</v>
       </c>
       <c r="M88" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G88&amp;",'"&amp;I88&amp;"','"&amp;J88&amp;"','"&amp;K88&amp;"',"&amp;E88&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108007,'Coco','Coco-100108007','Coco-100108007 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>10</v>
       </c>
@@ -10346,11 +10422,11 @@
         <v>523</v>
       </c>
       <c r="M89" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G89&amp;",'"&amp;I89&amp;"','"&amp;J89&amp;"','"&amp;K89&amp;"',"&amp;E89&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108008,'Frutas tropicales y subtropicales','Frutas tropicales y subtropicales-100108008','Frutas tropicales y subtropicales-100108008 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>10</v>
       </c>
@@ -10388,11 +10464,11 @@
         <v>526</v>
       </c>
       <c r="M90" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G90&amp;",'"&amp;I90&amp;"','"&amp;J90&amp;"','"&amp;K90&amp;"',"&amp;E90&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108009,'Otras frutas tropicales y subtropicales','Otras frutas tropicales y subtropicales-100108009','Otras frutas tropicales y subtropicales-100108009 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>10</v>
       </c>
@@ -10430,11 +10506,11 @@
         <v>529</v>
       </c>
       <c r="M91" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G91&amp;",'"&amp;I91&amp;"','"&amp;J91&amp;"','"&amp;K91&amp;"',"&amp;E91&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108010,'Babaco','Babaco-100108010','Babaco-100108010 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>10</v>
       </c>
@@ -10472,11 +10548,11 @@
         <v>532</v>
       </c>
       <c r="M92" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G92&amp;",'"&amp;I92&amp;"','"&amp;J92&amp;"','"&amp;K92&amp;"',"&amp;E92&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100108011,'Tumbo','Tumbo-100108011','Tumbo-100108011 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>10</v>
       </c>
@@ -10514,11 +10590,11 @@
         <v>535</v>
       </c>
       <c r="M93" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G93&amp;",'"&amp;I93&amp;"','"&amp;J93&amp;"','"&amp;K93&amp;"',"&amp;E93&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100109001,'Uva','Uva-100109001','Uva-100109001 | Prod: Perennes-100109 | Sector: Agr-1001 | Industria: AGR - 10',100109);</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>10</v>
       </c>
@@ -10556,11 +10632,11 @@
         <v>538</v>
       </c>
       <c r="M94" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G94&amp;",'"&amp;I94&amp;"','"&amp;J94&amp;"','"&amp;K94&amp;"',"&amp;E94&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110001,'Maní','Maní-100110001','Maní-100110001 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>10</v>
       </c>
@@ -10598,11 +10674,11 @@
         <v>541</v>
       </c>
       <c r="M95" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G95&amp;",'"&amp;I95&amp;"','"&amp;J95&amp;"','"&amp;K95&amp;"',"&amp;E95&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110002,'Porotos','Porotos-100110002','Porotos-100110002 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>10</v>
       </c>
@@ -10640,11 +10716,11 @@
         <v>544</v>
       </c>
       <c r="M96" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G96&amp;",'"&amp;I96&amp;"','"&amp;J96&amp;"','"&amp;K96&amp;"',"&amp;E96&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110003,'Lentejas','Lentejas-100110003','Lentejas-100110003 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>10</v>
       </c>
@@ -10682,11 +10758,11 @@
         <v>547</v>
       </c>
       <c r="M97" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G97&amp;",'"&amp;I97&amp;"','"&amp;J97&amp;"','"&amp;K97&amp;"',"&amp;E97&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110004,'Soya','Soya-100110004','Soya-100110004 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>10</v>
       </c>
@@ -10724,11 +10800,11 @@
         <v>550</v>
       </c>
       <c r="M98" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G98&amp;",'"&amp;I98&amp;"','"&amp;J98&amp;"','"&amp;K98&amp;"',"&amp;E98&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110005,'Garbanzos','Garbanzos-100110005','Garbanzos-100110005 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>10</v>
       </c>
@@ -10766,11 +10842,11 @@
         <v>553</v>
       </c>
       <c r="M99" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G99&amp;",'"&amp;I99&amp;"','"&amp;J99&amp;"','"&amp;K99&amp;"',"&amp;E99&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110006,'Arvejas','Arvejas-100110006','Arvejas-100110006 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>10</v>
       </c>
@@ -10808,11 +10884,11 @@
         <v>556</v>
       </c>
       <c r="M100" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G100&amp;",'"&amp;I100&amp;"','"&amp;J100&amp;"','"&amp;K100&amp;"',"&amp;E100&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100110007,'Otras Legumbres','Otras Legumbres-100110007','Otras Legumbres-100110007 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>10</v>
       </c>
@@ -10850,11 +10926,11 @@
         <v>559</v>
       </c>
       <c r="M101" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G101&amp;",'"&amp;I101&amp;"','"&amp;J101&amp;"','"&amp;K101&amp;"',"&amp;E101&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111001,'Arroz','Arroz-100111001','Arroz-100111001 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>10</v>
       </c>
@@ -10892,11 +10968,11 @@
         <v>562</v>
       </c>
       <c r="M102" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G102&amp;",'"&amp;I102&amp;"','"&amp;J102&amp;"','"&amp;K102&amp;"',"&amp;E102&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111002,'Trigo','Trigo-100111002','Trigo-100111002 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>10</v>
       </c>
@@ -10934,11 +11010,11 @@
         <v>565</v>
       </c>
       <c r="M103" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G103&amp;",'"&amp;I103&amp;"','"&amp;J103&amp;"','"&amp;K103&amp;"',"&amp;E103&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111003,'Maíz','Maíz-100111003','Maíz-100111003 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>10</v>
       </c>
@@ -10976,11 +11052,11 @@
         <v>568</v>
       </c>
       <c r="M104" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G104&amp;",'"&amp;I104&amp;"','"&amp;J104&amp;"','"&amp;K104&amp;"',"&amp;E104&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111004,'Cebada','Cebada-100111004','Cebada-100111004 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>10</v>
       </c>
@@ -11018,11 +11094,11 @@
         <v>571</v>
       </c>
       <c r="M105" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G105&amp;",'"&amp;I105&amp;"','"&amp;J105&amp;"','"&amp;K105&amp;"',"&amp;E105&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111005,'Avena','Avena-100111005','Avena-100111005 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>10</v>
       </c>
@@ -11060,11 +11136,11 @@
         <v>574</v>
       </c>
       <c r="M106" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G106&amp;",'"&amp;I106&amp;"','"&amp;J106&amp;"','"&amp;K106&amp;"',"&amp;E106&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111006,'Centeno','Centeno-100111006','Centeno-100111006 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>10</v>
       </c>
@@ -11102,11 +11178,11 @@
         <v>577</v>
       </c>
       <c r="M107" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G107&amp;",'"&amp;I107&amp;"','"&amp;J107&amp;"','"&amp;K107&amp;"',"&amp;E107&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111007,'Mote','Mote-100111007','Mote-100111007 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>10</v>
       </c>
@@ -11144,11 +11220,11 @@
         <v>580</v>
       </c>
       <c r="M108" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G108&amp;",'"&amp;I108&amp;"','"&amp;J108&amp;"','"&amp;K108&amp;"',"&amp;E108&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111008,'Quinoa','Quinoa-100111008','Quinoa-100111008 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>10</v>
       </c>
@@ -11186,11 +11262,11 @@
         <v>583</v>
       </c>
       <c r="M109" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G109&amp;",'"&amp;I109&amp;"','"&amp;J109&amp;"','"&amp;K109&amp;"',"&amp;E109&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111009,'Amaranto','Amaranto-100111009','Amaranto-100111009 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>10</v>
       </c>
@@ -11228,11 +11304,11 @@
         <v>586</v>
       </c>
       <c r="M110" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G110&amp;",'"&amp;I110&amp;"','"&amp;J110&amp;"','"&amp;K110&amp;"',"&amp;E110&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111010,'Mijo','Mijo-100111010','Mijo-100111010 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>10</v>
       </c>
@@ -11270,11 +11346,11 @@
         <v>589</v>
       </c>
       <c r="M111" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G111&amp;",'"&amp;I111&amp;"','"&amp;J111&amp;"','"&amp;K111&amp;"',"&amp;E111&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111011,'Otros cereales','Otros cereales-100111011','Otros cereales-100111011 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>10</v>
       </c>
@@ -11312,11 +11388,11 @@
         <v>592</v>
       </c>
       <c r="M112" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G112&amp;",'"&amp;I112&amp;"','"&amp;J112&amp;"','"&amp;K112&amp;"',"&amp;E112&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100111012,'Triticale','Triticale-100111012','Triticale-100111012 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>10</v>
       </c>
@@ -11354,11 +11430,11 @@
         <v>595</v>
       </c>
       <c r="M113" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G113&amp;",'"&amp;I113&amp;"','"&amp;J113&amp;"','"&amp;K113&amp;"',"&amp;E113&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112001,'Berenjena','Berenjena-100112001','Berenjena-100112001 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>10</v>
       </c>
@@ -11396,11 +11472,11 @@
         <v>598</v>
       </c>
       <c r="M114" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G114&amp;",'"&amp;I114&amp;"','"&amp;J114&amp;"','"&amp;K114&amp;"',"&amp;E114&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112002,'Pimiento','Pimiento-100112002','Pimiento-100112002 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>10</v>
       </c>
@@ -11438,11 +11514,11 @@
         <v>601</v>
       </c>
       <c r="M115" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G115&amp;",'"&amp;I115&amp;"','"&amp;J115&amp;"','"&amp;K115&amp;"',"&amp;E115&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112003,'Ajo','Ajo-100112003','Ajo-100112003 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>10</v>
       </c>
@@ -11480,11 +11556,11 @@
         <v>604</v>
       </c>
       <c r="M116" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G116&amp;",'"&amp;I116&amp;"','"&amp;J116&amp;"','"&amp;K116&amp;"',"&amp;E116&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112004,'Cebolla','Cebolla-100112004','Cebolla-100112004 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <v>10</v>
       </c>
@@ -11522,11 +11598,11 @@
         <v>607</v>
       </c>
       <c r="M117" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G117&amp;",'"&amp;I117&amp;"','"&amp;J117&amp;"','"&amp;K117&amp;"',"&amp;E117&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112005,'Puerro','Puerro-100112005','Puerro-100112005 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <v>10</v>
       </c>
@@ -11564,11 +11640,11 @@
         <v>610</v>
       </c>
       <c r="M118" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G118&amp;",'"&amp;I118&amp;"','"&amp;J118&amp;"','"&amp;K118&amp;"',"&amp;E118&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112006,'Repollo','Repollo-100112006','Repollo-100112006 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <v>10</v>
       </c>
@@ -11606,11 +11682,11 @@
         <v>613</v>
       </c>
       <c r="M119" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G119&amp;",'"&amp;I119&amp;"','"&amp;J119&amp;"','"&amp;K119&amp;"',"&amp;E119&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112007,'Coles de Bruselas','Coles de Bruselas-100112007','Coles de Bruselas-100112007 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <v>10</v>
       </c>
@@ -11648,11 +11724,11 @@
         <v>616</v>
       </c>
       <c r="M120" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G120&amp;",'"&amp;I120&amp;"','"&amp;J120&amp;"','"&amp;K120&amp;"',"&amp;E120&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112008,'Coliflor','Coliflor-100112008','Coliflor-100112008 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>10</v>
       </c>
@@ -11690,11 +11766,11 @@
         <v>619</v>
       </c>
       <c r="M121" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G121&amp;",'"&amp;I121&amp;"','"&amp;J121&amp;"','"&amp;K121&amp;"',"&amp;E121&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112009,'Acelga','Acelga-100112009','Acelga-100112009 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <v>10</v>
       </c>
@@ -11732,11 +11808,11 @@
         <v>622</v>
       </c>
       <c r="M122" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G122&amp;",'"&amp;I122&amp;"','"&amp;J122&amp;"','"&amp;K122&amp;"',"&amp;E122&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112010,'Achicoria','Achicoria-100112010','Achicoria-100112010 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <v>10</v>
       </c>
@@ -11774,11 +11850,11 @@
         <v>625</v>
       </c>
       <c r="M123" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G123&amp;",'"&amp;I123&amp;"','"&amp;J123&amp;"','"&amp;K123&amp;"',"&amp;E123&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112011,'Escarola','Escarola-100112011','Escarola-100112011 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <v>10</v>
       </c>
@@ -11816,11 +11892,11 @@
         <v>628</v>
       </c>
       <c r="M124" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G124&amp;",'"&amp;I124&amp;"','"&amp;J124&amp;"','"&amp;K124&amp;"',"&amp;E124&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112012,'Espinaca','Espinaca-100112012','Espinaca-100112012 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <v>10</v>
       </c>
@@ -11858,11 +11934,11 @@
         <v>631</v>
       </c>
       <c r="M125" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G125&amp;",'"&amp;I125&amp;"','"&amp;J125&amp;"','"&amp;K125&amp;"',"&amp;E125&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112013,'Alcachofa','Alcachofa-100112013','Alcachofa-100112013 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <v>10</v>
       </c>
@@ -11900,11 +11976,11 @@
         <v>634</v>
       </c>
       <c r="M126" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G126&amp;",'"&amp;I126&amp;"','"&amp;J126&amp;"','"&amp;K126&amp;"',"&amp;E126&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112014,'Calabacín','Calabacín-100112014','Calabacín-100112014 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <v>10</v>
       </c>
@@ -11942,11 +12018,11 @@
         <v>637</v>
       </c>
       <c r="M127" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G127&amp;",'"&amp;I127&amp;"','"&amp;J127&amp;"','"&amp;K127&amp;"',"&amp;E127&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112015,'Calabaza','Calabaza-100112015','Calabaza-100112015 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <v>10</v>
       </c>
@@ -11984,11 +12060,11 @@
         <v>640</v>
       </c>
       <c r="M128" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G128&amp;",'"&amp;I128&amp;"','"&amp;J128&amp;"','"&amp;K128&amp;"',"&amp;E128&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112016,'Pepino','Pepino-100112016','Pepino-100112016 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <v>10</v>
       </c>
@@ -12026,11 +12102,11 @@
         <v>643</v>
       </c>
       <c r="M129" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G129&amp;",'"&amp;I129&amp;"','"&amp;J129&amp;"','"&amp;K129&amp;"',"&amp;E129&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112017,'Apio','Apio-100112017','Apio-100112017 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <v>10</v>
       </c>
@@ -12068,11 +12144,11 @@
         <v>646</v>
       </c>
       <c r="M130" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G130&amp;",'"&amp;I130&amp;"','"&amp;J130&amp;"','"&amp;K130&amp;"',"&amp;E130&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112018,'Espárrago','Espárrago-100112018','Espárrago-100112018 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <v>10</v>
       </c>
@@ -12110,11 +12186,11 @@
         <v>649</v>
       </c>
       <c r="M131" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G131&amp;",'"&amp;I131&amp;"','"&amp;J131&amp;"','"&amp;K131&amp;"',"&amp;E131&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112019,'Kale','Kale-100112019','Kale-100112019 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <v>10</v>
       </c>
@@ -12152,11 +12228,11 @@
         <v>652</v>
       </c>
       <c r="M132" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G132&amp;",'"&amp;I132&amp;"','"&amp;J132&amp;"','"&amp;K132&amp;"',"&amp;E132&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112020,'Tomate','Tomate-100112020','Tomate-100112020 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <v>10</v>
       </c>
@@ -12194,11 +12270,11 @@
         <v>655</v>
       </c>
       <c r="M133" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G133&amp;",'"&amp;I133&amp;"','"&amp;J133&amp;"','"&amp;K133&amp;"',"&amp;E133&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112021,'Ají','Ají-100112021','Ají-100112021 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <v>10</v>
       </c>
@@ -12236,11 +12312,11 @@
         <v>658</v>
       </c>
       <c r="M134" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G134&amp;",'"&amp;I134&amp;"','"&amp;J134&amp;"','"&amp;K134&amp;"',"&amp;E134&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112022,'Arveja Verde','Arveja Verde-100112022','Arveja Verde-100112022 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <v>10</v>
       </c>
@@ -12278,11 +12354,11 @@
         <v>661</v>
       </c>
       <c r="M135" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G135&amp;",'"&amp;I135&amp;"','"&amp;J135&amp;"','"&amp;K135&amp;"',"&amp;E135&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112023,'Brócoli','Brócoli-100112023','Brócoli-100112023 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <v>10</v>
       </c>
@@ -12320,11 +12396,11 @@
         <v>664</v>
       </c>
       <c r="M136" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G136&amp;",'"&amp;I136&amp;"','"&amp;J136&amp;"','"&amp;K136&amp;"',"&amp;E136&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112024,'Choclo','Choclo-100112024','Choclo-100112024 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <v>10</v>
       </c>
@@ -12362,11 +12438,11 @@
         <v>667</v>
       </c>
       <c r="M137" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G137&amp;",'"&amp;I137&amp;"','"&amp;J137&amp;"','"&amp;K137&amp;"',"&amp;E137&amp;");"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100112025,'Frutilla','Frutilla-100112025','Frutilla-100112025 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <v>10</v>
       </c>
@@ -12404,11 +12480,11 @@
         <v>670</v>
       </c>
       <c r="M138" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G138&amp;",'"&amp;I138&amp;"','"&amp;J138&amp;"','"&amp;K138&amp;"',"&amp;E138&amp;");"</f>
+        <f t="shared" ref="M138:M201" si="2">+"INSERT INTO categoria VALUES ("&amp;G138&amp;",'"&amp;I138&amp;"','"&amp;J138&amp;"','"&amp;K138&amp;"',"&amp;E138&amp;");"</f>
         <v>INSERT INTO categoria VALUES (100112026,'Habas','Habas-100112026','Habas-100112026 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <v>10</v>
       </c>
@@ -12446,11 +12522,11 @@
         <v>673</v>
       </c>
       <c r="M139" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G139&amp;",'"&amp;I139&amp;"','"&amp;J139&amp;"','"&amp;K139&amp;"',"&amp;E139&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112027,'Melón','Melón-100112027','Melón-100112027 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <v>10</v>
       </c>
@@ -12488,11 +12564,11 @@
         <v>676</v>
       </c>
       <c r="M140" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G140&amp;",'"&amp;I140&amp;"','"&amp;J140&amp;"','"&amp;K140&amp;"',"&amp;E140&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112028,'Sandía','Sandía-100112028','Sandía-100112028 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>10</v>
       </c>
@@ -12530,11 +12606,11 @@
         <v>679</v>
       </c>
       <c r="M141" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G141&amp;",'"&amp;I141&amp;"','"&amp;J141&amp;"','"&amp;K141&amp;"',"&amp;E141&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112029,'Orégano','Orégano-100112029','Orégano-100112029 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>10</v>
       </c>
@@ -12572,11 +12648,11 @@
         <v>682</v>
       </c>
       <c r="M142" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G142&amp;",'"&amp;I142&amp;"','"&amp;J142&amp;"','"&amp;K142&amp;"',"&amp;E142&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112030,'Poroto granado','Poroto granado-100112030','Poroto granado-100112030 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>10</v>
       </c>
@@ -12614,11 +12690,11 @@
         <v>685</v>
       </c>
       <c r="M143" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G143&amp;",'"&amp;I143&amp;"','"&amp;J143&amp;"','"&amp;K143&amp;"',"&amp;E143&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112031,'Poroto verde','Poroto verde-100112031','Poroto verde-100112031 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>10</v>
       </c>
@@ -12656,11 +12732,11 @@
         <v>688</v>
       </c>
       <c r="M144" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G144&amp;",'"&amp;I144&amp;"','"&amp;J144&amp;"','"&amp;K144&amp;"',"&amp;E144&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112032,'Zapallo italiano','Zapallo italiano-100112032','Zapallo italiano-100112032 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>10</v>
       </c>
@@ -12698,11 +12774,11 @@
         <v>691</v>
       </c>
       <c r="M145" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G145&amp;",'"&amp;I145&amp;"','"&amp;J145&amp;"','"&amp;K145&amp;"',"&amp;E145&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112033,'Lechuga','Lechuga-100112033','Lechuga-100112033 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>10</v>
       </c>
@@ -12740,11 +12816,11 @@
         <v>694</v>
       </c>
       <c r="M146" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G146&amp;",'"&amp;I146&amp;"','"&amp;J146&amp;"','"&amp;K146&amp;"',"&amp;E146&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112034,'Albahaca','Albahaca-100112034','Albahaca-100112034 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>10</v>
       </c>
@@ -12782,11 +12858,11 @@
         <v>697</v>
       </c>
       <c r="M147" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G147&amp;",'"&amp;I147&amp;"','"&amp;J147&amp;"','"&amp;K147&amp;"',"&amp;E147&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112035,'Bruselas (repollito)','Bruselas (repollito)-100112035','Bruselas (repollito)-100112035 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>10</v>
       </c>
@@ -12824,11 +12900,11 @@
         <v>700</v>
       </c>
       <c r="M148" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G148&amp;",'"&amp;I148&amp;"','"&amp;J148&amp;"','"&amp;K148&amp;"',"&amp;E148&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112036,'Caigua','Caigua-100112036','Caigua-100112036 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <v>10</v>
       </c>
@@ -12866,11 +12942,11 @@
         <v>703</v>
       </c>
       <c r="M149" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G149&amp;",'"&amp;I149&amp;"','"&amp;J149&amp;"','"&amp;K149&amp;"',"&amp;E149&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112037,'Cebollín','Cebollín-100112037','Cebollín-100112037 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <v>10</v>
       </c>
@@ -12908,11 +12984,11 @@
         <v>706</v>
       </c>
       <c r="M150" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G150&amp;",'"&amp;I150&amp;"','"&amp;J150&amp;"','"&amp;K150&amp;"',"&amp;E150&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112038,'Cebollín baby','Cebollín baby-100112038','Cebollín baby-100112038 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <v>10</v>
       </c>
@@ -12950,11 +13026,11 @@
         <v>709</v>
       </c>
       <c r="M151" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G151&amp;",'"&amp;I151&amp;"','"&amp;J151&amp;"','"&amp;K151&amp;"',"&amp;E151&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112039,'Ciboulette','Ciboulette-100112039','Ciboulette-100112039 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <v>10</v>
       </c>
@@ -12992,11 +13068,11 @@
         <v>712</v>
       </c>
       <c r="M152" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G152&amp;",'"&amp;I152&amp;"','"&amp;J152&amp;"','"&amp;K152&amp;"',"&amp;E152&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112040,'Cilantro','Cilantro-100112040','Cilantro-100112040 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <v>10</v>
       </c>
@@ -13034,11 +13110,11 @@
         <v>715</v>
       </c>
       <c r="M153" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G153&amp;",'"&amp;I153&amp;"','"&amp;J153&amp;"','"&amp;K153&amp;"',"&amp;E153&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112041,'Fruto del paraíso','Fruto del paraíso-100112041','Fruto del paraíso-100112041 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <v>10</v>
       </c>
@@ -13076,11 +13152,11 @@
         <v>718</v>
       </c>
       <c r="M154" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G154&amp;",'"&amp;I154&amp;"','"&amp;J154&amp;"','"&amp;K154&amp;"',"&amp;E154&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112042,'Locoto','Locoto-100112042','Locoto-100112042 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <v>10</v>
       </c>
@@ -13118,11 +13194,11 @@
         <v>721</v>
       </c>
       <c r="M155" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G155&amp;",'"&amp;I155&amp;"','"&amp;J155&amp;"','"&amp;K155&amp;"',"&amp;E155&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112043,'Pepino dulce','Pepino dulce-100112043','Pepino dulce-100112043 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>10</v>
       </c>
@@ -13160,11 +13236,11 @@
         <v>724</v>
       </c>
       <c r="M156" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G156&amp;",'"&amp;I156&amp;"','"&amp;J156&amp;"','"&amp;K156&amp;"',"&amp;E156&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112044,'Perejil','Perejil-100112044','Perejil-100112044 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>10</v>
       </c>
@@ -13202,11 +13278,11 @@
         <v>727</v>
       </c>
       <c r="M157" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G157&amp;",'"&amp;I157&amp;"','"&amp;J157&amp;"','"&amp;K157&amp;"',"&amp;E157&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112045,'Zapallo','Zapallo-100112045','Zapallo-100112045 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <v>10</v>
       </c>
@@ -13244,11 +13320,11 @@
         <v>730</v>
       </c>
       <c r="M158" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G158&amp;",'"&amp;I158&amp;"','"&amp;J158&amp;"','"&amp;K158&amp;"',"&amp;E158&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112046,'Hortalizas','Hortalizas-100112046','Hortalizas-100112046 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <v>10</v>
       </c>
@@ -13286,11 +13362,11 @@
         <v>733</v>
       </c>
       <c r="M159" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G159&amp;",'"&amp;I159&amp;"','"&amp;J159&amp;"','"&amp;K159&amp;"',"&amp;E159&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112047,'Hakusai','Hakusai-100112047','Hakusai-100112047 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>10</v>
       </c>
@@ -13328,11 +13404,11 @@
         <v>736</v>
       </c>
       <c r="M160" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G160&amp;",'"&amp;I160&amp;"','"&amp;J160&amp;"','"&amp;K160&amp;"',"&amp;E160&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112048,'Petit Vert','Petit Vert-100112048','Petit Vert-100112048 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>10</v>
       </c>
@@ -13370,11 +13446,11 @@
         <v>739</v>
       </c>
       <c r="M161" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G161&amp;",'"&amp;I161&amp;"','"&amp;J161&amp;"','"&amp;K161&amp;"',"&amp;E161&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112049,'Champiñón','Champiñón-100112049','Champiñón-100112049 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <v>10</v>
       </c>
@@ -13412,11 +13488,11 @@
         <v>742</v>
       </c>
       <c r="M162" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G162&amp;",'"&amp;I162&amp;"','"&amp;J162&amp;"','"&amp;K162&amp;"',"&amp;E162&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112050,'Hongo','Hongo-100112050','Hongo-100112050 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <v>10</v>
       </c>
@@ -13454,11 +13530,11 @@
         <v>745</v>
       </c>
       <c r="M163" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G163&amp;",'"&amp;I163&amp;"','"&amp;J163&amp;"','"&amp;K163&amp;"',"&amp;E163&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112051,'Berro','Berro-100112051','Berro-100112051 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <v>10</v>
       </c>
@@ -13496,11 +13572,11 @@
         <v>748</v>
       </c>
       <c r="M164" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G164&amp;",'"&amp;I164&amp;"','"&amp;J164&amp;"','"&amp;K164&amp;"',"&amp;E164&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112052,'Albahaca','Albahaca-100112052','Albahaca-100112052 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <v>10</v>
       </c>
@@ -13538,11 +13614,11 @@
         <v>751</v>
       </c>
       <c r="M165" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G165&amp;",'"&amp;I165&amp;"','"&amp;J165&amp;"','"&amp;K165&amp;"',"&amp;E165&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112053,'Alcayota','Alcayota-100112053','Alcayota-100112053 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <v>10</v>
       </c>
@@ -13580,11 +13656,11 @@
         <v>754</v>
       </c>
       <c r="M166" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G166&amp;",'"&amp;I166&amp;"','"&amp;J166&amp;"','"&amp;K166&amp;"',"&amp;E166&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112054,'Otras Hortalizas','Otras Hortalizas-100112054','Otras Hortalizas-100112054 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <v>10</v>
       </c>
@@ -13622,11 +13698,11 @@
         <v>757</v>
       </c>
       <c r="M167" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G167&amp;",'"&amp;I167&amp;"','"&amp;J167&amp;"','"&amp;K167&amp;"',"&amp;E167&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112055,'Hongo Silvestre','Hongo Silvestre-100112055','Hongo Silvestre-100112055 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <v>10</v>
       </c>
@@ -13664,11 +13740,11 @@
         <v>760</v>
       </c>
       <c r="M168" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G168&amp;",'"&amp;I168&amp;"','"&amp;J168&amp;"','"&amp;K168&amp;"',"&amp;E168&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112056,'Melón Calameño','Melón Calameño-100112056','Melón Calameño-100112056 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <v>10</v>
       </c>
@@ -13706,11 +13782,11 @@
         <v>763</v>
       </c>
       <c r="M169" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G169&amp;",'"&amp;I169&amp;"','"&amp;J169&amp;"','"&amp;K169&amp;"',"&amp;E169&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112057,'Melón Tuna','Melón Tuna-100112057','Melón Tuna-100112057 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>10</v>
       </c>
@@ -13748,11 +13824,11 @@
         <v>766</v>
       </c>
       <c r="M170" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G170&amp;",'"&amp;I170&amp;"','"&amp;J170&amp;"','"&amp;K170&amp;"',"&amp;E170&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100112058,'Zapallo Camote','Zapallo Camote-100112058','Zapallo Camote-100112058 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>10</v>
       </c>
@@ -13790,11 +13866,11 @@
         <v>769</v>
       </c>
       <c r="M171" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G171&amp;",'"&amp;I171&amp;"','"&amp;J171&amp;"','"&amp;K171&amp;"',"&amp;E171&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113001,'Lupino','Lupino-100113001','Lupino-100113001 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>10</v>
       </c>
@@ -13832,11 +13908,11 @@
         <v>772</v>
       </c>
       <c r="M172" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G172&amp;",'"&amp;I172&amp;"','"&amp;J172&amp;"','"&amp;K172&amp;"',"&amp;E172&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113002,'Maravilla','Maravilla-100113002','Maravilla-100113002 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>10</v>
       </c>
@@ -13874,11 +13950,11 @@
         <v>775</v>
       </c>
       <c r="M173" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G173&amp;",'"&amp;I173&amp;"','"&amp;J173&amp;"','"&amp;K173&amp;"',"&amp;E173&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113003,'Raps','Raps-100113003','Raps-100113003 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>10</v>
       </c>
@@ -13916,11 +13992,11 @@
         <v>778</v>
       </c>
       <c r="M174" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G174&amp;",'"&amp;I174&amp;"','"&amp;J174&amp;"','"&amp;K174&amp;"',"&amp;E174&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113004,'Remolacha (caña de azúcar)','Remolacha (caña de azúcar)-100113004','Remolacha (caña de azúcar)-100113004 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>10</v>
       </c>
@@ -13958,11 +14034,11 @@
         <v>781</v>
       </c>
       <c r="M175" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G175&amp;",'"&amp;I175&amp;"','"&amp;J175&amp;"','"&amp;K175&amp;"',"&amp;E175&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113005,'Tabaco','Tabaco-100113005','Tabaco-100113005 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>10</v>
       </c>
@@ -14000,11 +14076,11 @@
         <v>784</v>
       </c>
       <c r="M176" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G176&amp;",'"&amp;I176&amp;"','"&amp;J176&amp;"','"&amp;K176&amp;"',"&amp;E176&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113006,'Otras industriales','Otras industriales-100113006','Otras industriales-100113006 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>10</v>
       </c>
@@ -14042,11 +14118,11 @@
         <v>787</v>
       </c>
       <c r="M177" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G177&amp;",'"&amp;I177&amp;"','"&amp;J177&amp;"','"&amp;K177&amp;"',"&amp;E177&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113007,'Sésamo','Sésamo-100113007','Sésamo-100113007 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>10</v>
       </c>
@@ -14084,11 +14160,11 @@
         <v>790</v>
       </c>
       <c r="M178" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G178&amp;",'"&amp;I178&amp;"','"&amp;J178&amp;"','"&amp;K178&amp;"',"&amp;E178&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113008,'Chía','Chía-100113008','Chía-100113008 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>10</v>
       </c>
@@ -14126,11 +14202,11 @@
         <v>793</v>
       </c>
       <c r="M179" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G179&amp;",'"&amp;I179&amp;"','"&amp;J179&amp;"','"&amp;K179&amp;"',"&amp;E179&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113009,'Linaza','Linaza-100113009','Linaza-100113009 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>10</v>
       </c>
@@ -14168,11 +14244,11 @@
         <v>796</v>
       </c>
       <c r="M180" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G180&amp;",'"&amp;I180&amp;"','"&amp;J180&amp;"','"&amp;K180&amp;"',"&amp;E180&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113010,'Pepa de Zapallo','Pepa de Zapallo-100113010','Pepa de Zapallo-100113010 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>10</v>
       </c>
@@ -14210,11 +14286,11 @@
         <v>799</v>
       </c>
       <c r="M181" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G181&amp;",'"&amp;I181&amp;"','"&amp;J181&amp;"','"&amp;K181&amp;"',"&amp;E181&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100113011,'Pepa de Uva','Pepa de Uva-100113011','Pepa de Uva-100113011 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>10</v>
       </c>
@@ -14252,11 +14328,11 @@
         <v>802</v>
       </c>
       <c r="M182" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G182&amp;",'"&amp;I182&amp;"','"&amp;J182&amp;"','"&amp;K182&amp;"',"&amp;E182&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114001,'Papa','Papa-100114001','Papa-100114001 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>10</v>
       </c>
@@ -14294,11 +14370,11 @@
         <v>805</v>
       </c>
       <c r="M183" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G183&amp;",'"&amp;I183&amp;"','"&amp;J183&amp;"','"&amp;K183&amp;"',"&amp;E183&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114002,'Camote','Camote-100114002','Camote-100114002 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>10</v>
       </c>
@@ -14336,11 +14412,11 @@
         <v>808</v>
       </c>
       <c r="M184" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G184&amp;",'"&amp;I184&amp;"','"&amp;J184&amp;"','"&amp;K184&amp;"',"&amp;E184&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114003,'Ñame','Ñame-100114003','Ñame-100114003 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>10</v>
       </c>
@@ -14378,11 +14454,11 @@
         <v>811</v>
       </c>
       <c r="M185" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G185&amp;",'"&amp;I185&amp;"','"&amp;J185&amp;"','"&amp;K185&amp;"',"&amp;E185&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114004,'Ginsen','Ginsen-100114004','Ginsen-100114004 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>10</v>
       </c>
@@ -14420,11 +14496,11 @@
         <v>814</v>
       </c>
       <c r="M186" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G186&amp;",'"&amp;I186&amp;"','"&amp;J186&amp;"','"&amp;K186&amp;"',"&amp;E186&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114005,'Nabo','Nabo-100114005','Nabo-100114005 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>10</v>
       </c>
@@ -14462,11 +14538,11 @@
         <v>817</v>
       </c>
       <c r="M187" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G187&amp;",'"&amp;I187&amp;"','"&amp;J187&amp;"','"&amp;K187&amp;"',"&amp;E187&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114006,'Cúrcuma','Cúrcuma-100114006','Cúrcuma-100114006 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>10</v>
       </c>
@@ -14504,11 +14580,11 @@
         <v>820</v>
       </c>
       <c r="M188" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G188&amp;",'"&amp;I188&amp;"','"&amp;J188&amp;"','"&amp;K188&amp;"',"&amp;E188&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114007,'Jengibre','Jengibre-100114007','Jengibre-100114007 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>10</v>
       </c>
@@ -14546,11 +14622,11 @@
         <v>823</v>
       </c>
       <c r="M189" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G189&amp;",'"&amp;I189&amp;"','"&amp;J189&amp;"','"&amp;K189&amp;"',"&amp;E189&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114008,'Yuca','Yuca-100114008','Yuca-100114008 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>10</v>
       </c>
@@ -14588,11 +14664,11 @@
         <v>826</v>
       </c>
       <c r="M190" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G190&amp;",'"&amp;I190&amp;"','"&amp;J190&amp;"','"&amp;K190&amp;"',"&amp;E190&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114009,'Olluca','Olluca-100114009','Olluca-100114009 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>10</v>
       </c>
@@ -14630,11 +14706,11 @@
         <v>829</v>
       </c>
       <c r="M191" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G191&amp;",'"&amp;I191&amp;"','"&amp;J191&amp;"','"&amp;K191&amp;"',"&amp;E191&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114010,'Rábano','Rábano-100114010','Rábano-100114010 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <v>10</v>
       </c>
@@ -14672,11 +14748,11 @@
         <v>832</v>
       </c>
       <c r="M192" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G192&amp;",'"&amp;I192&amp;"','"&amp;J192&amp;"','"&amp;K192&amp;"',"&amp;E192&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114011,'Remolacha','Remolacha-100114011','Remolacha-100114011 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>10</v>
       </c>
@@ -14714,11 +14790,11 @@
         <v>835</v>
       </c>
       <c r="M193" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G193&amp;",'"&amp;I193&amp;"','"&amp;J193&amp;"','"&amp;K193&amp;"',"&amp;E193&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114012,'Wasabi','Wasabi-100114012','Wasabi-100114012 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <v>10</v>
       </c>
@@ -14756,11 +14832,11 @@
         <v>838</v>
       </c>
       <c r="M194" s="25" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G194&amp;",'"&amp;I194&amp;"','"&amp;J194&amp;"','"&amp;K194&amp;"',"&amp;E194&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114013,'Zanahoria','Zanahoria-100114013','Zanahoria-100114013 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>10</v>
       </c>
@@ -14798,11 +14874,11 @@
         <v>841</v>
       </c>
       <c r="M195" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G195&amp;",'"&amp;I195&amp;"','"&amp;J195&amp;"','"&amp;K195&amp;"',"&amp;E195&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114014,'Betarraga','Betarraga-100114014','Betarraga-100114014 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <v>10</v>
       </c>
@@ -14840,11 +14916,11 @@
         <v>844</v>
       </c>
       <c r="M196" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G196&amp;",'"&amp;I196&amp;"','"&amp;J196&amp;"','"&amp;K196&amp;"',"&amp;E196&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100114015,'Otros tubérculos','Otros tubérculos-100114015','Otros tubérculos-100114015 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>10</v>
       </c>
@@ -14882,11 +14958,11 @@
         <v>847</v>
       </c>
       <c r="M197" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G197&amp;",'"&amp;I197&amp;"','"&amp;J197&amp;"','"&amp;K197&amp;"',"&amp;E197&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100115001,'Semillas de hortalizas','Semillas de hortalizas-100115001','Semillas de hortalizas-100115001 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <v>10</v>
       </c>
@@ -14924,11 +15000,11 @@
         <v>850</v>
       </c>
       <c r="M198" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G198&amp;",'"&amp;I198&amp;"','"&amp;J198&amp;"','"&amp;K198&amp;"',"&amp;E198&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100115002,'Semillas de frutas','Semillas de frutas-100115002','Semillas de frutas-100115002 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>10</v>
       </c>
@@ -14966,11 +15042,11 @@
         <v>853</v>
       </c>
       <c r="M199" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G199&amp;",'"&amp;I199&amp;"','"&amp;J199&amp;"','"&amp;K199&amp;"',"&amp;E199&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100115003,'Otras semillas (cereales, legumbres y oleaginosas)','Otras semillas (cereales, legumbres y oleaginosas)-100115003','Otras semillas (cereales, legumbres y oleaginosas)-100115003 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <v>10</v>
       </c>
@@ -14999,20 +15075,20 @@
         <v>22</v>
       </c>
       <c r="J200" s="34" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="K200" s="35" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="M200" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G200&amp;",'"&amp;I200&amp;"','"&amp;J200&amp;"','"&amp;K200&amp;"',"&amp;E200&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100115004,'Otros','Otros-100115004','Otros-100115004 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>10</v>
       </c>
@@ -15050,11 +15126,11 @@
         <v>856</v>
       </c>
       <c r="M201" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G201&amp;",'"&amp;I201&amp;"','"&amp;J201&amp;"','"&amp;K201&amp;"',"&amp;E201&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100116001,'Especias','Especias-100116001','Especias-100116001 | Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',100116);</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <v>10</v>
       </c>
@@ -15092,11 +15168,11 @@
         <v>859</v>
       </c>
       <c r="M202" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G202&amp;",'"&amp;I202&amp;"','"&amp;J202&amp;"','"&amp;K202&amp;"',"&amp;E202&amp;");"</f>
+        <f t="shared" ref="M202:M265" si="3">+"INSERT INTO categoria VALUES ("&amp;G202&amp;",'"&amp;I202&amp;"','"&amp;J202&amp;"','"&amp;K202&amp;"',"&amp;E202&amp;");"</f>
         <v>INSERT INTO categoria VALUES (100117001,'Plantas para preparar bebidas','Plantas para preparar bebidas-100117001','Plantas para preparar bebidas-100117001 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>10</v>
       </c>
@@ -15134,11 +15210,11 @@
         <v>862</v>
       </c>
       <c r="M203" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G203&amp;",'"&amp;I203&amp;"','"&amp;J203&amp;"','"&amp;K203&amp;"',"&amp;E203&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100117002,'Plantas de fibra','Plantas de fibra-100117002','Plantas de fibra-100117002 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <v>10</v>
       </c>
@@ -15176,11 +15252,11 @@
         <v>865</v>
       </c>
       <c r="M204" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G204&amp;",'"&amp;I204&amp;"','"&amp;J204&amp;"','"&amp;K204&amp;"',"&amp;E204&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100117003,'Plantas aromáticas, medicinales y farmacéuticas','Plantas aromáticas, medicinales y farmacéuticas-100117003','Plantas aromáticas, medicinales y farmacéuticas-100117003 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <v>10</v>
       </c>
@@ -15218,11 +15294,11 @@
         <v>868</v>
       </c>
       <c r="M205" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G205&amp;",'"&amp;I205&amp;"','"&amp;J205&amp;"','"&amp;K205&amp;"',"&amp;E205&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100117004,'Otras plantas','Otras plantas-100117004','Otras plantas-100117004 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <v>10</v>
       </c>
@@ -15260,11 +15336,11 @@
         <v>871</v>
       </c>
       <c r="M206" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G206&amp;",'"&amp;I206&amp;"','"&amp;J206&amp;"','"&amp;K206&amp;"',"&amp;E206&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100117005,'Flores','Flores-100117005','Flores-100117005 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <v>10</v>
       </c>
@@ -15302,11 +15378,11 @@
         <v>874</v>
       </c>
       <c r="M207" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G207&amp;",'"&amp;I207&amp;"','"&amp;J207&amp;"','"&amp;K207&amp;"',"&amp;E207&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100117006,'Forraje','Forraje-100117006','Forraje-100117006 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <v>10</v>
       </c>
@@ -15344,11 +15420,11 @@
         <v>877</v>
       </c>
       <c r="M208" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G208&amp;",'"&amp;I208&amp;"','"&amp;J208&amp;"','"&amp;K208&amp;"',"&amp;E208&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100118001,'Mano de Obra en Industria Frutícola','Mano de Obra en Industria Frutícola-100118001','Mano de Obra en Industria Frutícola-100118001 | Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',100118);</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <v>10</v>
       </c>
@@ -15386,11 +15462,11 @@
         <v>880</v>
       </c>
       <c r="M209" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G209&amp;",'"&amp;I209&amp;"','"&amp;J209&amp;"','"&amp;K209&amp;"',"&amp;E209&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (100118002,'Mano de Obra en Predios Frutícolas','Mano de Obra en Predios Frutícolas-100118002','Mano de Obra en Predios Frutícolas-100118002 | Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',100118);</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A210" s="12">
         <v>27</v>
       </c>
@@ -15428,11 +15504,11 @@
         <v>903</v>
       </c>
       <c r="M210" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G210&amp;",'"&amp;I210&amp;"','"&amp;J210&amp;"','"&amp;K210&amp;"',"&amp;E210&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A211" s="12">
         <v>27</v>
       </c>
@@ -15470,11 +15546,11 @@
         <v>906</v>
       </c>
       <c r="M211" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G211&amp;",'"&amp;I211&amp;"','"&amp;J211&amp;"','"&amp;K211&amp;"',"&amp;E211&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A212" s="12">
         <v>27</v>
       </c>
@@ -15512,11 +15588,11 @@
         <v>909</v>
       </c>
       <c r="M212" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G212&amp;",'"&amp;I212&amp;"','"&amp;J212&amp;"','"&amp;K212&amp;"',"&amp;E212&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A213" s="12">
         <v>27</v>
       </c>
@@ -15554,11 +15630,11 @@
         <v>912</v>
       </c>
       <c r="M213" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G213&amp;",'"&amp;I213&amp;"','"&amp;J213&amp;"','"&amp;K213&amp;"',"&amp;E213&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A214" s="12">
         <v>27</v>
       </c>
@@ -15596,11 +15672,11 @@
         <v>915</v>
       </c>
       <c r="M214" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G214&amp;",'"&amp;I214&amp;"','"&amp;J214&amp;"','"&amp;K214&amp;"',"&amp;E214&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A215" s="12">
         <v>27</v>
       </c>
@@ -15638,11 +15714,11 @@
         <v>918</v>
       </c>
       <c r="M215" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G215&amp;",'"&amp;I215&amp;"','"&amp;J215&amp;"','"&amp;K215&amp;"',"&amp;E215&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A216" s="12">
         <v>27</v>
       </c>
@@ -15680,11 +15756,11 @@
         <v>921</v>
       </c>
       <c r="M216" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G216&amp;",'"&amp;I216&amp;"','"&amp;J216&amp;"','"&amp;K216&amp;"',"&amp;E216&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A217" s="12">
         <v>27</v>
       </c>
@@ -15722,11 +15798,11 @@
         <v>924</v>
       </c>
       <c r="M217" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G217&amp;",'"&amp;I217&amp;"','"&amp;J217&amp;"','"&amp;K217&amp;"',"&amp;E217&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A218" s="12">
         <v>27</v>
       </c>
@@ -15764,11 +15840,11 @@
         <v>927</v>
       </c>
       <c r="M218" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G218&amp;",'"&amp;I218&amp;"','"&amp;J218&amp;"','"&amp;K218&amp;"',"&amp;E218&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A219" s="12">
         <v>27</v>
       </c>
@@ -15806,11 +15882,11 @@
         <v>930</v>
       </c>
       <c r="M219" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G219&amp;",'"&amp;I219&amp;"','"&amp;J219&amp;"','"&amp;K219&amp;"',"&amp;E219&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A220" s="12">
         <v>27</v>
       </c>
@@ -15848,11 +15924,11 @@
         <v>933</v>
       </c>
       <c r="M220" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G220&amp;",'"&amp;I220&amp;"','"&amp;J220&amp;"','"&amp;K220&amp;"',"&amp;E220&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A221" s="12">
         <v>27</v>
       </c>
@@ -15890,11 +15966,11 @@
         <v>936</v>
       </c>
       <c r="M221" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G221&amp;",'"&amp;I221&amp;"','"&amp;J221&amp;"','"&amp;K221&amp;"',"&amp;E221&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A222" s="12">
         <v>27</v>
       </c>
@@ -15932,11 +16008,11 @@
         <v>939</v>
       </c>
       <c r="M222" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G222&amp;",'"&amp;I222&amp;"','"&amp;J222&amp;"','"&amp;K222&amp;"',"&amp;E222&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A223" s="12">
         <v>27</v>
       </c>
@@ -15974,11 +16050,11 @@
         <v>942</v>
       </c>
       <c r="M223" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G223&amp;",'"&amp;I223&amp;"','"&amp;J223&amp;"','"&amp;K223&amp;"',"&amp;E223&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>27</v>
       </c>
@@ -16016,11 +16092,11 @@
         <v>945</v>
       </c>
       <c r="M224" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G224&amp;",'"&amp;I224&amp;"','"&amp;J224&amp;"','"&amp;K224&amp;"',"&amp;E224&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A225" s="12">
         <v>27</v>
       </c>
@@ -16058,11 +16134,11 @@
         <v>948</v>
       </c>
       <c r="M225" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G225&amp;",'"&amp;I225&amp;"','"&amp;J225&amp;"','"&amp;K225&amp;"',"&amp;E225&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A226" s="12">
         <v>27</v>
       </c>
@@ -16100,11 +16176,11 @@
         <v>951</v>
       </c>
       <c r="M226" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G226&amp;",'"&amp;I226&amp;"','"&amp;J226&amp;"','"&amp;K226&amp;"',"&amp;E226&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A227" s="12">
         <v>27</v>
       </c>
@@ -16142,11 +16218,11 @@
         <v>954</v>
       </c>
       <c r="M227" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G227&amp;",'"&amp;I227&amp;"','"&amp;J227&amp;"','"&amp;K227&amp;"',"&amp;E227&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A228" s="12">
         <v>27</v>
       </c>
@@ -16184,11 +16260,11 @@
         <v>957</v>
       </c>
       <c r="M228" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G228&amp;",'"&amp;I228&amp;"','"&amp;J228&amp;"','"&amp;K228&amp;"',"&amp;E228&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A229" s="12">
         <v>27</v>
       </c>
@@ -16226,11 +16302,11 @@
         <v>960</v>
       </c>
       <c r="M229" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G229&amp;",'"&amp;I229&amp;"','"&amp;J229&amp;"','"&amp;K229&amp;"',"&amp;E229&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A230" s="12">
         <v>27</v>
       </c>
@@ -16268,11 +16344,11 @@
         <v>963</v>
       </c>
       <c r="M230" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G230&amp;",'"&amp;I230&amp;"','"&amp;J230&amp;"','"&amp;K230&amp;"',"&amp;E230&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A231" s="12">
         <v>27</v>
       </c>
@@ -16310,11 +16386,11 @@
         <v>966</v>
       </c>
       <c r="M231" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G231&amp;",'"&amp;I231&amp;"','"&amp;J231&amp;"','"&amp;K231&amp;"',"&amp;E231&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A232" s="12">
         <v>27</v>
       </c>
@@ -16352,11 +16428,11 @@
         <v>969</v>
       </c>
       <c r="M232" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G232&amp;",'"&amp;I232&amp;"','"&amp;J232&amp;"','"&amp;K232&amp;"',"&amp;E232&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A233" s="12">
         <v>27</v>
       </c>
@@ -16394,11 +16470,11 @@
         <v>972</v>
       </c>
       <c r="M233" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G233&amp;",'"&amp;I233&amp;"','"&amp;J233&amp;"','"&amp;K233&amp;"',"&amp;E233&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A234" s="12">
         <v>27</v>
       </c>
@@ -16436,11 +16512,11 @@
         <v>975</v>
       </c>
       <c r="M234" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G234&amp;",'"&amp;I234&amp;"','"&amp;J234&amp;"','"&amp;K234&amp;"',"&amp;E234&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A235" s="12">
         <v>27</v>
       </c>
@@ -16478,11 +16554,11 @@
         <v>978</v>
       </c>
       <c r="M235" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G235&amp;",'"&amp;I235&amp;"','"&amp;J235&amp;"','"&amp;K235&amp;"',"&amp;E235&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A236" s="12">
         <v>27</v>
       </c>
@@ -16520,11 +16596,11 @@
         <v>981</v>
       </c>
       <c r="M236" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G236&amp;",'"&amp;I236&amp;"','"&amp;J236&amp;"','"&amp;K236&amp;"',"&amp;E236&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A237" s="12">
         <v>27</v>
       </c>
@@ -16562,11 +16638,11 @@
         <v>984</v>
       </c>
       <c r="M237" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G237&amp;",'"&amp;I237&amp;"','"&amp;J237&amp;"','"&amp;K237&amp;"',"&amp;E237&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>27</v>
       </c>
@@ -16604,11 +16680,11 @@
         <v>987</v>
       </c>
       <c r="M238" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G238&amp;",'"&amp;I238&amp;"','"&amp;J238&amp;"','"&amp;K238&amp;"',"&amp;E238&amp;");"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A239" s="12">
         <v>27</v>
       </c>
@@ -16622,19 +16698,19 @@
         <v>882</v>
       </c>
       <c r="E239" s="12">
-        <v>270105</v>
+        <v>270106</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G239" s="13">
-        <v>270105004</v>
+        <v>270106001</v>
       </c>
       <c r="H239" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J239" s="34" t="s">
         <v>988</v>
@@ -16646,11 +16722,11 @@
         <v>990</v>
       </c>
       <c r="M239" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G239&amp;",'"&amp;I239&amp;"','"&amp;J239&amp;"','"&amp;K239&amp;"',"&amp;E239&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270105004,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A240" s="12">
         <v>27</v>
       </c>
@@ -16670,29 +16746,29 @@
         <v>40</v>
       </c>
       <c r="G240" s="13">
-        <v>270106001</v>
+        <v>270106002</v>
       </c>
       <c r="H240" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>252</v>
+        <v>991</v>
       </c>
       <c r="J240" s="34" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K240" s="35" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M240" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G240&amp;",'"&amp;I240&amp;"','"&amp;J240&amp;"','"&amp;K240&amp;"',"&amp;E240&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A241" s="12">
         <v>27</v>
       </c>
@@ -16706,35 +16782,35 @@
         <v>882</v>
       </c>
       <c r="E241" s="12">
-        <v>270106</v>
+        <v>270107</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>40</v>
+        <v>893</v>
       </c>
       <c r="G241" s="13">
-        <v>270106002</v>
+        <v>270107001</v>
       </c>
       <c r="H241" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="J241" s="34" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K241" s="35" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M241" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G241&amp;",'"&amp;I241&amp;"','"&amp;J241&amp;"','"&amp;K241&amp;"',"&amp;E241&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A242" s="12">
         <v>27</v>
       </c>
@@ -16754,29 +16830,29 @@
         <v>893</v>
       </c>
       <c r="G242" s="13">
-        <v>270107001</v>
+        <v>270107002</v>
       </c>
       <c r="H242" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="J242" s="34" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K242" s="35" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M242" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G242&amp;",'"&amp;I242&amp;"','"&amp;J242&amp;"','"&amp;K242&amp;"',"&amp;E242&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A243" s="12">
         <v>27</v>
       </c>
@@ -16796,13 +16872,13 @@
         <v>893</v>
       </c>
       <c r="G243" s="13">
-        <v>270107002</v>
+        <v>270107003</v>
       </c>
       <c r="H243" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>1002</v>
+        <v>224</v>
       </c>
       <c r="J243" s="34" t="s">
         <v>1003</v>
@@ -16814,11 +16890,11 @@
         <v>1005</v>
       </c>
       <c r="M243" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G243&amp;",'"&amp;I243&amp;"','"&amp;J243&amp;"','"&amp;K243&amp;"',"&amp;E243&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A244" s="12">
         <v>27</v>
       </c>
@@ -16838,29 +16914,29 @@
         <v>893</v>
       </c>
       <c r="G244" s="13">
-        <v>270107003</v>
+        <v>270107004</v>
       </c>
       <c r="H244" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>224</v>
+        <v>1006</v>
       </c>
       <c r="J244" s="34" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K244" s="35" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M244" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G244&amp;",'"&amp;I244&amp;"','"&amp;J244&amp;"','"&amp;K244&amp;"',"&amp;E244&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>27</v>
       </c>
@@ -16880,29 +16956,29 @@
         <v>893</v>
       </c>
       <c r="G245" s="13">
-        <v>270107004</v>
+        <v>270107005</v>
       </c>
       <c r="H245" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="J245" s="34" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K245" s="35" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M245" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G245&amp;",'"&amp;I245&amp;"','"&amp;J245&amp;"','"&amp;K245&amp;"',"&amp;E245&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>27</v>
       </c>
@@ -16922,29 +16998,29 @@
         <v>893</v>
       </c>
       <c r="G246" s="13">
-        <v>270107005</v>
+        <v>270107006</v>
       </c>
       <c r="H246" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J246" s="34" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K246" s="35" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M246" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G246&amp;",'"&amp;I246&amp;"','"&amp;J246&amp;"','"&amp;K246&amp;"',"&amp;E246&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A247" s="12">
         <v>27</v>
       </c>
@@ -16964,29 +17040,29 @@
         <v>893</v>
       </c>
       <c r="G247" s="13">
-        <v>270107006</v>
+        <v>270107007</v>
       </c>
       <c r="H247" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J247" s="34" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K247" s="35" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M247" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G247&amp;",'"&amp;I247&amp;"','"&amp;J247&amp;"','"&amp;K247&amp;"',"&amp;E247&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A248" s="12">
         <v>27</v>
       </c>
@@ -17000,35 +17076,35 @@
         <v>882</v>
       </c>
       <c r="E248" s="12">
-        <v>270107</v>
+        <v>270108</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G248" s="13">
-        <v>270107007</v>
+        <v>270108001</v>
       </c>
       <c r="H248" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="J248" s="34" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="K248" s="35" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M248" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G248&amp;",'"&amp;I248&amp;"','"&amp;J248&amp;"','"&amp;K248&amp;"',"&amp;E248&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A249" s="12">
         <v>27</v>
       </c>
@@ -17048,29 +17124,29 @@
         <v>896</v>
       </c>
       <c r="G249" s="13">
-        <v>270108001</v>
+        <v>270108002</v>
       </c>
       <c r="H249" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J249" s="34" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K249" s="35" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M249" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G249&amp;",'"&amp;I249&amp;"','"&amp;J249&amp;"','"&amp;K249&amp;"',"&amp;E249&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A250" s="12">
         <v>27</v>
       </c>
@@ -17090,29 +17166,29 @@
         <v>896</v>
       </c>
       <c r="G250" s="13">
-        <v>270108002</v>
+        <v>270108003</v>
       </c>
       <c r="H250" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="J250" s="34" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="K250" s="35" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M250" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G250&amp;",'"&amp;I250&amp;"','"&amp;J250&amp;"','"&amp;K250&amp;"',"&amp;E250&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A251" s="12">
         <v>27</v>
       </c>
@@ -17132,29 +17208,29 @@
         <v>896</v>
       </c>
       <c r="G251" s="13">
-        <v>270108003</v>
+        <v>270108004</v>
       </c>
       <c r="H251" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J251" s="34" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="K251" s="35" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M251" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G251&amp;",'"&amp;I251&amp;"','"&amp;J251&amp;"','"&amp;K251&amp;"',"&amp;E251&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A252" s="12">
         <v>27</v>
       </c>
@@ -17174,29 +17250,29 @@
         <v>896</v>
       </c>
       <c r="G252" s="13">
-        <v>270108004</v>
+        <v>270108005</v>
       </c>
       <c r="H252" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J252" s="34" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K252" s="35" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M252" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G252&amp;",'"&amp;I252&amp;"','"&amp;J252&amp;"','"&amp;K252&amp;"',"&amp;E252&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>27</v>
       </c>
@@ -17216,29 +17292,29 @@
         <v>896</v>
       </c>
       <c r="G253" s="13">
-        <v>270108005</v>
+        <v>270108006</v>
       </c>
       <c r="H253" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I253" s="8" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="J253" s="34" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="K253" s="35" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="M253" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G253&amp;",'"&amp;I253&amp;"','"&amp;J253&amp;"','"&amp;K253&amp;"',"&amp;E253&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A254" s="12">
         <v>27</v>
       </c>
@@ -17258,29 +17334,29 @@
         <v>896</v>
       </c>
       <c r="G254" s="13">
-        <v>270108006</v>
+        <v>270108007</v>
       </c>
       <c r="H254" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J254" s="34" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="K254" s="35" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M254" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G254&amp;",'"&amp;I254&amp;"','"&amp;J254&amp;"','"&amp;K254&amp;"',"&amp;E254&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A255" s="12">
         <v>27</v>
       </c>
@@ -17300,29 +17376,29 @@
         <v>896</v>
       </c>
       <c r="G255" s="13">
-        <v>270108007</v>
+        <v>270108008</v>
       </c>
       <c r="H255" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="J255" s="34" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="K255" s="35" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M255" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G255&amp;",'"&amp;I255&amp;"','"&amp;J255&amp;"','"&amp;K255&amp;"',"&amp;E255&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A256" s="12">
         <v>27</v>
       </c>
@@ -17342,29 +17418,29 @@
         <v>896</v>
       </c>
       <c r="G256" s="13">
-        <v>270108008</v>
+        <v>270108009</v>
       </c>
       <c r="H256" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J256" s="34" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K256" s="35" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M256" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G256&amp;",'"&amp;I256&amp;"','"&amp;J256&amp;"','"&amp;K256&amp;"',"&amp;E256&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A257" s="12">
         <v>27</v>
       </c>
@@ -17378,19 +17454,19 @@
         <v>882</v>
       </c>
       <c r="E257" s="12">
-        <v>270108</v>
+        <v>270109</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G257" s="13">
-        <v>270108009</v>
+        <v>270109001</v>
       </c>
       <c r="H257" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="J257" s="34" t="s">
         <v>1058</v>
@@ -17402,11 +17478,11 @@
         <v>1060</v>
       </c>
       <c r="M257" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G257&amp;",'"&amp;I257&amp;"','"&amp;J257&amp;"','"&amp;K257&amp;"',"&amp;E257&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A258" s="12">
         <v>27</v>
       </c>
@@ -17426,29 +17502,29 @@
         <v>898</v>
       </c>
       <c r="G258" s="13">
-        <v>270109001</v>
+        <v>270109002</v>
       </c>
       <c r="H258" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
       <c r="J258" s="34" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="K258" s="35" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M258" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G258&amp;",'"&amp;I258&amp;"','"&amp;J258&amp;"','"&amp;K258&amp;"',"&amp;E258&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A259" s="12">
         <v>27</v>
       </c>
@@ -17468,29 +17544,29 @@
         <v>898</v>
       </c>
       <c r="G259" s="13">
-        <v>270109002</v>
+        <v>270109003</v>
       </c>
       <c r="H259" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J259" s="34" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="K259" s="35" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M259" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G259&amp;",'"&amp;I259&amp;"','"&amp;J259&amp;"','"&amp;K259&amp;"',"&amp;E259&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A260" s="12">
         <v>27</v>
       </c>
@@ -17510,29 +17586,29 @@
         <v>898</v>
       </c>
       <c r="G260" s="13">
-        <v>270109003</v>
+        <v>270109004</v>
       </c>
       <c r="H260" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J260" s="34" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K260" s="35" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M260" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G260&amp;",'"&amp;I260&amp;"','"&amp;J260&amp;"','"&amp;K260&amp;"',"&amp;E260&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A261" s="12">
         <v>27</v>
       </c>
@@ -17552,29 +17628,29 @@
         <v>898</v>
       </c>
       <c r="G261" s="13">
-        <v>270109004</v>
+        <v>270109005</v>
       </c>
       <c r="H261" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J261" s="34" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K261" s="35" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M261" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G261&amp;",'"&amp;I261&amp;"','"&amp;J261&amp;"','"&amp;K261&amp;"',"&amp;E261&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A262" s="12">
         <v>27</v>
       </c>
@@ -17594,13 +17670,13 @@
         <v>898</v>
       </c>
       <c r="G262" s="13">
-        <v>270109005</v>
+        <v>270109006</v>
       </c>
       <c r="H262" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="J262" s="34" t="s">
         <v>1077</v>
@@ -17612,53 +17688,53 @@
         <v>1079</v>
       </c>
       <c r="M262" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G262&amp;",'"&amp;I262&amp;"','"&amp;J262&amp;"','"&amp;K262&amp;"',"&amp;E262&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="12">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="43">
         <v>27</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C263" s="12">
+      <c r="C263" s="43">
         <v>2701</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D263" s="44" t="s">
         <v>882</v>
       </c>
-      <c r="E263" s="12">
+      <c r="E263" s="43">
         <v>270109</v>
       </c>
-      <c r="F263" s="8" t="s">
+      <c r="F263" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="G263" s="13">
-        <v>270109006</v>
-      </c>
-      <c r="H263" s="7">
-        <v>6</v>
-      </c>
-      <c r="I263" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J263" s="34" t="s">
+      <c r="G263" s="45">
+        <v>270109007</v>
+      </c>
+      <c r="H263" s="46">
+        <v>7</v>
+      </c>
+      <c r="I263" s="44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J263" s="47" t="s">
         <v>1080</v>
       </c>
-      <c r="K263" s="35" t="s">
+      <c r="K263" s="48" t="s">
         <v>1081</v>
       </c>
-      <c r="L263" s="9" t="s">
+      <c r="L263" s="49" t="s">
         <v>1082</v>
       </c>
-      <c r="M263" s="36" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G263&amp;",'"&amp;I263&amp;"','"&amp;J263&amp;"','"&amp;K263&amp;"',"&amp;E263&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M263" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A264" s="43">
         <v>27</v>
       </c>
@@ -17678,29 +17754,29 @@
         <v>898</v>
       </c>
       <c r="G264" s="45">
-        <v>270109007</v>
+        <v>270109008</v>
       </c>
       <c r="H264" s="46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I264" s="44" t="s">
-        <v>1053</v>
+        <v>1083</v>
       </c>
       <c r="J264" s="47" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="K264" s="48" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="L264" s="49" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M264" s="50" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G264&amp;",'"&amp;I264&amp;"','"&amp;J264&amp;"','"&amp;K264&amp;"',"&amp;E264&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A265" s="43">
         <v>27</v>
       </c>
@@ -17720,68 +17796,278 @@
         <v>898</v>
       </c>
       <c r="G265" s="45">
-        <v>270109008</v>
+        <v>270109009</v>
       </c>
       <c r="H265" s="46">
+        <v>9</v>
+      </c>
+      <c r="I265" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J265" s="47" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K265" s="48" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L265" s="49" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M265" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="12">
+        <v>27</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C266" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E266" s="12">
+        <v>270103</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="G266" s="13">
+        <v>270103007</v>
+      </c>
+      <c r="H266" s="7">
+        <v>7</v>
+      </c>
+      <c r="I266" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J266" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K266" s="35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L266" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M266" s="36" t="str">
+        <f t="shared" ref="M266:M267" si="4">+"INSERT INTO categoria VALUES ("&amp;G266&amp;",'"&amp;I266&amp;"','"&amp;J266&amp;"','"&amp;K266&amp;"',"&amp;E266&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="43">
+        <v>27</v>
+      </c>
+      <c r="B267" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C267" s="43">
+        <v>2701</v>
+      </c>
+      <c r="D267" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E267" s="43">
+        <v>270103</v>
+      </c>
+      <c r="F267" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="G267" s="45">
+        <v>270103008</v>
+      </c>
+      <c r="H267" s="46">
         <v>8</v>
       </c>
-      <c r="I265" s="44" t="s">
-        <v>1086</v>
-      </c>
-      <c r="J265" s="47" t="s">
-        <v>1087</v>
-      </c>
-      <c r="K265" s="48" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L265" s="49" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M265" s="50" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G265&amp;",'"&amp;I265&amp;"','"&amp;J265&amp;"','"&amp;K265&amp;"',"&amp;E265&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A266" s="43">
+      <c r="I267" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J267" s="47" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K267" s="48" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L267" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M267" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A268" s="12">
         <v>27</v>
       </c>
-      <c r="B266" s="44" t="s">
+      <c r="B268" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C266" s="43">
+      <c r="C268" s="12">
         <v>2701</v>
       </c>
-      <c r="D266" s="44" t="s">
+      <c r="D268" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="E266" s="43">
+      <c r="E268" s="12">
+        <v>270105</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G268" s="13">
+        <v>270105004</v>
+      </c>
+      <c r="H268" s="7">
+        <v>4</v>
+      </c>
+      <c r="I268" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J268" s="34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K268" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L268" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M268" s="36" t="str">
+        <f t="shared" ref="M268:M269" si="5">+"INSERT INTO categoria VALUES ("&amp;G268&amp;",'"&amp;I268&amp;"','"&amp;J268&amp;"','"&amp;K268&amp;"',"&amp;E268&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="A269" s="43">
+        <v>27</v>
+      </c>
+      <c r="B269" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C269" s="43">
+        <v>2701</v>
+      </c>
+      <c r="D269" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E269" s="43">
+        <v>270105</v>
+      </c>
+      <c r="F269" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G269" s="45">
+        <v>270105005</v>
+      </c>
+      <c r="H269" s="46">
+        <v>5</v>
+      </c>
+      <c r="I269" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J269" s="47" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K269" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L269" s="49" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M269" s="50" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="43">
+        <v>27</v>
+      </c>
+      <c r="B270" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C270" s="43">
+        <v>2701</v>
+      </c>
+      <c r="D270" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E270" s="43">
+        <v>270108</v>
+      </c>
+      <c r="F270" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="G270" s="45">
+        <v>270108010</v>
+      </c>
+      <c r="H270" s="46">
+        <v>10</v>
+      </c>
+      <c r="I270" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="J270" s="47" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K270" s="48" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L270" s="49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M270" s="50" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G270&amp;",'"&amp;I270&amp;"','"&amp;J270&amp;"','"&amp;K270&amp;"',"&amp;E270&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A271" s="43">
+        <v>27</v>
+      </c>
+      <c r="B271" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C271" s="43">
+        <v>2701</v>
+      </c>
+      <c r="D271" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E271" s="43">
         <v>270109</v>
       </c>
-      <c r="F266" s="44" t="s">
+      <c r="F271" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="G266" s="45">
-        <v>270109009</v>
-      </c>
-      <c r="H266" s="46">
-        <v>9</v>
-      </c>
-      <c r="I266" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="J266" s="47" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K266" s="48" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L266" s="49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="M266" s="50" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G266&amp;",'"&amp;I266&amp;"','"&amp;J266&amp;"','"&amp;K266&amp;"',"&amp;E266&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      <c r="G271" s="45">
+        <v>270109010</v>
+      </c>
+      <c r="H271" s="46">
+        <v>10</v>
+      </c>
+      <c r="I271" s="44" t="s">
+        <v>898</v>
+      </c>
+      <c r="J271" s="47" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K271" s="48" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L271" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M271" s="50" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G271&amp;",'"&amp;I271&amp;"','"&amp;J271&amp;"','"&amp;K271&amp;"',"&amp;E271&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
+++ b/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE8E20-0A52-4201-A51B-25944CE163F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE051992-38AF-4968-93F9-5B4EB4F21C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1143">
   <si>
     <t>Id_industria</t>
   </si>
@@ -2715,327 +2715,204 @@
     <t>Violencia</t>
   </si>
   <si>
-    <t>Mujer-2701</t>
-  </si>
-  <si>
-    <t>Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
-    <t>Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Delitos sexuales</t>
   </si>
   <si>
-    <t>Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Delitos violentos</t>
   </si>
   <si>
-    <t>Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
-    <t>Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
-    <t>Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
-    <t>Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Atenciones médicas</t>
   </si>
   <si>
     <t>Salud</t>
   </si>
   <si>
-    <t>Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Centros de la Mujer</t>
   </si>
   <si>
-    <t>Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Casas de Acogida</t>
   </si>
   <si>
-    <t>Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros</t>
   </si>
   <si>
     <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001</t>
   </si>
   <si>
-    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270101001apremios_ilegiticos_violacion,_abuso_sexual_agravado,_otros</t>
   </si>
   <si>
     <t>Estupro-270102001</t>
   </si>
   <si>
-    <t>Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102001estupro</t>
   </si>
   <si>
     <t>Violación-270102002</t>
   </si>
   <si>
-    <t>Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102002violacion</t>
   </si>
   <si>
     <t>Abuso Sexual (Sólo Crimen)-270102003</t>
   </si>
   <si>
-    <t>Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102003abuso_sexual_(solo_crimen)</t>
   </si>
   <si>
     <t>Abuso Sexual Adulto-270102004</t>
   </si>
   <si>
-    <t>Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102004abuso_sexual_adulto</t>
   </si>
   <si>
     <t>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005</t>
   </si>
   <si>
-    <t>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102005abuso_sexual_calificado_c/introduccion_objetos_o_uso_animal</t>
   </si>
   <si>
     <t>Abuso Sexual Con Contacto De Menor De 14 Años-270102006</t>
   </si>
   <si>
-    <t>Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102006abuso_sexual_con_contacto_de_menor_de_14_años</t>
   </si>
   <si>
     <t>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007</t>
   </si>
   <si>
-    <t>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102007abuso_sexual_de_14_años_a_menor_de_18_años_con_circunstancia_estupro</t>
   </si>
   <si>
     <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008</t>
   </si>
   <si>
-    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102008abuso_sexual_de_mayor_de_14_(con_circunstancias_de_violacion)</t>
   </si>
   <si>
     <t>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009</t>
   </si>
   <si>
-    <t>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102009abuso_sexual_mayor_14_/sorpresa_sin_consentimiento</t>
   </si>
   <si>
     <t>Abuso Sexual Sin Contacto-270102010</t>
   </si>
   <si>
-    <t>Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102010abuso_sexual_sin_contacto</t>
   </si>
   <si>
     <t>Delitos De Signifación Sexual-270102011</t>
   </si>
   <si>
-    <t>Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102011delitos_de_signifacion_sexual</t>
   </si>
   <si>
     <t>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012</t>
   </si>
   <si>
-    <t>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102012produccion_de_material_pornografico_utilizando_menores_18_años</t>
   </si>
   <si>
     <t>Promover O Facilitar Prostitucion De Menores-270102013</t>
   </si>
   <si>
-    <t>Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102013promover_o_facilitar_prostitucion_de_menores</t>
   </si>
   <si>
     <t>Violación De Mayor De 14 Años-270102014</t>
   </si>
   <si>
-    <t>Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102014violacion_de_mayor_de_14_años</t>
   </si>
   <si>
     <t>Violación De Menor De 14 Años-270102015</t>
   </si>
   <si>
-    <t>Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102015violacion_de_menor_de_14_años</t>
   </si>
   <si>
     <t>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016</t>
   </si>
   <si>
-    <t>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102016acoso_sexual_lugares_publicos_/libre_acceso_publico</t>
   </si>
   <si>
     <t>Violación Con Homicidio O Femicidio-270102017</t>
   </si>
   <si>
-    <t>Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102017violacion_con_homicidio_o_femicidio</t>
   </si>
   <si>
     <t>Difusión De Material Pornográfico-270102018</t>
   </si>
   <si>
-    <t>Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270102018difusion_de_material_pornografico</t>
   </si>
   <si>
     <t>Femicidio-270103001</t>
   </si>
   <si>
-    <t>Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103001femicidio</t>
   </si>
   <si>
     <t>Femicidio Intimo-270103002</t>
   </si>
   <si>
-    <t>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103002femicidio_intimo</t>
   </si>
   <si>
     <t>Secuestro Con Violación-270103003</t>
   </si>
   <si>
-    <t>Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103003secuestro_con_violacion</t>
   </si>
   <si>
     <t>Secuestro Con Homicidio, Violación O Lesiones-270103004</t>
   </si>
   <si>
-    <t>Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103004secuestro_con_homicidio,_violacion_o_lesiones</t>
   </si>
   <si>
     <t>Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005</t>
   </si>
   <si>
-    <t>Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103005tortura_con_violacion,_abuso_sexual_agravado/otros</t>
   </si>
   <si>
     <t>Femicidio No Íntimo-270103006</t>
   </si>
   <si>
-    <t>Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103006femicidio_no_intimo</t>
   </si>
   <si>
     <t>Maltrato Habitual (Violencia Intrafamiliar)-270104001</t>
   </si>
   <si>
-    <t>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270104001maltrato_habitual_(violencia_intrafamiliar)</t>
   </si>
   <si>
     <t>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001</t>
   </si>
   <si>
-    <t>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270105001aborto_cometido_por_facultativo_por_causales_no_reguladas</t>
   </si>
   <si>
     <t>Aborto Consentido Causales No Reguladas-270105002</t>
   </si>
   <si>
-    <t>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270105002aborto_consentido_causales_no_reguladas</t>
   </si>
   <si>
     <t>Aborto Sin Consentimiento-270105003</t>
   </si>
   <si>
-    <t>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270105003aborto_sin_consentimiento</t>
   </si>
   <si>
     <t>Infracciones A La Ley De Identidad De Género-270106001</t>
   </si>
   <si>
-    <t>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270106001infracciones_a_la_ley_de_identidad_de_genero</t>
   </si>
   <si>
@@ -3045,9 +2922,6 @@
     <t>Acoso Laboral-270106002</t>
   </si>
   <si>
-    <t>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270106002acoso_laboral</t>
   </si>
   <si>
@@ -3057,9 +2931,6 @@
     <t>Atención por violación (con entrega de anticoncepción de emergencia)-270107001</t>
   </si>
   <si>
-    <t>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107001atencion por violacion (con entrega de anticoncepcion de emergencia)</t>
   </si>
   <si>
@@ -3069,18 +2940,12 @@
     <t>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002</t>
   </si>
   <si>
-    <t>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107002atencion por violacion (sin entrega de anticoncepcion de emergencia )</t>
   </si>
   <si>
     <t>Estupro-270107003</t>
   </si>
   <si>
-    <t>Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107003estupro</t>
   </si>
   <si>
@@ -3090,9 +2955,6 @@
     <t>Abuso sexual-270107004</t>
   </si>
   <si>
-    <t>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107004abuso sexual</t>
   </si>
   <si>
@@ -3102,9 +2964,6 @@
     <t>Otra violencia-270107005</t>
   </si>
   <si>
-    <t>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107005otra violencia</t>
   </si>
   <si>
@@ -3114,9 +2973,6 @@
     <t>Violencia Física-270107006</t>
   </si>
   <si>
-    <t>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107006violencia_fisica</t>
   </si>
   <si>
@@ -3126,9 +2982,6 @@
     <t>Violencia Intrafamiliar-270107007</t>
   </si>
   <si>
-    <t>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270107007violencia_intrafamiliar</t>
   </si>
   <si>
@@ -3138,9 +2991,6 @@
     <t>Orientación e Información-270108001</t>
   </si>
   <si>
-    <t>Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108001orientacion_e_informacion</t>
   </si>
   <si>
@@ -3150,9 +3000,6 @@
     <t>Ingresos de años anteriores (por arrastre)-270108002</t>
   </si>
   <si>
-    <t>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108002ingresos_de_años_anteriores_(por_arrastre)</t>
   </si>
   <si>
@@ -3162,9 +3009,6 @@
     <t>Ingresos efectivos  de Mujeres-270108003</t>
   </si>
   <si>
-    <t>Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108003ingresos_efectivos__de_mujeres</t>
   </si>
   <si>
@@ -3174,9 +3018,6 @@
     <t>Egreso -270108004</t>
   </si>
   <si>
-    <t>Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108004egreso_</t>
   </si>
   <si>
@@ -3186,9 +3027,6 @@
     <t>Deserción-270108005</t>
   </si>
   <si>
-    <t>Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108005desercion</t>
   </si>
   <si>
@@ -3198,9 +3036,6 @@
     <t>Interrupción-270108006</t>
   </si>
   <si>
-    <t>Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108006interrupcion</t>
   </si>
   <si>
@@ -3210,9 +3045,6 @@
     <t>Derivacion-270108007</t>
   </si>
   <si>
-    <t>Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108007derivacion</t>
   </si>
   <si>
@@ -3222,9 +3054,6 @@
     <t>Traslado-270108008</t>
   </si>
   <si>
-    <t>Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108008traslado</t>
   </si>
   <si>
@@ -3234,18 +3063,12 @@
     <t>Fallecimiento-270108009</t>
   </si>
   <si>
-    <t>Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108009fallecimiento</t>
   </si>
   <si>
     <t>Ingresos de años anteriores (por arrastre)-270109001</t>
   </si>
   <si>
-    <t>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109001ingresos_de_años_anteriores_(por_arrastre)</t>
   </si>
   <si>
@@ -3255,9 +3078,6 @@
     <t>Pre ingresos de Mujeres-270109002</t>
   </si>
   <si>
-    <t>Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109002pre_ingresos_de_mujeres</t>
   </si>
   <si>
@@ -3267,9 +3087,6 @@
     <t>Ingresos efectivos de Mujeres-270109003</t>
   </si>
   <si>
-    <t>Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109003ingresos_efectivos_de_mujeres</t>
   </si>
   <si>
@@ -3279,9 +3096,6 @@
     <t>Ingresos de niños y niñas-270109004</t>
   </si>
   <si>
-    <t>Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109004ingresos_de_niños_y_niñas</t>
   </si>
   <si>
@@ -3291,27 +3105,18 @@
     <t>Egreso-270109005</t>
   </si>
   <si>
-    <t>Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109005egreso</t>
   </si>
   <si>
     <t>Deserción-270109006</t>
   </si>
   <si>
-    <t>Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109006desercion</t>
   </si>
   <si>
     <t>Traslado-270109007</t>
   </si>
   <si>
-    <t>Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109007traslado</t>
   </si>
   <si>
@@ -3321,9 +3126,6 @@
     <t>Retiro-270109008</t>
   </si>
   <si>
-    <t>Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109008retiro</t>
   </si>
   <si>
@@ -3333,9 +3135,6 @@
     <t>Fallecimiento -270109009</t>
   </si>
   <si>
-    <t>Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109009fallecimiento_</t>
   </si>
   <si>
@@ -3363,9 +3162,6 @@
     <t>Violencia Económica-270103007</t>
   </si>
   <si>
-    <t>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103007violencia_economica</t>
   </si>
   <si>
@@ -3375,9 +3171,6 @@
     <t>Violencia Psicológica-270103008</t>
   </si>
   <si>
-    <t>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270103008violencia_psicologica</t>
   </si>
   <si>
@@ -3387,37 +3180,319 @@
     <t>Aborto-270105004</t>
   </si>
   <si>
-    <t>Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270105004aborto</t>
   </si>
   <si>
     <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005</t>
   </si>
   <si>
-    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270105005trafico_de_organos_incluyendo_los_provenientes_de_aborto</t>
   </si>
   <si>
     <t>Centros de la Mujer-270108010</t>
   </si>
   <si>
-    <t>Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270108010centros_de_la_mujer</t>
   </si>
   <si>
     <t>Casas de Acogida-270109010</t>
   </si>
   <si>
-    <t>Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>270109010casas_de_acogida</t>
+  </si>
+  <si>
+    <t>Establecimientos</t>
+  </si>
+  <si>
+    <t>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</t>
+  </si>
+  <si>
+    <t>Centros de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>Violencia-2701</t>
+  </si>
+  <si>
+    <t>Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Orientación e Información (OI)</t>
+  </si>
+  <si>
+    <t>Atención Reparatoria (AR)</t>
+  </si>
+  <si>
+    <t>Mujeres en continuidad de Intervención del año anterior</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Hombres</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Orientación e Información (OI)-270110001</t>
+  </si>
+  <si>
+    <t>Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270110001orientacion_e_informacion_(oi)</t>
+  </si>
+  <si>
+    <t>Atención Reparatoria (AR)-270110002</t>
+  </si>
+  <si>
+    <t>Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270110002atencion_reparatoria_(ar)</t>
+  </si>
+  <si>
+    <t>Mujeres en continuidad de Intervención del año anterior-270110003</t>
+  </si>
+  <si>
+    <t>Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270110003mujeres_en_continuidad_de_intervencion_del_año_anterior</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Hombres-270111001</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270111001ingresos_efectivos_de_hombres</t>
+  </si>
+  <si>
+    <t>Egresos-270111002</t>
+  </si>
+  <si>
+    <t>Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270111002egresos</t>
   </si>
 </sst>
 </file>
@@ -3750,6 +3825,135 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4172,135 +4376,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -4481,15 +4556,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175080</xdr:rowOff>
+      <xdr:colOff>219710</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>455</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4565,7 +4640,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
+      <xdr:colOff>732790</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
@@ -4648,7 +4723,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>353695</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>77341</xdr:rowOff>
     </xdr:to>
@@ -4720,13 +4795,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>391795</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1345565</xdr:colOff>
+      <xdr:colOff>1342390</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -4798,15 +4873,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1664335</xdr:colOff>
+      <xdr:colOff>1667510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1246505</xdr:colOff>
+      <xdr:colOff>1249680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>141604</xdr:rowOff>
+      <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4883,13 +4958,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
+      <xdr:colOff>140335</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7440</xdr:rowOff>
+      <xdr:rowOff>10615</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -4959,15 +5034,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>181610</xdr:colOff>
+      <xdr:colOff>178435</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
+      <xdr:colOff>164465</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>163015</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5037,15 +5112,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>560705</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1173480</xdr:colOff>
+      <xdr:colOff>1170305</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161110</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5115,15 +5190,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1210310</xdr:colOff>
+      <xdr:colOff>1207135</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>753110</xdr:colOff>
+      <xdr:colOff>749935</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161110</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5378,42 +5453,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J37" totalsRowShown="0">
-  <autoFilter ref="A10:J37" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Mujeres"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Violencia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J39" totalsRowShown="0">
+  <autoFilter ref="A10:J39" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{17BBD643-0CB5-4375-BF45-BC9750D7B143}" name="Id_industria" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{17BBD643-0CB5-4375-BF45-BC9750D7B143}" name="Id_industria" dataDxfId="9">
       <calculatedColumnFormula>+A10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A8FA2C0D-AC63-4F1A-AF5E-A61EA79B4F56}" name="Industria" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{A8FA2C0D-AC63-4F1A-AF5E-A61EA79B4F56}" name="Industria" dataDxfId="8">
       <calculatedColumnFormula>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A7A5FC61-2EB1-4D4E-9CC1-9208387130D1}" name="Id_sector" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{A7A5FC61-2EB1-4D4E-9CC1-9208387130D1}" name="Id_sector" dataDxfId="7">
       <calculatedColumnFormula>+IF(F11=1,C10+1,C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9A70CA32-7F96-4B2F-803F-6BECCA7C99D1}" name="Sector" dataDxfId="20">
+    <tableColumn id="10" xr3:uid="{9A70CA32-7F96-4B2F-803F-6BECCA7C99D1}" name="Sector" dataDxfId="6">
       <calculatedColumnFormula>+VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Sector]],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBD0E798-C6A7-4FAD-B235-048B04D84BC6}" name="Id_producto" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{EBD0E798-C6A7-4FAD-B235-048B04D84BC6}" name="Id_producto" dataDxfId="5">
       <calculatedColumnFormula>+C11*100+F11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AD3A4F4C-2F38-4285-BAD1-AFCFDE5342DD}" name="Corr" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{D7310159-107F-4D3B-A918-3BBC65F220DE}" name="Producto" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{2C287E14-3176-47A4-90E0-BF3EAE9563D8}" name="Descripcion" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B537A808-B8E1-4A13-A8A6-8023C4F9B56D}" name="Auxiliar" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{AD3A4F4C-2F38-4285-BAD1-AFCFDE5342DD}" name="Corr" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D7310159-107F-4D3B-A918-3BBC65F220DE}" name="Producto" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2C287E14-3176-47A4-90E0-BF3EAE9563D8}" name="Descripcion" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B537A808-B8E1-4A13-A8A6-8023C4F9B56D}" name="Auxiliar" dataDxfId="1">
       <calculatedColumnFormula>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A6AA3D62-21A8-4E91-B07A-FC08287B66B7}" name="Codigo" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{A6AA3D62-21A8-4E91-B07A-FC08287B66B7}" name="Codigo" dataDxfId="0">
       <calculatedColumnFormula>+"INSERT INTO producto VALUES ("&amp;E11&amp;",'"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"',"&amp;C11&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5422,8 +5486,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M271" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M271" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M276" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A9:M276" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
     <filterColumn colId="1">
       <filters>
         <filter val="Mujeres"/>
@@ -5439,19 +5503,19 @@
     <sortCondition ref="G10:G265"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F4169CBF-0DEE-47EE-830B-656C113AD097}" name="Industria" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{801AD473-2105-4DE0-B2AD-052C1D1B9BA0}" name="Id_sector" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{46496B8E-2C48-4DC3-8DAC-07C2C37E1513}" name="Sector" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6824C9BA-06B2-4EBF-BFAD-A4FC0BA44F6B}" name="Id_producto" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{EB4DF065-F76F-4C15-95B5-FFFF377EF7E0}" name="Producto" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2D2AD7E6-83BB-4144-A48F-B4B50D52DCB0}" name="Id_categoría" dataDxfId="6" dataCellStyle="Millares [0]"/>
-    <tableColumn id="8" xr3:uid="{B97EE017-DECD-41DD-9127-A470A30D38E7}" name="Corr" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2858A4D8-E1FC-4BA2-9CCB-A87E957B7698}" name="Categoría" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{F2401535-D7DB-42CA-9580-69992D635937}" name="Descripcion" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{B032EA4C-2A04-4EA2-95E3-16F5BDB6ED88}" name="Auxiliar" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{7F260062-54A9-4D1E-94A9-A4B892284904}" name="Carpeta GITHUB" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{EE424144-D9A2-410E-B0B0-CD075FCFFDC5}" name="Codigo" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F4169CBF-0DEE-47EE-830B-656C113AD097}" name="Industria" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{801AD473-2105-4DE0-B2AD-052C1D1B9BA0}" name="Id_sector" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{46496B8E-2C48-4DC3-8DAC-07C2C37E1513}" name="Sector" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{6824C9BA-06B2-4EBF-BFAD-A4FC0BA44F6B}" name="Id_producto" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{EB4DF065-F76F-4C15-95B5-FFFF377EF7E0}" name="Producto" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{2D2AD7E6-83BB-4144-A48F-B4B50D52DCB0}" name="Id_categoría" dataDxfId="16" dataCellStyle="Millares [0]"/>
+    <tableColumn id="8" xr3:uid="{B97EE017-DECD-41DD-9127-A470A30D38E7}" name="Corr" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{2858A4D8-E1FC-4BA2-9CCB-A87E957B7698}" name="Categoría" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{F2401535-D7DB-42CA-9580-69992D635937}" name="Descripcion" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{B032EA4C-2A04-4EA2-95E3-16F5BDB6ED88}" name="Auxiliar" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{7F260062-54A9-4D1E-94A9-A4B892284904}" name="Carpeta GITHUB" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{EE424144-D9A2-410E-B0B0-CD075FCFFDC5}" name="Codigo" dataDxfId="10">
       <calculatedColumnFormula>+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5758,7 +5822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B4F77-22B7-4C2A-8BD3-673667633AEC}">
   <dimension ref="A4:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -5841,9 +5905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B59CD6-C706-44C2-9A8B-8E338432C9BE}">
   <dimension ref="A9:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5935,20 +5999,20 @@
         <v>882</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>883</v>
+        <v>1048</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>884</v>
+        <v>1049</v>
       </c>
       <c r="H12" s="32" t="str">
         <f>+"INSERT INTO sector VALUES ("&amp;C12&amp;",'"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"',"&amp;A12&amp;");"</f>
-        <v>INSERT INTO sector VALUES (2701,'Violencia','Mujer-2701','Sector: Mujer-2701 | Industria: MUJER-27',27);</v>
+        <v>INSERT INTO sector VALUES (2701,'Violencia','Violencia-2701','Sector: Violencia-2701 | Industria: MUJER-27',27);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B11:G12" calculatedColumn="1"/>
+    <ignoredError sqref="B11:G11 G12 B12:C12" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -5966,11 +6030,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916C713-6550-4780-B99D-F35BBEDE9786}">
-  <dimension ref="A7:L37"/>
+  <dimension ref="A7:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5991,7 +6055,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="39">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6026,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -6063,7 +6127,7 @@
         <v>100101 Producto|| Berries</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -6100,7 +6164,7 @@
         <v>100102 Producto|| Cítricos</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6137,7 +6201,7 @@
         <v>100103 Producto|| Frutos de hueso (carozo)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>10</v>
       </c>
@@ -6174,7 +6238,7 @@
         <v>100104 Producto|| Frutos de pepita</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -6211,7 +6275,7 @@
         <v>100105 Producto|| Frutos secos</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>10</v>
       </c>
@@ -6248,7 +6312,7 @@
         <v>100106 Producto|| Frutos oleaginosos</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>10</v>
       </c>
@@ -6285,7 +6349,7 @@
         <v>100107 Producto|| Otros</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -6322,7 +6386,7 @@
         <v>100108 Producto|| Tropicales y subtropicales</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -6359,7 +6423,7 @@
         <v>100109 Producto|| Uva</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -6396,7 +6460,7 @@
         <v>100110 Producto|| Legumbres</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>10</v>
       </c>
@@ -6433,7 +6497,7 @@
         <v>100111 Producto|| Cereales</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>10</v>
       </c>
@@ -6470,7 +6534,7 @@
         <v>100112 Producto|| Hortalizas</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>10</v>
       </c>
@@ -6507,7 +6571,7 @@
         <v>100113 Producto|| Industriales</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>10</v>
       </c>
@@ -6544,7 +6608,7 @@
         <v>100114 Producto|| Tubérculos</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>10</v>
       </c>
@@ -6577,7 +6641,7 @@
         <v>INSERT INTO producto VALUES (100115,'Semillas','Semillas','Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>10</v>
       </c>
@@ -6610,7 +6674,7 @@
         <v>INSERT INTO producto VALUES (100116,'Especias','Especias','Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>10</v>
       </c>
@@ -6643,7 +6707,7 @@
         <v>INSERT INTO producto VALUES (100117,'Plantas y forraje','Forraje','Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>10</v>
       </c>
@@ -6702,11 +6766,11 @@
         <v>37</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>885</v>
+        <v>1050</v>
       </c>
       <c r="J29" s="27" t="str">
         <f t="shared" ref="J29:J37" si="1">+"INSERT INTO producto VALUES ("&amp;E29&amp;",'"&amp;G29&amp;"','"&amp;H29&amp;"','"&amp;I29&amp;"',"&amp;C29&amp;");"</f>
-        <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.35">
@@ -6729,17 +6793,17 @@
         <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>887</v>
+        <v>1051</v>
       </c>
       <c r="J30" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="24" x14ac:dyDescent="0.35">
@@ -6762,17 +6826,17 @@
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>889</v>
+        <v>1052</v>
       </c>
       <c r="J31" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.35">
@@ -6801,11 +6865,11 @@
         <v>37</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>890</v>
+        <v>1053</v>
       </c>
       <c r="J32" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.35">
@@ -6834,11 +6898,11 @@
         <v>37</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>891</v>
+        <v>1054</v>
       </c>
       <c r="J33" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.35">
@@ -6867,11 +6931,11 @@
         <v>37</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>892</v>
+        <v>1055</v>
       </c>
       <c r="J34" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <f>+"INSERT INTO producto VALUES ("&amp;E34&amp;",'"&amp;G34&amp;"','"&amp;H34&amp;"','"&amp;I34&amp;"',"&amp;C34&amp;");"</f>
+        <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.35">
@@ -6894,17 +6958,17 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>895</v>
+        <v>1056</v>
       </c>
       <c r="J35" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.35">
@@ -6927,17 +6991,17 @@
         <v>8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>894</v>
+        <v>1045</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>897</v>
+        <v>1057</v>
       </c>
       <c r="J36" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Salud','Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Establecimientos','Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.35">
@@ -6960,23 +7024,89 @@
         <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>894</v>
+        <v>1045</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>899</v>
+        <v>1058</v>
       </c>
       <c r="J37" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Salud','Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Establecimientos','Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="48" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>27</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2701</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="E38" s="17">
+        <v>270110</v>
+      </c>
+      <c r="F38" s="18">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J38" s="27" t="str">
+        <f t="shared" ref="J38:J39" si="2">+"INSERT INTO producto VALUES ("&amp;E38&amp;",'"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"',"&amp;C38&amp;");"</f>
+        <v>INSERT INTO producto VALUES (270110,'Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual','Establecimientos','Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+      <c r="A39" s="17">
+        <v>27</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="17">
+        <v>2701</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="E39" s="17">
+        <v>270111</v>
+      </c>
+      <c r="F39" s="18">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J39" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO producto VALUES (270111,'Centros de Reeducación de Hombres','Establecimientos','Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A11:I28 A29:I37" calculatedColumn="1"/>
+    <ignoredError sqref="A11:I28 A29:I39" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -6994,11 +7124,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
-  <dimension ref="A8:M271"/>
+  <dimension ref="A8:M276"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I234" sqref="I234"/>
+      <pane ySplit="9" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K276" sqref="K276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7022,7 +7152,7 @@
       <c r="E8" s="14"/>
       <c r="G8" s="14">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10077,13 +10207,13 @@
         <v>22</v>
       </c>
       <c r="J81" s="34" t="s">
-        <v>1094</v>
+        <v>1027</v>
       </c>
       <c r="K81" s="35" t="s">
-        <v>1095</v>
+        <v>1028</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>1096</v>
+        <v>1029</v>
       </c>
       <c r="M81" s="36" t="str">
         <f t="shared" si="1"/>
@@ -15075,13 +15205,13 @@
         <v>22</v>
       </c>
       <c r="J200" s="34" t="s">
-        <v>1091</v>
+        <v>1024</v>
       </c>
       <c r="K200" s="35" t="s">
-        <v>1092</v>
+        <v>1025</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>1093</v>
+        <v>1026</v>
       </c>
       <c r="M200" s="36" t="str">
         <f t="shared" si="2"/>
@@ -15492,20 +15622,20 @@
         <v>1</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="J210" s="34" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="K210" s="35" t="s">
-        <v>902</v>
+        <v>1066</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="M210" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
+        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -15525,7 +15655,7 @@
         <v>270102</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G211" s="13">
         <v>270102001</v>
@@ -15537,17 +15667,17 @@
         <v>224</v>
       </c>
       <c r="J211" s="34" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="K211" s="35" t="s">
-        <v>905</v>
+        <v>1067</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="M211" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -15567,7 +15697,7 @@
         <v>270102</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G212" s="13">
         <v>270102002</v>
@@ -15579,17 +15709,17 @@
         <v>225</v>
       </c>
       <c r="J212" s="34" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="K212" s="35" t="s">
-        <v>908</v>
+        <v>1068</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="M212" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -15609,7 +15739,7 @@
         <v>270102</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G213" s="13">
         <v>270102003</v>
@@ -15621,17 +15751,17 @@
         <v>226</v>
       </c>
       <c r="J213" s="34" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="K213" s="35" t="s">
-        <v>911</v>
+        <v>1069</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="M213" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -15651,7 +15781,7 @@
         <v>270102</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G214" s="13">
         <v>270102004</v>
@@ -15663,17 +15793,17 @@
         <v>227</v>
       </c>
       <c r="J214" s="34" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="K214" s="35" t="s">
-        <v>914</v>
+        <v>1070</v>
       </c>
       <c r="L214" s="9" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="M214" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -15693,7 +15823,7 @@
         <v>270102</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G215" s="13">
         <v>270102005</v>
@@ -15705,17 +15835,17 @@
         <v>228</v>
       </c>
       <c r="J215" s="34" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="K215" s="35" t="s">
-        <v>917</v>
+        <v>1071</v>
       </c>
       <c r="L215" s="9" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="M215" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -15735,7 +15865,7 @@
         <v>270102</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G216" s="13">
         <v>270102006</v>
@@ -15747,17 +15877,17 @@
         <v>229</v>
       </c>
       <c r="J216" s="34" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="K216" s="35" t="s">
-        <v>920</v>
+        <v>1072</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="M216" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -15777,7 +15907,7 @@
         <v>270102</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G217" s="13">
         <v>270102007</v>
@@ -15789,17 +15919,17 @@
         <v>230</v>
       </c>
       <c r="J217" s="34" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="K217" s="35" t="s">
-        <v>923</v>
+        <v>1073</v>
       </c>
       <c r="L217" s="9" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="M217" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -15819,7 +15949,7 @@
         <v>270102</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G218" s="13">
         <v>270102008</v>
@@ -15831,17 +15961,17 @@
         <v>231</v>
       </c>
       <c r="J218" s="34" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="K218" s="35" t="s">
-        <v>926</v>
+        <v>1074</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="M218" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -15861,7 +15991,7 @@
         <v>270102</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G219" s="13">
         <v>270102009</v>
@@ -15873,17 +16003,17 @@
         <v>232</v>
       </c>
       <c r="J219" s="34" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="K219" s="35" t="s">
-        <v>929</v>
+        <v>1075</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="M219" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -15903,7 +16033,7 @@
         <v>270102</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G220" s="13">
         <v>270102010</v>
@@ -15915,17 +16045,17 @@
         <v>233</v>
       </c>
       <c r="J220" s="34" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="K220" s="35" t="s">
-        <v>932</v>
+        <v>1076</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="M220" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -15945,7 +16075,7 @@
         <v>270102</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G221" s="13">
         <v>270102011</v>
@@ -15957,17 +16087,17 @@
         <v>234</v>
       </c>
       <c r="J221" s="34" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="K221" s="35" t="s">
-        <v>935</v>
+        <v>1077</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="M221" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -15987,7 +16117,7 @@
         <v>270102</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G222" s="13">
         <v>270102012</v>
@@ -15999,17 +16129,17 @@
         <v>235</v>
       </c>
       <c r="J222" s="34" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="K222" s="35" t="s">
-        <v>938</v>
+        <v>1078</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>939</v>
+        <v>915</v>
       </c>
       <c r="M222" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16029,7 +16159,7 @@
         <v>270102</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G223" s="13">
         <v>270102013</v>
@@ -16041,17 +16171,17 @@
         <v>236</v>
       </c>
       <c r="J223" s="34" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="K223" s="35" t="s">
-        <v>941</v>
+        <v>1079</v>
       </c>
       <c r="L223" s="9" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="M223" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16071,7 +16201,7 @@
         <v>270102</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G224" s="13">
         <v>270102014</v>
@@ -16083,17 +16213,17 @@
         <v>237</v>
       </c>
       <c r="J224" s="34" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="K224" s="35" t="s">
-        <v>944</v>
+        <v>1080</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="M224" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16113,7 +16243,7 @@
         <v>270102</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G225" s="13">
         <v>270102015</v>
@@ -16125,17 +16255,17 @@
         <v>238</v>
       </c>
       <c r="J225" s="34" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="K225" s="35" t="s">
-        <v>947</v>
+        <v>1081</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="M225" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16155,7 +16285,7 @@
         <v>270102</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G226" s="13">
         <v>270102016</v>
@@ -16167,17 +16297,17 @@
         <v>239</v>
       </c>
       <c r="J226" s="34" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="K226" s="35" t="s">
-        <v>950</v>
+        <v>1082</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="M226" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16197,7 +16327,7 @@
         <v>270102</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G227" s="13">
         <v>270102017</v>
@@ -16209,17 +16339,17 @@
         <v>240</v>
       </c>
       <c r="J227" s="34" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
       <c r="K227" s="35" t="s">
-        <v>953</v>
+        <v>1083</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="M227" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16239,7 +16369,7 @@
         <v>270102</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G228" s="13">
         <v>270102018</v>
@@ -16251,17 +16381,17 @@
         <v>241</v>
       </c>
       <c r="J228" s="34" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="K228" s="35" t="s">
-        <v>956</v>
+        <v>1084</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="M228" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16281,7 +16411,7 @@
         <v>270103</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G229" s="13">
         <v>270103001</v>
@@ -16293,17 +16423,17 @@
         <v>242</v>
       </c>
       <c r="J229" s="34" t="s">
-        <v>958</v>
+        <v>928</v>
       </c>
       <c r="K229" s="35" t="s">
-        <v>959</v>
+        <v>1085</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="M229" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16323,7 +16453,7 @@
         <v>270103</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G230" s="13">
         <v>270103002</v>
@@ -16335,17 +16465,17 @@
         <v>243</v>
       </c>
       <c r="J230" s="34" t="s">
-        <v>961</v>
+        <v>930</v>
       </c>
       <c r="K230" s="35" t="s">
-        <v>962</v>
+        <v>1086</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>963</v>
+        <v>931</v>
       </c>
       <c r="M230" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16365,7 +16495,7 @@
         <v>270103</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G231" s="13">
         <v>270103003</v>
@@ -16377,17 +16507,17 @@
         <v>244</v>
       </c>
       <c r="J231" s="34" t="s">
-        <v>964</v>
+        <v>932</v>
       </c>
       <c r="K231" s="35" t="s">
-        <v>965</v>
+        <v>1087</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="M231" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16407,7 +16537,7 @@
         <v>270103</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G232" s="13">
         <v>270103004</v>
@@ -16419,17 +16549,17 @@
         <v>245</v>
       </c>
       <c r="J232" s="34" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="K232" s="35" t="s">
-        <v>968</v>
+        <v>1088</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="M232" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16449,7 +16579,7 @@
         <v>270103</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G233" s="13">
         <v>270103005</v>
@@ -16461,17 +16591,17 @@
         <v>246</v>
       </c>
       <c r="J233" s="34" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="K233" s="35" t="s">
-        <v>971</v>
+        <v>1089</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
       <c r="M233" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16491,7 +16621,7 @@
         <v>270103</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G234" s="13">
         <v>270103006</v>
@@ -16503,17 +16633,17 @@
         <v>247</v>
       </c>
       <c r="J234" s="34" t="s">
-        <v>973</v>
+        <v>938</v>
       </c>
       <c r="K234" s="35" t="s">
-        <v>974</v>
+        <v>1090</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>975</v>
+        <v>939</v>
       </c>
       <c r="M234" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16530,32 +16660,32 @@
         <v>882</v>
       </c>
       <c r="E235" s="12">
-        <v>270104</v>
+        <v>270103</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>41</v>
+        <v>884</v>
       </c>
       <c r="G235" s="13">
-        <v>270104001</v>
+        <v>270103007</v>
       </c>
       <c r="H235" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>253</v>
+        <v>1030</v>
       </c>
       <c r="J235" s="34" t="s">
-        <v>976</v>
+        <v>1031</v>
       </c>
       <c r="K235" s="35" t="s">
-        <v>977</v>
+        <v>1091</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>978</v>
+        <v>1032</v>
       </c>
       <c r="M235" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
+        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -16572,32 +16702,32 @@
         <v>882</v>
       </c>
       <c r="E236" s="12">
-        <v>270105</v>
+        <v>270103</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>38</v>
+        <v>884</v>
       </c>
       <c r="G236" s="13">
-        <v>270105001</v>
+        <v>270103008</v>
       </c>
       <c r="H236" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>248</v>
+        <v>1033</v>
       </c>
       <c r="J236" s="34" t="s">
-        <v>979</v>
+        <v>1034</v>
       </c>
       <c r="K236" s="35" t="s">
-        <v>980</v>
+        <v>1092</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="M236" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16614,35 +16744,35 @@
         <v>882</v>
       </c>
       <c r="E237" s="12">
-        <v>270105</v>
+        <v>270104</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G237" s="13">
-        <v>270105002</v>
+        <v>270104001</v>
       </c>
       <c r="H237" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J237" s="34" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="K237" s="35" t="s">
-        <v>983</v>
+        <v>1093</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>984</v>
+        <v>941</v>
       </c>
       <c r="M237" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',270104);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>27</v>
       </c>
@@ -16662,26 +16792,26 @@
         <v>38</v>
       </c>
       <c r="G238" s="13">
-        <v>270105003</v>
+        <v>270105001</v>
       </c>
       <c r="H238" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J238" s="34" t="s">
-        <v>985</v>
+        <v>942</v>
       </c>
       <c r="K238" s="35" t="s">
-        <v>986</v>
+        <v>1094</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="M238" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -16698,32 +16828,32 @@
         <v>882</v>
       </c>
       <c r="E239" s="12">
-        <v>270106</v>
+        <v>270105</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G239" s="13">
-        <v>270106001</v>
+        <v>270105002</v>
       </c>
       <c r="H239" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J239" s="34" t="s">
-        <v>988</v>
+        <v>944</v>
       </c>
       <c r="K239" s="35" t="s">
-        <v>989</v>
+        <v>1095</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="M239" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16740,32 +16870,32 @@
         <v>882</v>
       </c>
       <c r="E240" s="12">
-        <v>270106</v>
+        <v>270105</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G240" s="13">
-        <v>270106002</v>
+        <v>270105003</v>
       </c>
       <c r="H240" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>991</v>
+        <v>250</v>
       </c>
       <c r="J240" s="34" t="s">
-        <v>992</v>
+        <v>946</v>
       </c>
       <c r="K240" s="35" t="s">
-        <v>993</v>
+        <v>1096</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>994</v>
+        <v>947</v>
       </c>
       <c r="M240" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="63" x14ac:dyDescent="0.35">
@@ -16782,32 +16912,32 @@
         <v>882</v>
       </c>
       <c r="E241" s="12">
-        <v>270107</v>
+        <v>270105</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>893</v>
+        <v>38</v>
       </c>
       <c r="G241" s="13">
-        <v>270107001</v>
+        <v>270105004</v>
       </c>
       <c r="H241" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>995</v>
+        <v>1036</v>
       </c>
       <c r="J241" s="34" t="s">
-        <v>996</v>
+        <v>1037</v>
       </c>
       <c r="K241" s="35" t="s">
-        <v>997</v>
+        <v>1097</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
       <c r="M241" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="63" x14ac:dyDescent="0.35">
@@ -16824,32 +16954,32 @@
         <v>882</v>
       </c>
       <c r="E242" s="12">
-        <v>270107</v>
+        <v>270105</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>893</v>
+        <v>38</v>
       </c>
       <c r="G242" s="13">
-        <v>270107002</v>
+        <v>270105005</v>
       </c>
       <c r="H242" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>999</v>
+        <v>251</v>
       </c>
       <c r="J242" s="34" t="s">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="K242" s="35" t="s">
-        <v>1001</v>
+        <v>1098</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>1002</v>
+        <v>1040</v>
       </c>
       <c r="M242" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16866,32 +16996,32 @@
         <v>882</v>
       </c>
       <c r="E243" s="12">
-        <v>270107</v>
+        <v>270106</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>893</v>
+        <v>40</v>
       </c>
       <c r="G243" s="13">
-        <v>270107003</v>
+        <v>270106001</v>
       </c>
       <c r="H243" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J243" s="34" t="s">
-        <v>1003</v>
+        <v>948</v>
       </c>
       <c r="K243" s="35" t="s">
-        <v>1004</v>
+        <v>1099</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>1005</v>
+        <v>949</v>
       </c>
       <c r="M243" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -16908,35 +17038,35 @@
         <v>882</v>
       </c>
       <c r="E244" s="12">
-        <v>270107</v>
+        <v>270106</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>893</v>
+        <v>40</v>
       </c>
       <c r="G244" s="13">
-        <v>270107004</v>
+        <v>270106002</v>
       </c>
       <c r="H244" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>1006</v>
+        <v>950</v>
       </c>
       <c r="J244" s="34" t="s">
-        <v>1007</v>
+        <v>951</v>
       </c>
       <c r="K244" s="35" t="s">
-        <v>1008</v>
+        <v>1100</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>1009</v>
+        <v>952</v>
       </c>
       <c r="M244" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>27</v>
       </c>
@@ -16953,32 +17083,32 @@
         <v>270107</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G245" s="13">
-        <v>270107005</v>
+        <v>270107001</v>
       </c>
       <c r="H245" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>1010</v>
+        <v>953</v>
       </c>
       <c r="J245" s="34" t="s">
-        <v>1011</v>
+        <v>954</v>
       </c>
       <c r="K245" s="35" t="s">
-        <v>1012</v>
+        <v>1101</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>1013</v>
+        <v>955</v>
       </c>
       <c r="M245" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>27</v>
       </c>
@@ -16995,29 +17125,29 @@
         <v>270107</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G246" s="13">
-        <v>270107006</v>
+        <v>270107002</v>
       </c>
       <c r="H246" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>1014</v>
+        <v>956</v>
       </c>
       <c r="J246" s="34" t="s">
-        <v>1015</v>
+        <v>957</v>
       </c>
       <c r="K246" s="35" t="s">
-        <v>1016</v>
+        <v>1102</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>1017</v>
+        <v>958</v>
       </c>
       <c r="M246" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17037,29 +17167,29 @@
         <v>270107</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G247" s="13">
-        <v>270107007</v>
+        <v>270107003</v>
       </c>
       <c r="H247" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>1018</v>
+        <v>224</v>
       </c>
       <c r="J247" s="34" t="s">
-        <v>1019</v>
+        <v>959</v>
       </c>
       <c r="K247" s="35" t="s">
-        <v>1020</v>
+        <v>1103</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>1021</v>
+        <v>960</v>
       </c>
       <c r="M247" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -17076,32 +17206,32 @@
         <v>882</v>
       </c>
       <c r="E248" s="12">
-        <v>270108</v>
+        <v>270107</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G248" s="13">
-        <v>270108001</v>
+        <v>270107004</v>
       </c>
       <c r="H248" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>1022</v>
+        <v>961</v>
       </c>
       <c r="J248" s="34" t="s">
-        <v>1023</v>
+        <v>962</v>
       </c>
       <c r="K248" s="35" t="s">
-        <v>1024</v>
+        <v>1104</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>1025</v>
+        <v>963</v>
       </c>
       <c r="M248" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -17118,32 +17248,32 @@
         <v>882</v>
       </c>
       <c r="E249" s="12">
-        <v>270108</v>
+        <v>270107</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G249" s="13">
-        <v>270108002</v>
+        <v>270107005</v>
       </c>
       <c r="H249" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>1026</v>
+        <v>964</v>
       </c>
       <c r="J249" s="34" t="s">
-        <v>1027</v>
+        <v>965</v>
       </c>
       <c r="K249" s="35" t="s">
-        <v>1028</v>
+        <v>1105</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>1029</v>
+        <v>966</v>
       </c>
       <c r="M249" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -17160,32 +17290,32 @@
         <v>882</v>
       </c>
       <c r="E250" s="12">
-        <v>270108</v>
+        <v>270107</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G250" s="13">
-        <v>270108003</v>
+        <v>270107006</v>
       </c>
       <c r="H250" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>1030</v>
+        <v>967</v>
       </c>
       <c r="J250" s="34" t="s">
-        <v>1031</v>
+        <v>968</v>
       </c>
       <c r="K250" s="35" t="s">
-        <v>1032</v>
+        <v>1106</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>1033</v>
+        <v>969</v>
       </c>
       <c r="M250" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17202,32 +17332,32 @@
         <v>882</v>
       </c>
       <c r="E251" s="12">
-        <v>270108</v>
+        <v>270107</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G251" s="13">
-        <v>270108004</v>
+        <v>270107007</v>
       </c>
       <c r="H251" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>1034</v>
+        <v>970</v>
       </c>
       <c r="J251" s="34" t="s">
-        <v>1035</v>
+        <v>971</v>
       </c>
       <c r="K251" s="35" t="s">
-        <v>1036</v>
+        <v>1107</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>1037</v>
+        <v>972</v>
       </c>
       <c r="M251" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17247,29 +17377,29 @@
         <v>270108</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G252" s="13">
-        <v>270108005</v>
+        <v>270108001</v>
       </c>
       <c r="H252" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
       <c r="J252" s="34" t="s">
-        <v>1039</v>
+        <v>974</v>
       </c>
       <c r="K252" s="35" t="s">
-        <v>1040</v>
+        <v>1108</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>1041</v>
+        <v>975</v>
       </c>
       <c r="M252" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17289,29 +17419,29 @@
         <v>270108</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G253" s="13">
-        <v>270108006</v>
+        <v>270108002</v>
       </c>
       <c r="H253" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I253" s="8" t="s">
-        <v>1042</v>
+        <v>976</v>
       </c>
       <c r="J253" s="34" t="s">
-        <v>1043</v>
+        <v>977</v>
       </c>
       <c r="K253" s="35" t="s">
-        <v>1044</v>
+        <v>1109</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>1045</v>
+        <v>978</v>
       </c>
       <c r="M253" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17331,29 +17461,29 @@
         <v>270108</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G254" s="13">
-        <v>270108007</v>
+        <v>270108003</v>
       </c>
       <c r="H254" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>1046</v>
+        <v>979</v>
       </c>
       <c r="J254" s="34" t="s">
-        <v>1047</v>
+        <v>980</v>
       </c>
       <c r="K254" s="35" t="s">
-        <v>1048</v>
+        <v>1110</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>1049</v>
+        <v>981</v>
       </c>
       <c r="M254" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17373,29 +17503,29 @@
         <v>270108</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G255" s="13">
-        <v>270108008</v>
+        <v>270108004</v>
       </c>
       <c r="H255" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>1050</v>
+        <v>982</v>
       </c>
       <c r="J255" s="34" t="s">
-        <v>1051</v>
+        <v>983</v>
       </c>
       <c r="K255" s="35" t="s">
-        <v>1052</v>
+        <v>1111</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>1053</v>
+        <v>984</v>
       </c>
       <c r="M255" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17415,29 +17545,29 @@
         <v>270108</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G256" s="13">
-        <v>270108009</v>
+        <v>270108005</v>
       </c>
       <c r="H256" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>1054</v>
+        <v>985</v>
       </c>
       <c r="J256" s="34" t="s">
-        <v>1055</v>
+        <v>986</v>
       </c>
       <c r="K256" s="35" t="s">
-        <v>1056</v>
+        <v>1112</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>1057</v>
+        <v>987</v>
       </c>
       <c r="M256" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -17454,32 +17584,32 @@
         <v>882</v>
       </c>
       <c r="E257" s="12">
-        <v>270109</v>
+        <v>270108</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G257" s="13">
-        <v>270109001</v>
+        <v>270108006</v>
       </c>
       <c r="H257" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>1026</v>
+        <v>988</v>
       </c>
       <c r="J257" s="34" t="s">
-        <v>1058</v>
+        <v>989</v>
       </c>
       <c r="K257" s="35" t="s">
-        <v>1059</v>
+        <v>1113</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>1060</v>
+        <v>990</v>
       </c>
       <c r="M257" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17496,32 +17626,32 @@
         <v>882</v>
       </c>
       <c r="E258" s="12">
-        <v>270109</v>
+        <v>270108</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G258" s="13">
-        <v>270109002</v>
+        <v>270108007</v>
       </c>
       <c r="H258" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>1061</v>
+        <v>991</v>
       </c>
       <c r="J258" s="34" t="s">
-        <v>1062</v>
+        <v>992</v>
       </c>
       <c r="K258" s="35" t="s">
-        <v>1063</v>
+        <v>1114</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>1064</v>
+        <v>993</v>
       </c>
       <c r="M258" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -17538,32 +17668,32 @@
         <v>882</v>
       </c>
       <c r="E259" s="12">
-        <v>270109</v>
+        <v>270108</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G259" s="13">
-        <v>270109003</v>
+        <v>270108008</v>
       </c>
       <c r="H259" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>1065</v>
+        <v>994</v>
       </c>
       <c r="J259" s="34" t="s">
-        <v>1066</v>
+        <v>995</v>
       </c>
       <c r="K259" s="35" t="s">
-        <v>1067</v>
+        <v>1115</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>1068</v>
+        <v>996</v>
       </c>
       <c r="M259" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17580,32 +17710,32 @@
         <v>882</v>
       </c>
       <c r="E260" s="12">
-        <v>270109</v>
+        <v>270108</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G260" s="13">
-        <v>270109004</v>
+        <v>270108009</v>
       </c>
       <c r="H260" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>1069</v>
+        <v>997</v>
       </c>
       <c r="J260" s="34" t="s">
-        <v>1070</v>
+        <v>998</v>
       </c>
       <c r="K260" s="35" t="s">
-        <v>1071</v>
+        <v>1116</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>1072</v>
+        <v>999</v>
       </c>
       <c r="M260" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17622,32 +17752,32 @@
         <v>882</v>
       </c>
       <c r="E261" s="12">
-        <v>270109</v>
+        <v>270108</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G261" s="13">
-        <v>270109005</v>
+        <v>270108010</v>
       </c>
       <c r="H261" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>1073</v>
+        <v>887</v>
       </c>
       <c r="J261" s="34" t="s">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="K261" s="35" t="s">
-        <v>1075</v>
+        <v>1117</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="M261" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17667,29 +17797,29 @@
         <v>270109</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G262" s="13">
-        <v>270109006</v>
+        <v>270109001</v>
       </c>
       <c r="H262" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>1038</v>
+        <v>976</v>
       </c>
       <c r="J262" s="34" t="s">
-        <v>1077</v>
+        <v>1000</v>
       </c>
       <c r="K262" s="35" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="M262" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17709,29 +17839,29 @@
         <v>270109</v>
       </c>
       <c r="F263" s="44" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G263" s="45">
-        <v>270109007</v>
+        <v>270109002</v>
       </c>
       <c r="H263" s="46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I263" s="44" t="s">
-        <v>1050</v>
+        <v>1002</v>
       </c>
       <c r="J263" s="47" t="s">
-        <v>1080</v>
+        <v>1003</v>
       </c>
       <c r="K263" s="48" t="s">
-        <v>1081</v>
+        <v>1119</v>
       </c>
       <c r="L263" s="49" t="s">
-        <v>1082</v>
+        <v>1004</v>
       </c>
       <c r="M263" s="50" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17751,29 +17881,29 @@
         <v>270109</v>
       </c>
       <c r="F264" s="44" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G264" s="45">
-        <v>270109008</v>
+        <v>270109003</v>
       </c>
       <c r="H264" s="46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I264" s="44" t="s">
-        <v>1083</v>
+        <v>1005</v>
       </c>
       <c r="J264" s="47" t="s">
-        <v>1084</v>
+        <v>1006</v>
       </c>
       <c r="K264" s="48" t="s">
-        <v>1085</v>
+        <v>1120</v>
       </c>
       <c r="L264" s="49" t="s">
-        <v>1086</v>
+        <v>1007</v>
       </c>
       <c r="M264" s="50" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17793,29 +17923,29 @@
         <v>270109</v>
       </c>
       <c r="F265" s="44" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G265" s="45">
-        <v>270109009</v>
+        <v>270109004</v>
       </c>
       <c r="H265" s="46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I265" s="44" t="s">
-        <v>1087</v>
+        <v>1008</v>
       </c>
       <c r="J265" s="47" t="s">
-        <v>1088</v>
+        <v>1009</v>
       </c>
       <c r="K265" s="48" t="s">
-        <v>1089</v>
+        <v>1121</v>
       </c>
       <c r="L265" s="49" t="s">
-        <v>1090</v>
+        <v>1010</v>
       </c>
       <c r="M265" s="50" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17832,32 +17962,32 @@
         <v>882</v>
       </c>
       <c r="E266" s="12">
-        <v>270103</v>
+        <v>270109</v>
       </c>
       <c r="F266" s="8" t="s">
         <v>888</v>
       </c>
       <c r="G266" s="13">
-        <v>270103007</v>
+        <v>270109005</v>
       </c>
       <c r="H266" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>1097</v>
+        <v>1011</v>
       </c>
       <c r="J266" s="34" t="s">
-        <v>1098</v>
+        <v>1012</v>
       </c>
       <c r="K266" s="35" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>1100</v>
+        <v>1013</v>
       </c>
       <c r="M266" s="36" t="str">
         <f t="shared" ref="M266:M267" si="4">+"INSERT INTO categoria VALUES ("&amp;G266&amp;",'"&amp;I266&amp;"','"&amp;J266&amp;"','"&amp;K266&amp;"',"&amp;E266&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -17874,35 +18004,35 @@
         <v>882</v>
       </c>
       <c r="E267" s="43">
-        <v>270103</v>
+        <v>270109</v>
       </c>
       <c r="F267" s="44" t="s">
         <v>888</v>
       </c>
       <c r="G267" s="45">
-        <v>270103008</v>
+        <v>270109006</v>
       </c>
       <c r="H267" s="46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I267" s="44" t="s">
-        <v>1101</v>
+        <v>985</v>
       </c>
       <c r="J267" s="47" t="s">
-        <v>1102</v>
+        <v>1014</v>
       </c>
       <c r="K267" s="48" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="L267" s="49" t="s">
-        <v>1104</v>
+        <v>1015</v>
       </c>
       <c r="M267" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A268" s="12">
         <v>27</v>
       </c>
@@ -17916,35 +18046,35 @@
         <v>882</v>
       </c>
       <c r="E268" s="12">
-        <v>270105</v>
+        <v>270109</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>38</v>
+        <v>888</v>
       </c>
       <c r="G268" s="13">
-        <v>270105004</v>
+        <v>270109007</v>
       </c>
       <c r="H268" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>1105</v>
+        <v>994</v>
       </c>
       <c r="J268" s="34" t="s">
-        <v>1106</v>
+        <v>1016</v>
       </c>
       <c r="K268" s="35" t="s">
-        <v>1107</v>
+        <v>1124</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>1108</v>
+        <v>1017</v>
       </c>
       <c r="M268" s="36" t="str">
         <f t="shared" ref="M268:M269" si="5">+"INSERT INTO categoria VALUES ("&amp;G268&amp;",'"&amp;I268&amp;"','"&amp;J268&amp;"','"&amp;K268&amp;"',"&amp;E268&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A269" s="43">
         <v>27</v>
       </c>
@@ -17958,32 +18088,32 @@
         <v>882</v>
       </c>
       <c r="E269" s="43">
-        <v>270105</v>
+        <v>270109</v>
       </c>
       <c r="F269" s="44" t="s">
-        <v>38</v>
+        <v>888</v>
       </c>
       <c r="G269" s="45">
-        <v>270105005</v>
+        <v>270109008</v>
       </c>
       <c r="H269" s="46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I269" s="44" t="s">
-        <v>251</v>
+        <v>1018</v>
       </c>
       <c r="J269" s="47" t="s">
-        <v>1109</v>
+        <v>1019</v>
       </c>
       <c r="K269" s="48" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="L269" s="49" t="s">
-        <v>1111</v>
+        <v>1020</v>
       </c>
       <c r="M269" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -18000,32 +18130,32 @@
         <v>882</v>
       </c>
       <c r="E270" s="43">
-        <v>270108</v>
+        <v>270109</v>
       </c>
       <c r="F270" s="44" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="G270" s="45">
-        <v>270108010</v>
+        <v>270109009</v>
       </c>
       <c r="H270" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I270" s="44" t="s">
-        <v>896</v>
+        <v>1021</v>
       </c>
       <c r="J270" s="47" t="s">
-        <v>1112</v>
+        <v>1022</v>
       </c>
       <c r="K270" s="48" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="L270" s="49" t="s">
-        <v>1114</v>
+        <v>1023</v>
       </c>
       <c r="M270" s="50" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G270&amp;",'"&amp;I270&amp;"','"&amp;J270&amp;"','"&amp;K270&amp;"',"&amp;E270&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -18045,7 +18175,7 @@
         <v>270109</v>
       </c>
       <c r="F271" s="44" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G271" s="45">
         <v>270109010</v>
@@ -18054,20 +18184,230 @@
         <v>10</v>
       </c>
       <c r="I271" s="44" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="J271" s="47" t="s">
-        <v>1115</v>
+        <v>1043</v>
       </c>
       <c r="K271" s="48" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="L271" s="49" t="s">
-        <v>1117</v>
+        <v>1044</v>
       </c>
       <c r="M271" s="50" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G271&amp;",'"&amp;I271&amp;"','"&amp;J271&amp;"','"&amp;K271&amp;"',"&amp;E271&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="A272" s="12">
+        <v>27</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C272" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E272" s="12">
+        <v>270110</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G272" s="13">
+        <v>270110001</v>
+      </c>
+      <c r="H272" s="7">
+        <v>1</v>
+      </c>
+      <c r="I272" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J272" s="34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K272" s="35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L272" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M272" s="36" t="str">
+        <f t="shared" ref="M272:M276" si="6">+"INSERT INTO categoria VALUES ("&amp;G272&amp;",'"&amp;I272&amp;"','"&amp;J272&amp;"','"&amp;K272&amp;"',"&amp;E272&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="A273" s="12">
+        <v>27</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C273" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E273" s="12">
+        <v>270110</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G273" s="13">
+        <v>270110002</v>
+      </c>
+      <c r="H273" s="7">
+        <v>2</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J273" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K273" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M273" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+      <c r="A274" s="12">
+        <v>27</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C274" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E274" s="12">
+        <v>270110</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G274" s="13">
+        <v>270110003</v>
+      </c>
+      <c r="H274" s="7">
+        <v>3</v>
+      </c>
+      <c r="I274" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J274" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K274" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L274" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M274" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A275" s="12">
+        <v>27</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C275" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E275" s="12">
+        <v>270111</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G275" s="13">
+        <v>270111001</v>
+      </c>
+      <c r="H275" s="7">
+        <v>1</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J275" s="34" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K275" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M275" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="12">
+        <v>27</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C276" s="12">
+        <v>2701</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E276" s="12">
+        <v>270111</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G276" s="13">
+        <v>270111002</v>
+      </c>
+      <c r="H276" s="7">
+        <v>2</v>
+      </c>
+      <c r="I276" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J276" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K276" s="35" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L276" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M276" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO categoria VALUES (270111002,'Egresos','Egresos-270111002','Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
+++ b/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE051992-38AF-4968-93F9-5B4EB4F21C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC723E-4E48-41D9-83BC-1007D800A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -5905,7 +5905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B59CD6-C706-44C2-9A8B-8E338432C9BE}">
   <dimension ref="A9:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -7126,9 +7126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
   <dimension ref="A8:M276"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K276" sqref="K276"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
+++ b/000 TABLAS GENERALES/000 Codificación Estadísticas ACTUAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172BEEE-35AB-4DAE-A77A-9CA15198BB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817C635-1FD8-4261-B5F1-4157D6AB04DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -2730,15 +2730,6 @@
     <t>Casas de Acogida</t>
   </si>
   <si>
-    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros</t>
-  </si>
-  <si>
-    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001</t>
-  </si>
-  <si>
-    <t>270101001apremios_ilegiticos_violacion,_abuso_sexual_agravado,_otros</t>
-  </si>
-  <si>
     <t>Estupro-270102001</t>
   </si>
   <si>
@@ -3261,9 +3252,6 @@
     <t>Egresos</t>
   </si>
   <si>
-    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</t>
-  </si>
-  <si>
     <t>Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</t>
   </si>
   <si>
@@ -3493,6 +3481,18 @@
   </si>
   <si>
     <t>Agropecuario y Forestal</t>
+  </si>
+  <si>
+    <t>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros</t>
+  </si>
+  <si>
+    <t>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001</t>
+  </si>
+  <si>
+    <t>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>270101001apremios_ilegitimos_violacion,_abuso_sexual_agravado,_otros</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -3671,7 +3671,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5410,8 +5410,8 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Industria" xr10:uid="{B77F4C3B-1E6F-44BC-8D8D-E6B3EA184597}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FF7AA0F4-9660-460D-B2AE-353118A2D7F9}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
-  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="8" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
-  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" startItem="3" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
+  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="4" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -5460,7 +5460,18 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J39" totalsRowShown="0">
-  <autoFilter ref="A10:J39" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}"/>
+  <autoFilter ref="A10:J39" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Violencia"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Delitos Cometidos por Empleados y Funcionarios Públicos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{17BBD643-0CB5-4375-BF45-BC9750D7B143}" name="Id_industria" dataDxfId="23">
       <calculatedColumnFormula>+A10</calculatedColumnFormula>
@@ -5493,18 +5504,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M276" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M276" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Agricultura"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Otros"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:M276" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:M265">
     <sortCondition ref="G10:G265"/>
   </sortState>
@@ -5833,16 +5833,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -5859,12 +5859,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>10</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>5</v>
@@ -5877,7 +5877,7 @@
         <v>INSERT INTO industria VALUES (10,'Agropecuario y Forestal','AGR - 10','Industria: AGR - 10');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>27</v>
       </c>
@@ -5916,26 +5916,26 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" customWidth="1"/>
-    <col min="8" max="8" width="59.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="39">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -5961,12 +5961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="19">
         <v>1001</v>
@@ -5988,7 +5988,7 @@
         <v>INSERT INTO sector VALUES (1001,'Agricultura','Agr-1001','Sector: Agr-1001 | Industria: AGR - 10',10);</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>27</v>
       </c>
@@ -6005,10 +6005,10 @@
         <v>881</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H12" s="32" t="str">
         <f>+"INSERT INTO sector VALUES ("&amp;C12&amp;",'"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"',"&amp;A12&amp;");"</f>
@@ -6038,33 +6038,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916C713-6550-4780-B99D-F35BBEDE9786}">
   <dimension ref="A7:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.81640625" customWidth="1"/>
+    <col min="10" max="10" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="39">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -6096,12 +6096,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="17">
         <v>1001</v>
@@ -6133,12 +6133,12 @@
         <v>100101 Producto|| Berries</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C12" s="17">
         <v>1001</v>
@@ -6170,12 +6170,12 @@
         <v>100102 Producto|| Cítricos</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="17">
         <v>1001</v>
@@ -6207,12 +6207,12 @@
         <v>100103 Producto|| Frutos de hueso (carozo)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C14" s="17">
         <v>1001</v>
@@ -6244,12 +6244,12 @@
         <v>100104 Producto|| Frutos de pepita</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="17">
         <v>1001</v>
@@ -6281,12 +6281,12 @@
         <v>100105 Producto|| Frutos secos</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C16" s="17">
         <v>1001</v>
@@ -6318,12 +6318,12 @@
         <v>100106 Producto|| Frutos oleaginosos</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C17" s="17">
         <v>1001</v>
@@ -6355,12 +6355,12 @@
         <v>100107 Producto|| Otros</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C18" s="17">
         <v>1001</v>
@@ -6392,12 +6392,12 @@
         <v>100108 Producto|| Tropicales y subtropicales</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C19" s="17">
         <v>1001</v>
@@ -6429,12 +6429,12 @@
         <v>100109 Producto|| Uva</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C20" s="17">
         <v>1001</v>
@@ -6466,12 +6466,12 @@
         <v>100110 Producto|| Legumbres</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C21" s="17">
         <v>1001</v>
@@ -6503,12 +6503,12 @@
         <v>100111 Producto|| Cereales</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C22" s="17">
         <v>1001</v>
@@ -6540,12 +6540,12 @@
         <v>100112 Producto|| Hortalizas</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C23" s="17">
         <v>1001</v>
@@ -6577,12 +6577,12 @@
         <v>100113 Producto|| Industriales</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C24" s="17">
         <v>1001</v>
@@ -6614,12 +6614,12 @@
         <v>100114 Producto|| Tubérculos</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C25" s="17">
         <v>1001</v>
@@ -6647,12 +6647,12 @@
         <v>INSERT INTO producto VALUES (100115,'Semillas','Semillas','Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C26" s="17">
         <v>1001</v>
@@ -6680,12 +6680,12 @@
         <v>INSERT INTO producto VALUES (100116,'Especias','Especias','Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C27" s="17">
         <v>1001</v>
@@ -6713,12 +6713,12 @@
         <v>INSERT INTO producto VALUES (100117,'Plantas y forraje','Forraje','Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C28" s="17">
         <v>1001</v>
@@ -6746,7 +6746,7 @@
         <v>INSERT INTO producto VALUES (100118,'Mano de Obra Frutícola','Mano Obra','Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -6772,14 +6772,14 @@
         <v>36</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J29" s="27" t="str">
         <f t="shared" ref="J29:J37" si="1">+"INSERT INTO producto VALUES ("&amp;E29&amp;",'"&amp;G29&amp;"','"&amp;H29&amp;"','"&amp;I29&amp;"',"&amp;C29&amp;");"</f>
         <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>27</v>
       </c>
@@ -6805,14 +6805,14 @@
         <v>36</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="J30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>27</v>
       </c>
@@ -6838,14 +6838,14 @@
         <v>36</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="J31" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>27</v>
       </c>
@@ -6871,14 +6871,14 @@
         <v>36</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="J32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>27</v>
       </c>
@@ -6904,14 +6904,14 @@
         <v>36</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="J33" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>27</v>
       </c>
@@ -6937,14 +6937,14 @@
         <v>36</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="J34" s="27" t="str">
         <f>+"INSERT INTO producto VALUES ("&amp;E34&amp;",'"&amp;G34&amp;"','"&amp;H34&amp;"','"&amp;I34&amp;"',"&amp;C34&amp;");"</f>
         <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>27</v>
       </c>
@@ -6970,14 +6970,14 @@
         <v>885</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="J35" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>27</v>
       </c>
@@ -7000,17 +7000,17 @@
         <v>886</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J36" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Establecimientos','Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -7033,17 +7033,17 @@
         <v>887</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="J37" s="27" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Establecimientos','Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="48" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>27</v>
       </c>
@@ -7063,20 +7063,20 @@
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="J38" s="27" t="str">
         <f t="shared" ref="J38:J39" si="2">+"INSERT INTO producto VALUES ("&amp;E38&amp;",'"&amp;G38&amp;"','"&amp;H38&amp;"','"&amp;I38&amp;"',"&amp;C38&amp;");"</f>
         <v>INSERT INTO producto VALUES (270110,'Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual','Establecimientos','Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>27</v>
       </c>
@@ -7096,13 +7096,13 @@
         <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="J39" s="27" t="str">
         <f t="shared" si="2"/>
@@ -7132,36 +7132,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
   <dimension ref="A8:M276"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" customWidth="1"/>
-    <col min="13" max="13" width="49.36328125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" s="14"/>
       <c r="G8" s="14">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -7202,12 +7202,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C10" s="12">
         <v>1001</v>
@@ -7244,12 +7244,12 @@
         <v>INSERT INTO categoria VALUES (100101001,'Arándano','Arándano-100101001','Arándano-100101001 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="12">
         <v>1001</v>
@@ -7286,12 +7286,12 @@
         <v>INSERT INTO categoria VALUES (100101002,'Calafate','Calafate-100101002','Calafate-100101002 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C12" s="12">
         <v>1001</v>
@@ -7328,12 +7328,12 @@
         <v>INSERT INTO categoria VALUES (100101003,'Cranberry','Cranberry-100101003','Cranberry-100101003 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="12">
         <v>1001</v>
@@ -7370,12 +7370,12 @@
         <v>INSERT INTO categoria VALUES (100101004,'Frambuesa','Frambuesa-100101004','Frambuesa-100101004 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C14" s="12">
         <v>1001</v>
@@ -7412,12 +7412,12 @@
         <v>INSERT INTO categoria VALUES (100101005,'Haskap','Haskap-100101005','Haskap-100101005 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="12">
         <v>1001</v>
@@ -7454,12 +7454,12 @@
         <v>INSERT INTO categoria VALUES (100101006,'Higo','Higo-100101006','Higo-100101006 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C16" s="12">
         <v>1001</v>
@@ -7496,12 +7496,12 @@
         <v>INSERT INTO categoria VALUES (100101007,'Kiwi','Kiwi-100101007','Kiwi-100101007 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C17" s="12">
         <v>1001</v>
@@ -7538,12 +7538,12 @@
         <v>INSERT INTO categoria VALUES (100101008,'Mora','Mora-100101008','Mora-100101008 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C18" s="12">
         <v>1001</v>
@@ -7580,12 +7580,12 @@
         <v>INSERT INTO categoria VALUES (100101009,'Murtilla','Murtilla-100101009','Murtilla-100101009 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C19" s="12">
         <v>1001</v>
@@ -7622,12 +7622,12 @@
         <v>INSERT INTO categoria VALUES (100101010,'Zarzaparrilla','Zarzaparrilla-100101010','Zarzaparrilla-100101010 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C20" s="12">
         <v>1001</v>
@@ -7664,12 +7664,12 @@
         <v>INSERT INTO categoria VALUES (100101011,'Otros berries','Otros berries-100101011','Otros berries-100101011 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C21" s="12">
         <v>1001</v>
@@ -7706,12 +7706,12 @@
         <v>INSERT INTO categoria VALUES (100101012,'Elderberry','Elderberry-100101012','Elderberry-100101012 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C22" s="12">
         <v>1001</v>
@@ -7748,12 +7748,12 @@
         <v>INSERT INTO categoria VALUES (100101013,'Sanddorn','Sanddorn-100101013','Sanddorn-100101013 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C23" s="12">
         <v>1001</v>
@@ -7790,12 +7790,12 @@
         <v>INSERT INTO categoria VALUES (100101014,'Acai berry','Acai berry-100101014','Acai berry-100101014 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C24" s="12">
         <v>1001</v>
@@ -7832,12 +7832,12 @@
         <v>INSERT INTO categoria VALUES (100101015,'Mora Silvestre','Mora Silvestre-100101015','Mora Silvestre-100101015 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C25" s="12">
         <v>1001</v>
@@ -7874,12 +7874,12 @@
         <v>INSERT INTO categoria VALUES (100101016,'Mora Cultivada','Mora Cultivada-100101016','Mora Cultivada-100101016 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C26" s="12">
         <v>1001</v>
@@ -7916,12 +7916,12 @@
         <v>INSERT INTO categoria VALUES (100102001,'Kumquat','Kumquat-100102001','Kumquat-100102001 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C27" s="12">
         <v>1001</v>
@@ -7958,12 +7958,12 @@
         <v>INSERT INTO categoria VALUES (100102002,'Lima','Lima-100102002','Lima-100102002 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>10</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C28" s="12">
         <v>1001</v>
@@ -8000,12 +8000,12 @@
         <v>INSERT INTO categoria VALUES (100102003,'Limón','Limón-100102003','Limón-100102003 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>10</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C29" s="12">
         <v>1001</v>
@@ -8042,12 +8042,12 @@
         <v>INSERT INTO categoria VALUES (100102004,'Mandarina','Mandarina-100102004','Mandarina-100102004 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>10</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C30" s="12">
         <v>1001</v>
@@ -8084,12 +8084,12 @@
         <v>INSERT INTO categoria VALUES (100102005,'Naranja','Naranja-100102005','Naranja-100102005 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>10</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C31" s="12">
         <v>1001</v>
@@ -8126,12 +8126,12 @@
         <v>INSERT INTO categoria VALUES (100102006,'Pomelo','Pomelo-100102006','Pomelo-100102006 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>10</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C32" s="12">
         <v>1001</v>
@@ -8168,12 +8168,12 @@
         <v>INSERT INTO categoria VALUES (100102007,'Tangelo','Tangelo-100102007','Tangelo-100102007 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>10</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C33" s="12">
         <v>1001</v>
@@ -8210,12 +8210,12 @@
         <v>INSERT INTO categoria VALUES (100102008,'Otros cítricos','Otros cítricos-100102008','Otros cítricos-100102008 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>10</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C34" s="12">
         <v>1001</v>
@@ -8252,12 +8252,12 @@
         <v>INSERT INTO categoria VALUES (100102009,'Frutos Cítricos','Frutos Cítricos-100102009','Frutos Cítricos-100102009 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>10</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C35" s="12">
         <v>1001</v>
@@ -8294,12 +8294,12 @@
         <v>INSERT INTO categoria VALUES (100102010,'Clementina','Clementina-100102010','Clementina-100102010 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>10</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C36" s="12">
         <v>1001</v>
@@ -8336,12 +8336,12 @@
         <v>INSERT INTO categoria VALUES (100103001,'Cereza','Cereza-100103001','Cereza-100103001 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C37" s="12">
         <v>1001</v>
@@ -8378,12 +8378,12 @@
         <v>INSERT INTO categoria VALUES (100103002,'Ciruela','Ciruela-100103002','Ciruela-100103002 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>10</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C38" s="12">
         <v>1001</v>
@@ -8420,12 +8420,12 @@
         <v>INSERT INTO categoria VALUES (100103003,'Damasco','Damasco-100103003','Damasco-100103003 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C39" s="12">
         <v>1001</v>
@@ -8462,12 +8462,12 @@
         <v>INSERT INTO categoria VALUES (100103004,'Durazno','Durazno-100103004','Durazno-100103004 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C40" s="12">
         <v>1001</v>
@@ -8504,12 +8504,12 @@
         <v>INSERT INTO categoria VALUES (100103005,'Guinda','Guinda-100103005','Guinda-100103005 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C41" s="12">
         <v>1001</v>
@@ -8546,12 +8546,12 @@
         <v>INSERT INTO categoria VALUES (100103006,'Nectarín','Nectarín-100103006','Nectarín-100103006 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>10</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C42" s="12">
         <v>1001</v>
@@ -8588,12 +8588,12 @@
         <v>INSERT INTO categoria VALUES (100103007,'Pluots','Pluots-100103007','Pluots-100103007 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>10</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C43" s="12">
         <v>1001</v>
@@ -8630,12 +8630,12 @@
         <v>INSERT INTO categoria VALUES (100103008,'Frutos de hueso (carozo)','Frutos de hueso (carozo)-100103008','Frutos de hueso (carozo)-100103008 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>10</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C44" s="12">
         <v>1001</v>
@@ -8672,12 +8672,12 @@
         <v>INSERT INTO categoria VALUES (100103009,'Acerola','Acerola-100103009','Acerola-100103009 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>10</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C45" s="12">
         <v>1001</v>
@@ -8714,12 +8714,12 @@
         <v>INSERT INTO categoria VALUES (100103010,'Ciruela Japonesa','Ciruela Japonesa-100103010','Ciruela Japonesa-100103010 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>10</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C46" s="12">
         <v>1001</v>
@@ -8756,12 +8756,12 @@
         <v>INSERT INTO categoria VALUES (100103011,'Durazno Fresco','Durazno Fresco-100103011','Durazno Fresco-100103011 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>10</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C47" s="12">
         <v>1001</v>
@@ -8798,12 +8798,12 @@
         <v>INSERT INTO categoria VALUES (100103012,'Durazno Conservero','Durazno Conservero-100103012','Durazno Conservero-100103012 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>10</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C48" s="12">
         <v>1001</v>
@@ -8840,12 +8840,12 @@
         <v>INSERT INTO categoria VALUES (100103013,'Ciruela Europea','Ciruela Europea-100103013','Ciruela Europea-100103013 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>10</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C49" s="12">
         <v>1001</v>
@@ -8882,12 +8882,12 @@
         <v>INSERT INTO categoria VALUES (100103014,'Guinda Ácida','Guinda Ácida-100103014','Guinda Ácida-100103014 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>10</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C50" s="12">
         <v>1001</v>
@@ -8924,12 +8924,12 @@
         <v>INSERT INTO categoria VALUES (100104001,'Granada','Granada-100104001','Granada-100104001 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>10</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C51" s="12">
         <v>1001</v>
@@ -8966,12 +8966,12 @@
         <v>INSERT INTO categoria VALUES (100104002,'Manzana','Manzana-100104002','Manzana-100104002 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>10</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C52" s="12">
         <v>1001</v>
@@ -9008,12 +9008,12 @@
         <v>INSERT INTO categoria VALUES (100104003,'Membrillo','Membrillo-100104003','Membrillo-100104003 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C53" s="12">
         <v>1001</v>
@@ -9050,12 +9050,12 @@
         <v>INSERT INTO categoria VALUES (100104004,'Níspero','Níspero-100104004','Níspero-100104004 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>10</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C54" s="12">
         <v>1001</v>
@@ -9092,12 +9092,12 @@
         <v>INSERT INTO categoria VALUES (100104005,'Pera','Pera-100104005','Pera-100104005 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>10</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C55" s="12">
         <v>1001</v>
@@ -9134,12 +9134,12 @@
         <v>INSERT INTO categoria VALUES (100104006,'Rosa Mosqueta','Rosa Mosqueta-100104006','Rosa Mosqueta-100104006 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>10</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C56" s="12">
         <v>1001</v>
@@ -9176,12 +9176,12 @@
         <v>INSERT INTO categoria VALUES (100104007,'Frutos de pepita','Frutos de pepita-100104007','Frutos de pepita-100104007 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>10</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C57" s="12">
         <v>1001</v>
@@ -9218,12 +9218,12 @@
         <v>INSERT INTO categoria VALUES (100105001,'Almendra','Almendra-100105001','Almendra-100105001 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>10</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C58" s="12">
         <v>1001</v>
@@ -9260,12 +9260,12 @@
         <v>INSERT INTO categoria VALUES (100105002,'Avellana','Avellana-100105002','Avellana-100105002 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>10</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C59" s="12">
         <v>1001</v>
@@ -9302,12 +9302,12 @@
         <v>INSERT INTO categoria VALUES (100105003,'Castaña','Castaña-100105003','Castaña-100105003 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>10</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C60" s="12">
         <v>1001</v>
@@ -9344,12 +9344,12 @@
         <v>INSERT INTO categoria VALUES (100105004,'Nuez','Nuez-100105004','Nuez-100105004 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C61" s="12">
         <v>1001</v>
@@ -9386,12 +9386,12 @@
         <v>INSERT INTO categoria VALUES (100105005,'Pistacho','Pistacho-100105005','Pistacho-100105005 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>10</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C62" s="12">
         <v>1001</v>
@@ -9428,12 +9428,12 @@
         <v>INSERT INTO categoria VALUES (100105006,'Otros frutos secos','Otros frutos secos-100105006','Otros frutos secos-100105006 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>10</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C63" s="12">
         <v>1001</v>
@@ -9470,12 +9470,12 @@
         <v>INSERT INTO categoria VALUES (100105007,'Nuez de Macadamia','Nuez de Macadamia-100105007','Nuez de Macadamia-100105007 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>10</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C64" s="12">
         <v>1001</v>
@@ -9512,12 +9512,12 @@
         <v>INSERT INTO categoria VALUES (100106001,'Olivo','Olivo-100106001','Olivo-100106001 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>10</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C65" s="12">
         <v>1001</v>
@@ -9554,12 +9554,12 @@
         <v>INSERT INTO categoria VALUES (100106002,'Palta','Palta-100106002','Palta-100106002 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>10</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C66" s="12">
         <v>1001</v>
@@ -9596,12 +9596,12 @@
         <v>INSERT INTO categoria VALUES (100106003,'Frutos oleaginosos','Frutos oleaginosos-100106003','Frutos oleaginosos-100106003 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>10</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C67" s="12">
         <v>1001</v>
@@ -9638,12 +9638,12 @@
         <v>INSERT INTO categoria VALUES (100107001,'Caqui','Caqui-100107001','Caqui-100107001 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>10</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C68" s="12">
         <v>1001</v>
@@ -9680,12 +9680,12 @@
         <v>INSERT INTO categoria VALUES (100107002,'Chirimoya','Chirimoya-100107002','Chirimoya-100107002 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>10</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C69" s="12">
         <v>1001</v>
@@ -9722,12 +9722,12 @@
         <v>INSERT INTO categoria VALUES (100107003,'Dátil','Dátil-100107003','Dátil-100107003 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>10</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C70" s="12">
         <v>1001</v>
@@ -9764,12 +9764,12 @@
         <v>INSERT INTO categoria VALUES (100107004,'Feijoa','Feijoa-100107004','Feijoa-100107004 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>10</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C71" s="12">
         <v>1001</v>
@@ -9806,12 +9806,12 @@
         <v>INSERT INTO categoria VALUES (100107005,'Grosella','Grosella-100107005','Grosella-100107005 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>10</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C72" s="12">
         <v>1001</v>
@@ -9848,12 +9848,12 @@
         <v>INSERT INTO categoria VALUES (100107006,'Jojoba','Jojoba-100107006','Jojoba-100107006 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>10</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C73" s="12">
         <v>1001</v>
@@ -9890,12 +9890,12 @@
         <v>INSERT INTO categoria VALUES (100107007,'Lúcuma','Lúcuma-100107007','Lúcuma-100107007 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>10</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C74" s="12">
         <v>1001</v>
@@ -9932,12 +9932,12 @@
         <v>INSERT INTO categoria VALUES (100107008,'Maqui','Maqui-100107008','Maqui-100107008 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C75" s="12">
         <v>1001</v>
@@ -9974,12 +9974,12 @@
         <v>INSERT INTO categoria VALUES (100107009,'Michay','Michay-100107009','Michay-100107009 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>10</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C76" s="12">
         <v>1001</v>
@@ -10016,12 +10016,12 @@
         <v>INSERT INTO categoria VALUES (100107010,'Sauco','Sauco-100107010','Sauco-100107010 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>10</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C77" s="12">
         <v>1001</v>
@@ -10058,12 +10058,12 @@
         <v>INSERT INTO categoria VALUES (100107011,'Tuna','Tuna-100107011','Tuna-100107011 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>10</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C78" s="12">
         <v>1001</v>
@@ -10100,12 +10100,12 @@
         <v>INSERT INTO categoria VALUES (100107012,'Otros frutos','Otros frutos-100107012','Otros frutos-100107012 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C79" s="12">
         <v>1001</v>
@@ -10142,12 +10142,12 @@
         <v>INSERT INTO categoria VALUES (100107013,'Plumcots','Plumcots-100107013','Plumcots-100107013 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>10</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C80" s="12">
         <v>1001</v>
@@ -10184,12 +10184,12 @@
         <v>INSERT INTO categoria VALUES (100107014,'Ruibarbo','Ruibarbo-100107014','Ruibarbo-100107014 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>10</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C81" s="12">
         <v>1001</v>
@@ -10213,25 +10213,25 @@
         <v>21</v>
       </c>
       <c r="J81" s="34" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="K81" s="35" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M81" s="36" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO categoria VALUES (100107015,'Otros','Otros-100107015','Otros-100107015 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>10</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C82" s="12">
         <v>1001</v>
@@ -10268,12 +10268,12 @@
         <v>INSERT INTO categoria VALUES (100108001,'Guayaba','Guayaba-100108001','Guayaba-100108001 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>10</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C83" s="12">
         <v>1001</v>
@@ -10310,12 +10310,12 @@
         <v>INSERT INTO categoria VALUES (100108002,'Mango','Mango-100108002','Mango-100108002 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>10</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C84" s="12">
         <v>1001</v>
@@ -10352,12 +10352,12 @@
         <v>INSERT INTO categoria VALUES (100108003,'Maracuyá','Maracuyá-100108003','Maracuyá-100108003 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>10</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C85" s="12">
         <v>1001</v>
@@ -10394,12 +10394,12 @@
         <v>INSERT INTO categoria VALUES (100108004,'Papaya','Papaya-100108004','Papaya-100108004 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>10</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C86" s="12">
         <v>1001</v>
@@ -10436,12 +10436,12 @@
         <v>INSERT INTO categoria VALUES (100108005,'Piña','Piña-100108005','Piña-100108005 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>10</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C87" s="12">
         <v>1001</v>
@@ -10478,12 +10478,12 @@
         <v>INSERT INTO categoria VALUES (100108006,'Plátano','Plátano-100108006','Plátano-100108006 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>10</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C88" s="12">
         <v>1001</v>
@@ -10520,12 +10520,12 @@
         <v>INSERT INTO categoria VALUES (100108007,'Coco','Coco-100108007','Coco-100108007 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>10</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C89" s="12">
         <v>1001</v>
@@ -10562,12 +10562,12 @@
         <v>INSERT INTO categoria VALUES (100108008,'Frutas tropicales y subtropicales','Frutas tropicales y subtropicales-100108008','Frutas tropicales y subtropicales-100108008 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>10</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C90" s="12">
         <v>1001</v>
@@ -10604,12 +10604,12 @@
         <v>INSERT INTO categoria VALUES (100108009,'Otras frutas tropicales y subtropicales','Otras frutas tropicales y subtropicales-100108009','Otras frutas tropicales y subtropicales-100108009 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>10</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C91" s="12">
         <v>1001</v>
@@ -10646,12 +10646,12 @@
         <v>INSERT INTO categoria VALUES (100108010,'Babaco','Babaco-100108010','Babaco-100108010 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>10</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C92" s="12">
         <v>1001</v>
@@ -10688,12 +10688,12 @@
         <v>INSERT INTO categoria VALUES (100108011,'Tumbo','Tumbo-100108011','Tumbo-100108011 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>10</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C93" s="12">
         <v>1001</v>
@@ -10730,12 +10730,12 @@
         <v>INSERT INTO categoria VALUES (100109001,'Uva','Uva-100109001','Uva-100109001 | Prod: Perennes-100109 | Sector: Agr-1001 | Industria: AGR - 10',100109);</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>10</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C94" s="12">
         <v>1001</v>
@@ -10772,12 +10772,12 @@
         <v>INSERT INTO categoria VALUES (100110001,'Maní','Maní-100110001','Maní-100110001 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>10</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C95" s="12">
         <v>1001</v>
@@ -10814,12 +10814,12 @@
         <v>INSERT INTO categoria VALUES (100110002,'Porotos','Porotos-100110002','Porotos-100110002 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>10</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C96" s="12">
         <v>1001</v>
@@ -10856,12 +10856,12 @@
         <v>INSERT INTO categoria VALUES (100110003,'Lentejas','Lentejas-100110003','Lentejas-100110003 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>10</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C97" s="12">
         <v>1001</v>
@@ -10898,12 +10898,12 @@
         <v>INSERT INTO categoria VALUES (100110004,'Soya','Soya-100110004','Soya-100110004 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>10</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C98" s="12">
         <v>1001</v>
@@ -10940,12 +10940,12 @@
         <v>INSERT INTO categoria VALUES (100110005,'Garbanzos','Garbanzos-100110005','Garbanzos-100110005 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>10</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C99" s="12">
         <v>1001</v>
@@ -10982,12 +10982,12 @@
         <v>INSERT INTO categoria VALUES (100110006,'Arvejas','Arvejas-100110006','Arvejas-100110006 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>10</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C100" s="12">
         <v>1001</v>
@@ -11024,12 +11024,12 @@
         <v>INSERT INTO categoria VALUES (100110007,'Otras Legumbres','Otras Legumbres-100110007','Otras Legumbres-100110007 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>10</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C101" s="12">
         <v>1001</v>
@@ -11066,12 +11066,12 @@
         <v>INSERT INTO categoria VALUES (100111001,'Arroz','Arroz-100111001','Arroz-100111001 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>10</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C102" s="12">
         <v>1001</v>
@@ -11108,12 +11108,12 @@
         <v>INSERT INTO categoria VALUES (100111002,'Trigo','Trigo-100111002','Trigo-100111002 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>10</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C103" s="12">
         <v>1001</v>
@@ -11150,12 +11150,12 @@
         <v>INSERT INTO categoria VALUES (100111003,'Maíz','Maíz-100111003','Maíz-100111003 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C104" s="12">
         <v>1001</v>
@@ -11192,12 +11192,12 @@
         <v>INSERT INTO categoria VALUES (100111004,'Cebada','Cebada-100111004','Cebada-100111004 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>10</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C105" s="12">
         <v>1001</v>
@@ -11234,12 +11234,12 @@
         <v>INSERT INTO categoria VALUES (100111005,'Avena','Avena-100111005','Avena-100111005 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>10</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C106" s="12">
         <v>1001</v>
@@ -11276,12 +11276,12 @@
         <v>INSERT INTO categoria VALUES (100111006,'Centeno','Centeno-100111006','Centeno-100111006 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>10</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C107" s="12">
         <v>1001</v>
@@ -11318,12 +11318,12 @@
         <v>INSERT INTO categoria VALUES (100111007,'Mote','Mote-100111007','Mote-100111007 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>10</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C108" s="12">
         <v>1001</v>
@@ -11360,12 +11360,12 @@
         <v>INSERT INTO categoria VALUES (100111008,'Quinoa','Quinoa-100111008','Quinoa-100111008 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>10</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C109" s="12">
         <v>1001</v>
@@ -11402,12 +11402,12 @@
         <v>INSERT INTO categoria VALUES (100111009,'Amaranto','Amaranto-100111009','Amaranto-100111009 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>10</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C110" s="12">
         <v>1001</v>
@@ -11444,12 +11444,12 @@
         <v>INSERT INTO categoria VALUES (100111010,'Mijo','Mijo-100111010','Mijo-100111010 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>10</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C111" s="12">
         <v>1001</v>
@@ -11486,12 +11486,12 @@
         <v>INSERT INTO categoria VALUES (100111011,'Otros cereales','Otros cereales-100111011','Otros cereales-100111011 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>10</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C112" s="12">
         <v>1001</v>
@@ -11528,12 +11528,12 @@
         <v>INSERT INTO categoria VALUES (100111012,'Triticale','Triticale-100111012','Triticale-100111012 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>10</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C113" s="12">
         <v>1001</v>
@@ -11570,12 +11570,12 @@
         <v>INSERT INTO categoria VALUES (100112001,'Berenjena','Berenjena-100112001','Berenjena-100112001 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>10</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C114" s="12">
         <v>1001</v>
@@ -11612,12 +11612,12 @@
         <v>INSERT INTO categoria VALUES (100112002,'Pimiento','Pimiento-100112002','Pimiento-100112002 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>10</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C115" s="12">
         <v>1001</v>
@@ -11654,12 +11654,12 @@
         <v>INSERT INTO categoria VALUES (100112003,'Ajo','Ajo-100112003','Ajo-100112003 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>10</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C116" s="12">
         <v>1001</v>
@@ -11696,12 +11696,12 @@
         <v>INSERT INTO categoria VALUES (100112004,'Cebolla','Cebolla-100112004','Cebolla-100112004 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>10</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C117" s="12">
         <v>1001</v>
@@ -11738,12 +11738,12 @@
         <v>INSERT INTO categoria VALUES (100112005,'Puerro','Puerro-100112005','Puerro-100112005 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>10</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C118" s="12">
         <v>1001</v>
@@ -11780,12 +11780,12 @@
         <v>INSERT INTO categoria VALUES (100112006,'Repollo','Repollo-100112006','Repollo-100112006 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>10</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C119" s="12">
         <v>1001</v>
@@ -11822,12 +11822,12 @@
         <v>INSERT INTO categoria VALUES (100112007,'Coles de Bruselas','Coles de Bruselas-100112007','Coles de Bruselas-100112007 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>10</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C120" s="12">
         <v>1001</v>
@@ -11864,12 +11864,12 @@
         <v>INSERT INTO categoria VALUES (100112008,'Coliflor','Coliflor-100112008','Coliflor-100112008 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>10</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C121" s="12">
         <v>1001</v>
@@ -11906,12 +11906,12 @@
         <v>INSERT INTO categoria VALUES (100112009,'Acelga','Acelga-100112009','Acelga-100112009 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>10</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C122" s="12">
         <v>1001</v>
@@ -11948,12 +11948,12 @@
         <v>INSERT INTO categoria VALUES (100112010,'Achicoria','Achicoria-100112010','Achicoria-100112010 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>10</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C123" s="12">
         <v>1001</v>
@@ -11990,12 +11990,12 @@
         <v>INSERT INTO categoria VALUES (100112011,'Escarola','Escarola-100112011','Escarola-100112011 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>10</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C124" s="12">
         <v>1001</v>
@@ -12032,12 +12032,12 @@
         <v>INSERT INTO categoria VALUES (100112012,'Espinaca','Espinaca-100112012','Espinaca-100112012 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>10</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C125" s="12">
         <v>1001</v>
@@ -12074,12 +12074,12 @@
         <v>INSERT INTO categoria VALUES (100112013,'Alcachofa','Alcachofa-100112013','Alcachofa-100112013 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>10</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C126" s="12">
         <v>1001</v>
@@ -12116,12 +12116,12 @@
         <v>INSERT INTO categoria VALUES (100112014,'Calabacín','Calabacín-100112014','Calabacín-100112014 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>10</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C127" s="12">
         <v>1001</v>
@@ -12158,12 +12158,12 @@
         <v>INSERT INTO categoria VALUES (100112015,'Calabaza','Calabaza-100112015','Calabaza-100112015 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>10</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C128" s="12">
         <v>1001</v>
@@ -12200,12 +12200,12 @@
         <v>INSERT INTO categoria VALUES (100112016,'Pepino','Pepino-100112016','Pepino-100112016 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>10</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C129" s="12">
         <v>1001</v>
@@ -12242,12 +12242,12 @@
         <v>INSERT INTO categoria VALUES (100112017,'Apio','Apio-100112017','Apio-100112017 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>10</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C130" s="12">
         <v>1001</v>
@@ -12284,12 +12284,12 @@
         <v>INSERT INTO categoria VALUES (100112018,'Espárrago','Espárrago-100112018','Espárrago-100112018 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>10</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C131" s="12">
         <v>1001</v>
@@ -12326,12 +12326,12 @@
         <v>INSERT INTO categoria VALUES (100112019,'Kale','Kale-100112019','Kale-100112019 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>10</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C132" s="12">
         <v>1001</v>
@@ -12368,12 +12368,12 @@
         <v>INSERT INTO categoria VALUES (100112020,'Tomate','Tomate-100112020','Tomate-100112020 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>10</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C133" s="12">
         <v>1001</v>
@@ -12410,12 +12410,12 @@
         <v>INSERT INTO categoria VALUES (100112021,'Ají','Ají-100112021','Ají-100112021 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>10</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C134" s="12">
         <v>1001</v>
@@ -12452,12 +12452,12 @@
         <v>INSERT INTO categoria VALUES (100112022,'Arveja Verde','Arveja Verde-100112022','Arveja Verde-100112022 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>10</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C135" s="12">
         <v>1001</v>
@@ -12494,12 +12494,12 @@
         <v>INSERT INTO categoria VALUES (100112023,'Brócoli','Brócoli-100112023','Brócoli-100112023 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>10</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C136" s="12">
         <v>1001</v>
@@ -12536,12 +12536,12 @@
         <v>INSERT INTO categoria VALUES (100112024,'Choclo','Choclo-100112024','Choclo-100112024 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>10</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C137" s="12">
         <v>1001</v>
@@ -12578,12 +12578,12 @@
         <v>INSERT INTO categoria VALUES (100112025,'Frutilla','Frutilla-100112025','Frutilla-100112025 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>10</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C138" s="12">
         <v>1001</v>
@@ -12620,12 +12620,12 @@
         <v>INSERT INTO categoria VALUES (100112026,'Habas','Habas-100112026','Habas-100112026 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>10</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C139" s="12">
         <v>1001</v>
@@ -12662,12 +12662,12 @@
         <v>INSERT INTO categoria VALUES (100112027,'Melón','Melón-100112027','Melón-100112027 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>10</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C140" s="12">
         <v>1001</v>
@@ -12704,12 +12704,12 @@
         <v>INSERT INTO categoria VALUES (100112028,'Sandía','Sandía-100112028','Sandía-100112028 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>10</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C141" s="12">
         <v>1001</v>
@@ -12746,12 +12746,12 @@
         <v>INSERT INTO categoria VALUES (100112029,'Orégano','Orégano-100112029','Orégano-100112029 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>10</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C142" s="12">
         <v>1001</v>
@@ -12788,12 +12788,12 @@
         <v>INSERT INTO categoria VALUES (100112030,'Poroto granado','Poroto granado-100112030','Poroto granado-100112030 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>10</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C143" s="12">
         <v>1001</v>
@@ -12830,12 +12830,12 @@
         <v>INSERT INTO categoria VALUES (100112031,'Poroto verde','Poroto verde-100112031','Poroto verde-100112031 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>10</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C144" s="12">
         <v>1001</v>
@@ -12872,12 +12872,12 @@
         <v>INSERT INTO categoria VALUES (100112032,'Zapallo italiano','Zapallo italiano-100112032','Zapallo italiano-100112032 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>10</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C145" s="12">
         <v>1001</v>
@@ -12914,12 +12914,12 @@
         <v>INSERT INTO categoria VALUES (100112033,'Lechuga','Lechuga-100112033','Lechuga-100112033 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>10</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C146" s="12">
         <v>1001</v>
@@ -12956,12 +12956,12 @@
         <v>INSERT INTO categoria VALUES (100112034,'Albahaca','Albahaca-100112034','Albahaca-100112034 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>10</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C147" s="12">
         <v>1001</v>
@@ -12998,12 +12998,12 @@
         <v>INSERT INTO categoria VALUES (100112035,'Bruselas (repollito)','Bruselas (repollito)-100112035','Bruselas (repollito)-100112035 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>10</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C148" s="12">
         <v>1001</v>
@@ -13040,12 +13040,12 @@
         <v>INSERT INTO categoria VALUES (100112036,'Caigua','Caigua-100112036','Caigua-100112036 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>10</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C149" s="12">
         <v>1001</v>
@@ -13082,12 +13082,12 @@
         <v>INSERT INTO categoria VALUES (100112037,'Cebollín','Cebollín-100112037','Cebollín-100112037 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>10</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C150" s="12">
         <v>1001</v>
@@ -13124,12 +13124,12 @@
         <v>INSERT INTO categoria VALUES (100112038,'Cebollín baby','Cebollín baby-100112038','Cebollín baby-100112038 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>10</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C151" s="12">
         <v>1001</v>
@@ -13166,12 +13166,12 @@
         <v>INSERT INTO categoria VALUES (100112039,'Ciboulette','Ciboulette-100112039','Ciboulette-100112039 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>10</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C152" s="12">
         <v>1001</v>
@@ -13208,12 +13208,12 @@
         <v>INSERT INTO categoria VALUES (100112040,'Cilantro','Cilantro-100112040','Cilantro-100112040 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>10</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C153" s="12">
         <v>1001</v>
@@ -13250,12 +13250,12 @@
         <v>INSERT INTO categoria VALUES (100112041,'Fruto del paraíso','Fruto del paraíso-100112041','Fruto del paraíso-100112041 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>10</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C154" s="12">
         <v>1001</v>
@@ -13292,12 +13292,12 @@
         <v>INSERT INTO categoria VALUES (100112042,'Locoto','Locoto-100112042','Locoto-100112042 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>10</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C155" s="12">
         <v>1001</v>
@@ -13334,12 +13334,12 @@
         <v>INSERT INTO categoria VALUES (100112043,'Pepino dulce','Pepino dulce-100112043','Pepino dulce-100112043 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>10</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C156" s="12">
         <v>1001</v>
@@ -13376,12 +13376,12 @@
         <v>INSERT INTO categoria VALUES (100112044,'Perejil','Perejil-100112044','Perejil-100112044 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>10</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C157" s="12">
         <v>1001</v>
@@ -13418,12 +13418,12 @@
         <v>INSERT INTO categoria VALUES (100112045,'Zapallo','Zapallo-100112045','Zapallo-100112045 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>10</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C158" s="12">
         <v>1001</v>
@@ -13460,12 +13460,12 @@
         <v>INSERT INTO categoria VALUES (100112046,'Hortalizas','Hortalizas-100112046','Hortalizas-100112046 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>10</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C159" s="12">
         <v>1001</v>
@@ -13502,12 +13502,12 @@
         <v>INSERT INTO categoria VALUES (100112047,'Hakusai','Hakusai-100112047','Hakusai-100112047 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>10</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C160" s="12">
         <v>1001</v>
@@ -13544,12 +13544,12 @@
         <v>INSERT INTO categoria VALUES (100112048,'Petit Vert','Petit Vert-100112048','Petit Vert-100112048 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <v>10</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C161" s="12">
         <v>1001</v>
@@ -13586,12 +13586,12 @@
         <v>INSERT INTO categoria VALUES (100112049,'Champiñón','Champiñón-100112049','Champiñón-100112049 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>10</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C162" s="12">
         <v>1001</v>
@@ -13628,12 +13628,12 @@
         <v>INSERT INTO categoria VALUES (100112050,'Hongo','Hongo-100112050','Hongo-100112050 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>10</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C163" s="12">
         <v>1001</v>
@@ -13670,12 +13670,12 @@
         <v>INSERT INTO categoria VALUES (100112051,'Berro','Berro-100112051','Berro-100112051 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <v>10</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C164" s="12">
         <v>1001</v>
@@ -13712,12 +13712,12 @@
         <v>INSERT INTO categoria VALUES (100112052,'Albahaca','Albahaca-100112052','Albahaca-100112052 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <v>10</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C165" s="12">
         <v>1001</v>
@@ -13754,12 +13754,12 @@
         <v>INSERT INTO categoria VALUES (100112053,'Alcayota','Alcayota-100112053','Alcayota-100112053 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>10</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C166" s="12">
         <v>1001</v>
@@ -13796,12 +13796,12 @@
         <v>INSERT INTO categoria VALUES (100112054,'Otras Hortalizas','Otras Hortalizas-100112054','Otras Hortalizas-100112054 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <v>10</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C167" s="12">
         <v>1001</v>
@@ -13838,12 +13838,12 @@
         <v>INSERT INTO categoria VALUES (100112055,'Hongo Silvestre','Hongo Silvestre-100112055','Hongo Silvestre-100112055 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
         <v>10</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C168" s="12">
         <v>1001</v>
@@ -13880,12 +13880,12 @@
         <v>INSERT INTO categoria VALUES (100112056,'Melón Calameño','Melón Calameño-100112056','Melón Calameño-100112056 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <v>10</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C169" s="12">
         <v>1001</v>
@@ -13922,12 +13922,12 @@
         <v>INSERT INTO categoria VALUES (100112057,'Melón Tuna','Melón Tuna-100112057','Melón Tuna-100112057 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
         <v>10</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C170" s="12">
         <v>1001</v>
@@ -13964,12 +13964,12 @@
         <v>INSERT INTO categoria VALUES (100112058,'Zapallo Camote','Zapallo Camote-100112058','Zapallo Camote-100112058 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>10</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C171" s="12">
         <v>1001</v>
@@ -14006,12 +14006,12 @@
         <v>INSERT INTO categoria VALUES (100113001,'Lupino','Lupino-100113001','Lupino-100113001 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <v>10</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C172" s="12">
         <v>1001</v>
@@ -14048,12 +14048,12 @@
         <v>INSERT INTO categoria VALUES (100113002,'Maravilla','Maravilla-100113002','Maravilla-100113002 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <v>10</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C173" s="12">
         <v>1001</v>
@@ -14090,12 +14090,12 @@
         <v>INSERT INTO categoria VALUES (100113003,'Raps','Raps-100113003','Raps-100113003 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>10</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C174" s="12">
         <v>1001</v>
@@ -14132,12 +14132,12 @@
         <v>INSERT INTO categoria VALUES (100113004,'Remolacha (caña de azúcar)','Remolacha (caña de azúcar)-100113004','Remolacha (caña de azúcar)-100113004 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>10</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C175" s="12">
         <v>1001</v>
@@ -14174,12 +14174,12 @@
         <v>INSERT INTO categoria VALUES (100113005,'Tabaco','Tabaco-100113005','Tabaco-100113005 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
         <v>10</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C176" s="12">
         <v>1001</v>
@@ -14216,12 +14216,12 @@
         <v>INSERT INTO categoria VALUES (100113006,'Otras industriales','Otras industriales-100113006','Otras industriales-100113006 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>10</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C177" s="12">
         <v>1001</v>
@@ -14258,12 +14258,12 @@
         <v>INSERT INTO categoria VALUES (100113007,'Sésamo','Sésamo-100113007','Sésamo-100113007 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>10</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C178" s="12">
         <v>1001</v>
@@ -14300,12 +14300,12 @@
         <v>INSERT INTO categoria VALUES (100113008,'Chía','Chía-100113008','Chía-100113008 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>10</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C179" s="12">
         <v>1001</v>
@@ -14342,12 +14342,12 @@
         <v>INSERT INTO categoria VALUES (100113009,'Linaza','Linaza-100113009','Linaza-100113009 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>10</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C180" s="12">
         <v>1001</v>
@@ -14384,12 +14384,12 @@
         <v>INSERT INTO categoria VALUES (100113010,'Pepa de Zapallo','Pepa de Zapallo-100113010','Pepa de Zapallo-100113010 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>10</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C181" s="12">
         <v>1001</v>
@@ -14426,12 +14426,12 @@
         <v>INSERT INTO categoria VALUES (100113011,'Pepa de Uva','Pepa de Uva-100113011','Pepa de Uva-100113011 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>10</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C182" s="12">
         <v>1001</v>
@@ -14468,12 +14468,12 @@
         <v>INSERT INTO categoria VALUES (100114001,'Papa','Papa-100114001','Papa-100114001 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>10</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C183" s="12">
         <v>1001</v>
@@ -14510,12 +14510,12 @@
         <v>INSERT INTO categoria VALUES (100114002,'Camote','Camote-100114002','Camote-100114002 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>10</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C184" s="12">
         <v>1001</v>
@@ -14552,12 +14552,12 @@
         <v>INSERT INTO categoria VALUES (100114003,'Ñame','Ñame-100114003','Ñame-100114003 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>10</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C185" s="12">
         <v>1001</v>
@@ -14594,12 +14594,12 @@
         <v>INSERT INTO categoria VALUES (100114004,'Ginsen','Ginsen-100114004','Ginsen-100114004 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>10</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C186" s="12">
         <v>1001</v>
@@ -14636,12 +14636,12 @@
         <v>INSERT INTO categoria VALUES (100114005,'Nabo','Nabo-100114005','Nabo-100114005 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>10</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C187" s="12">
         <v>1001</v>
@@ -14678,12 +14678,12 @@
         <v>INSERT INTO categoria VALUES (100114006,'Cúrcuma','Cúrcuma-100114006','Cúrcuma-100114006 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>10</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C188" s="12">
         <v>1001</v>
@@ -14720,12 +14720,12 @@
         <v>INSERT INTO categoria VALUES (100114007,'Jengibre','Jengibre-100114007','Jengibre-100114007 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>10</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C189" s="12">
         <v>1001</v>
@@ -14762,12 +14762,12 @@
         <v>INSERT INTO categoria VALUES (100114008,'Yuca','Yuca-100114008','Yuca-100114008 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>10</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C190" s="12">
         <v>1001</v>
@@ -14804,12 +14804,12 @@
         <v>INSERT INTO categoria VALUES (100114009,'Olluca','Olluca-100114009','Olluca-100114009 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>10</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C191" s="12">
         <v>1001</v>
@@ -14846,12 +14846,12 @@
         <v>INSERT INTO categoria VALUES (100114010,'Rábano','Rábano-100114010','Rábano-100114010 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>10</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C192" s="12">
         <v>1001</v>
@@ -14888,12 +14888,12 @@
         <v>INSERT INTO categoria VALUES (100114011,'Remolacha','Remolacha-100114011','Remolacha-100114011 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>10</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C193" s="12">
         <v>1001</v>
@@ -14930,12 +14930,12 @@
         <v>INSERT INTO categoria VALUES (100114012,'Wasabi','Wasabi-100114012','Wasabi-100114012 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>10</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C194" s="12">
         <v>1001</v>
@@ -14972,12 +14972,12 @@
         <v>INSERT INTO categoria VALUES (100114013,'Zanahoria','Zanahoria-100114013','Zanahoria-100114013 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>10</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C195" s="12">
         <v>1001</v>
@@ -15014,12 +15014,12 @@
         <v>INSERT INTO categoria VALUES (100114014,'Betarraga','Betarraga-100114014','Betarraga-100114014 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <v>10</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C196" s="12">
         <v>1001</v>
@@ -15056,12 +15056,12 @@
         <v>INSERT INTO categoria VALUES (100114015,'Otros tubérculos','Otros tubérculos-100114015','Otros tubérculos-100114015 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <v>10</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C197" s="12">
         <v>1001</v>
@@ -15098,12 +15098,12 @@
         <v>INSERT INTO categoria VALUES (100115001,'Semillas de hortalizas','Semillas de hortalizas-100115001','Semillas de hortalizas-100115001 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>10</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C198" s="12">
         <v>1001</v>
@@ -15140,12 +15140,12 @@
         <v>INSERT INTO categoria VALUES (100115002,'Semillas de frutas','Semillas de frutas-100115002','Semillas de frutas-100115002 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <v>10</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C199" s="12">
         <v>1001</v>
@@ -15182,12 +15182,12 @@
         <v>INSERT INTO categoria VALUES (100115003,'Otras semillas (cereales, legumbres y oleaginosas)','Otras semillas (cereales, legumbres y oleaginosas)-100115003','Otras semillas (cereales, legumbres y oleaginosas)-100115003 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>10</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C200" s="12">
         <v>1001</v>
@@ -15211,25 +15211,25 @@
         <v>21</v>
       </c>
       <c r="J200" s="34" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="K200" s="35" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M200" s="36" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO categoria VALUES (100115004,'Otros','Otros-100115004','Otros-100115004 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
         <v>10</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C201" s="12">
         <v>1001</v>
@@ -15266,12 +15266,12 @@
         <v>INSERT INTO categoria VALUES (100116001,'Especias','Especias-100116001','Especias-100116001 | Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',100116);</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
         <v>10</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C202" s="12">
         <v>1001</v>
@@ -15308,12 +15308,12 @@
         <v>INSERT INTO categoria VALUES (100117001,'Plantas para preparar bebidas','Plantas para preparar bebidas-100117001','Plantas para preparar bebidas-100117001 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
         <v>10</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C203" s="12">
         <v>1001</v>
@@ -15350,12 +15350,12 @@
         <v>INSERT INTO categoria VALUES (100117002,'Plantas de fibra','Plantas de fibra-100117002','Plantas de fibra-100117002 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <v>10</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C204" s="12">
         <v>1001</v>
@@ -15392,12 +15392,12 @@
         <v>INSERT INTO categoria VALUES (100117003,'Plantas aromáticas, medicinales y farmacéuticas','Plantas aromáticas, medicinales y farmacéuticas-100117003','Plantas aromáticas, medicinales y farmacéuticas-100117003 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
         <v>10</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C205" s="12">
         <v>1001</v>
@@ -15434,12 +15434,12 @@
         <v>INSERT INTO categoria VALUES (100117004,'Otras plantas','Otras plantas-100117004','Otras plantas-100117004 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
         <v>10</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C206" s="12">
         <v>1001</v>
@@ -15476,12 +15476,12 @@
         <v>INSERT INTO categoria VALUES (100117005,'Flores','Flores-100117005','Flores-100117005 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
         <v>10</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C207" s="12">
         <v>1001</v>
@@ -15518,12 +15518,12 @@
         <v>INSERT INTO categoria VALUES (100117006,'Forraje','Forraje-100117006','Forraje-100117006 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
         <v>10</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C208" s="12">
         <v>1001</v>
@@ -15560,12 +15560,12 @@
         <v>INSERT INTO categoria VALUES (100118001,'Mano de Obra en Industria Frutícola','Mano de Obra en Industria Frutícola-100118001','Mano de Obra en Industria Frutícola-100118001 | Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',100118);</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>10</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C209" s="12">
         <v>1001</v>
@@ -15602,7 +15602,7 @@
         <v>INSERT INTO categoria VALUES (100118002,'Mano de Obra en Predios Frutícolas','Mano de Obra en Predios Frutícolas-100118002','Mano de Obra en Predios Frutícolas-100118002 | Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',100118);</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
         <v>27</v>
       </c>
@@ -15628,23 +15628,23 @@
         <v>1</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>888</v>
+        <v>1139</v>
       </c>
       <c r="J210" s="34" t="s">
-        <v>889</v>
+        <v>1140</v>
       </c>
       <c r="K210" s="35" t="s">
-        <v>1065</v>
+        <v>1141</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>890</v>
+        <v>1142</v>
       </c>
       <c r="M210" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <v>27</v>
       </c>
@@ -15673,20 +15673,20 @@
         <v>223</v>
       </c>
       <c r="J211" s="34" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="K211" s="35" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="M211" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
         <v>27</v>
       </c>
@@ -15715,20 +15715,20 @@
         <v>224</v>
       </c>
       <c r="J212" s="34" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="K212" s="35" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="M212" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A213" s="12">
         <v>27</v>
       </c>
@@ -15757,20 +15757,20 @@
         <v>225</v>
       </c>
       <c r="J213" s="34" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="K213" s="35" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M213" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <v>27</v>
       </c>
@@ -15799,20 +15799,20 @@
         <v>226</v>
       </c>
       <c r="J214" s="34" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="K214" s="35" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="L214" s="9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="M214" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
         <v>27</v>
       </c>
@@ -15841,20 +15841,20 @@
         <v>227</v>
       </c>
       <c r="J215" s="34" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K215" s="35" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="L215" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="M215" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <v>27</v>
       </c>
@@ -15883,20 +15883,20 @@
         <v>228</v>
       </c>
       <c r="J216" s="34" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K216" s="35" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="M216" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
         <v>27</v>
       </c>
@@ -15925,20 +15925,20 @@
         <v>229</v>
       </c>
       <c r="J217" s="34" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="K217" s="35" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="L217" s="9" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="M217" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>27</v>
       </c>
@@ -15967,20 +15967,20 @@
         <v>230</v>
       </c>
       <c r="J218" s="34" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="K218" s="35" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="M218" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>27</v>
       </c>
@@ -16009,20 +16009,20 @@
         <v>231</v>
       </c>
       <c r="J219" s="34" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K219" s="35" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="M219" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
         <v>27</v>
       </c>
@@ -16051,20 +16051,20 @@
         <v>232</v>
       </c>
       <c r="J220" s="34" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K220" s="35" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="M220" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <v>27</v>
       </c>
@@ -16093,20 +16093,20 @@
         <v>233</v>
       </c>
       <c r="J221" s="34" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K221" s="35" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="M221" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <v>27</v>
       </c>
@@ -16135,20 +16135,20 @@
         <v>234</v>
       </c>
       <c r="J222" s="34" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K222" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="M222" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
         <v>27</v>
       </c>
@@ -16177,20 +16177,20 @@
         <v>235</v>
       </c>
       <c r="J223" s="34" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="K223" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="L223" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="M223" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
         <v>27</v>
       </c>
@@ -16219,20 +16219,20 @@
         <v>236</v>
       </c>
       <c r="J224" s="34" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="K224" s="35" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="M224" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>27</v>
       </c>
@@ -16261,20 +16261,20 @@
         <v>237</v>
       </c>
       <c r="J225" s="34" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K225" s="35" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="M225" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A226" s="12">
         <v>27</v>
       </c>
@@ -16303,20 +16303,20 @@
         <v>238</v>
       </c>
       <c r="J226" s="34" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K226" s="35" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="M226" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
         <v>27</v>
       </c>
@@ -16345,20 +16345,20 @@
         <v>239</v>
       </c>
       <c r="J227" s="34" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="K227" s="35" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M227" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A228" s="12">
         <v>27</v>
       </c>
@@ -16387,20 +16387,20 @@
         <v>240</v>
       </c>
       <c r="J228" s="34" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K228" s="35" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="M228" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
         <v>27</v>
       </c>
@@ -16429,20 +16429,20 @@
         <v>241</v>
       </c>
       <c r="J229" s="34" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K229" s="35" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="M229" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>27</v>
       </c>
@@ -16471,20 +16471,20 @@
         <v>242</v>
       </c>
       <c r="J230" s="34" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="K230" s="35" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="M230" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>27</v>
       </c>
@@ -16513,20 +16513,20 @@
         <v>243</v>
       </c>
       <c r="J231" s="34" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="K231" s="35" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="M231" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>27</v>
       </c>
@@ -16555,20 +16555,20 @@
         <v>244</v>
       </c>
       <c r="J232" s="34" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="K232" s="35" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M232" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>27</v>
       </c>
@@ -16597,20 +16597,20 @@
         <v>245</v>
       </c>
       <c r="J233" s="34" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="K233" s="35" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M233" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <v>27</v>
       </c>
@@ -16639,20 +16639,20 @@
         <v>246</v>
       </c>
       <c r="J234" s="34" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="K234" s="35" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="M234" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>27</v>
       </c>
@@ -16678,23 +16678,23 @@
         <v>7</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="J235" s="34" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="K235" s="35" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M235" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>27</v>
       </c>
@@ -16720,23 +16720,23 @@
         <v>8</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="J236" s="34" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K236" s="35" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M236" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>27</v>
       </c>
@@ -16765,20 +16765,20 @@
         <v>252</v>
       </c>
       <c r="J237" s="34" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="K237" s="35" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="M237" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>27</v>
       </c>
@@ -16807,20 +16807,20 @@
         <v>247</v>
       </c>
       <c r="J238" s="34" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K238" s="35" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="M238" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>27</v>
       </c>
@@ -16849,20 +16849,20 @@
         <v>248</v>
       </c>
       <c r="J239" s="34" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K239" s="35" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="M239" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>27</v>
       </c>
@@ -16891,20 +16891,20 @@
         <v>249</v>
       </c>
       <c r="J240" s="34" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K240" s="35" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="M240" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>27</v>
       </c>
@@ -16930,23 +16930,23 @@
         <v>4</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="J241" s="34" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="K241" s="35" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M241" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>27</v>
       </c>
@@ -16975,20 +16975,20 @@
         <v>250</v>
       </c>
       <c r="J242" s="34" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="K242" s="35" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M242" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>27</v>
       </c>
@@ -17017,20 +17017,20 @@
         <v>251</v>
       </c>
       <c r="J243" s="34" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K243" s="35" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M243" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>27</v>
       </c>
@@ -17056,23 +17056,23 @@
         <v>2</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J244" s="34" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="K244" s="35" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M244" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>27</v>
       </c>
@@ -17098,23 +17098,23 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J245" s="34" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K245" s="35" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M245" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>27</v>
       </c>
@@ -17140,23 +17140,23 @@
         <v>2</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J246" s="34" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K246" s="35" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M246" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>27</v>
       </c>
@@ -17185,20 +17185,20 @@
         <v>223</v>
       </c>
       <c r="J247" s="34" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="K247" s="35" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="M247" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>27</v>
       </c>
@@ -17224,23 +17224,23 @@
         <v>4</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J248" s="34" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K248" s="35" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="M248" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>27</v>
       </c>
@@ -17266,23 +17266,23 @@
         <v>5</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J249" s="34" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="K249" s="35" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="M249" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>27</v>
       </c>
@@ -17308,23 +17308,23 @@
         <v>6</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J250" s="34" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K250" s="35" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M250" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A251" s="12">
         <v>27</v>
       </c>
@@ -17350,23 +17350,23 @@
         <v>7</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="J251" s="34" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="K251" s="35" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="M251" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>27</v>
       </c>
@@ -17392,23 +17392,23 @@
         <v>1</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J252" s="34" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="K252" s="35" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="M252" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A253" s="12">
         <v>27</v>
       </c>
@@ -17434,23 +17434,23 @@
         <v>2</v>
       </c>
       <c r="I253" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="J253" s="34" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="K253" s="35" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="M253" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>27</v>
       </c>
@@ -17476,23 +17476,23 @@
         <v>3</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="J254" s="34" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="K254" s="35" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M254" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>27</v>
       </c>
@@ -17518,23 +17518,23 @@
         <v>4</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="J255" s="34" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="K255" s="35" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M255" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>27</v>
       </c>
@@ -17560,23 +17560,23 @@
         <v>5</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J256" s="34" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="K256" s="35" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M256" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>27</v>
       </c>
@@ -17602,23 +17602,23 @@
         <v>6</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J257" s="34" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="K257" s="35" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="M257" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A258" s="12">
         <v>27</v>
       </c>
@@ -17644,23 +17644,23 @@
         <v>7</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J258" s="34" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K258" s="35" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="M258" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A259" s="12">
         <v>27</v>
       </c>
@@ -17686,23 +17686,23 @@
         <v>8</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="J259" s="34" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="K259" s="35" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="M259" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>27</v>
       </c>
@@ -17728,23 +17728,23 @@
         <v>9</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="J260" s="34" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="K260" s="35" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M260" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A261" s="12">
         <v>27</v>
       </c>
@@ -17773,20 +17773,20 @@
         <v>886</v>
       </c>
       <c r="J261" s="34" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="K261" s="35" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="M261" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>27</v>
       </c>
@@ -17812,23 +17812,23 @@
         <v>1</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="J262" s="34" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="K262" s="35" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M262" s="36" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A263" s="43">
         <v>27</v>
       </c>
@@ -17854,23 +17854,23 @@
         <v>2</v>
       </c>
       <c r="I263" s="44" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="J263" s="47" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="K263" s="48" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="L263" s="49" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="M263" s="50" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A264" s="43">
         <v>27</v>
       </c>
@@ -17896,23 +17896,23 @@
         <v>3</v>
       </c>
       <c r="I264" s="44" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J264" s="47" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="K264" s="48" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="L264" s="49" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="M264" s="50" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A265" s="43">
         <v>27</v>
       </c>
@@ -17938,23 +17938,23 @@
         <v>4</v>
       </c>
       <c r="I265" s="44" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="J265" s="47" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="K265" s="48" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="L265" s="49" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="M265" s="50" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>27</v>
       </c>
@@ -17980,23 +17980,23 @@
         <v>5</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="J266" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="K266" s="35" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="M266" s="36" t="str">
         <f t="shared" ref="M266:M267" si="4">+"INSERT INTO categoria VALUES ("&amp;G266&amp;",'"&amp;I266&amp;"','"&amp;J266&amp;"','"&amp;K266&amp;"',"&amp;E266&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A267" s="43">
         <v>27</v>
       </c>
@@ -18022,23 +18022,23 @@
         <v>6</v>
       </c>
       <c r="I267" s="44" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J267" s="47" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="K267" s="48" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="L267" s="49" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M267" s="50" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
         <v>27</v>
       </c>
@@ -18064,23 +18064,23 @@
         <v>7</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="J268" s="34" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="K268" s="35" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="M268" s="36" t="str">
         <f t="shared" ref="M268:M269" si="5">+"INSERT INTO categoria VALUES ("&amp;G268&amp;",'"&amp;I268&amp;"','"&amp;J268&amp;"','"&amp;K268&amp;"',"&amp;E268&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A269" s="43">
         <v>27</v>
       </c>
@@ -18106,23 +18106,23 @@
         <v>8</v>
       </c>
       <c r="I269" s="44" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J269" s="47" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="K269" s="48" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="L269" s="49" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M269" s="50" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A270" s="43">
         <v>27</v>
       </c>
@@ -18148,23 +18148,23 @@
         <v>9</v>
       </c>
       <c r="I270" s="44" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J270" s="47" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K270" s="48" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="L270" s="49" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M270" s="50" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G270&amp;",'"&amp;I270&amp;"','"&amp;J270&amp;"','"&amp;K270&amp;"',"&amp;E270&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A271" s="43">
         <v>27</v>
       </c>
@@ -18193,20 +18193,20 @@
         <v>887</v>
       </c>
       <c r="J271" s="47" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="K271" s="48" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="L271" s="49" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M271" s="50" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G271&amp;",'"&amp;I271&amp;"','"&amp;J271&amp;"','"&amp;K271&amp;"',"&amp;E271&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A272" s="12">
         <v>27</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>270110</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G272" s="13">
         <v>270110001</v>
@@ -18232,23 +18232,23 @@
         <v>1</v>
       </c>
       <c r="I272" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="J272" s="34" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="K272" s="35" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="M272" s="36" t="str">
         <f t="shared" ref="M272:M276" si="6">+"INSERT INTO categoria VALUES ("&amp;G272&amp;",'"&amp;I272&amp;"','"&amp;J272&amp;"','"&amp;K272&amp;"',"&amp;E272&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A273" s="12">
         <v>27</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>270110</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G273" s="13">
         <v>270110002</v>
@@ -18274,23 +18274,23 @@
         <v>2</v>
       </c>
       <c r="I273" s="8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="J273" s="34" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="K273" s="35" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="M273" s="36" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A274" s="12">
         <v>27</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>270110</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G274" s="13">
         <v>270110003</v>
@@ -18316,23 +18316,23 @@
         <v>3</v>
       </c>
       <c r="I274" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="J274" s="34" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="K274" s="35" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="L274" s="9" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="M274" s="36" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A275" s="12">
         <v>27</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>270111</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G275" s="13">
         <v>270111001</v>
@@ -18358,23 +18358,23 @@
         <v>1</v>
       </c>
       <c r="I275" s="8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J275" s="34" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="K275" s="35" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="M275" s="36" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A276" s="12">
         <v>27</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>270111</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G276" s="13">
         <v>270111002</v>
@@ -18400,16 +18400,16 @@
         <v>2</v>
       </c>
       <c r="I276" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="J276" s="34" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="K276" s="35" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="M276" s="36" t="str">
         <f t="shared" si="6"/>
